--- a/修論/本文0117/figure/j0_analysis.xlsx
+++ b/修論/本文0117/figure/j0_analysis.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\N\Documents\yakisaba\修論\本文0105\figure\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\N\Documents\yakisaba\修論\本文0117\figure\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{302A0835-A5AC-41A4-BCE1-B409F946F897}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C798EDA7-E20C-4206-90E9-D2C159896353}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3000" yWindow="0" windowWidth="12360" windowHeight="7980" firstSheet="3" activeTab="4" xr2:uid="{CCFCD27E-1F0B-405F-8564-B4DA451E3983}"/>
+    <workbookView xWindow="4035" yWindow="0" windowWidth="12360" windowHeight="7980" firstSheet="1" activeTab="1" xr2:uid="{CCFCD27E-1F0B-405F-8564-B4DA451E3983}"/>
   </bookViews>
   <sheets>
     <sheet name="3QW_broadcontact _J0_annaysis" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="41">
   <si>
     <t xml:space="preserve">  係数値 ±標準偏差</t>
   </si>
@@ -197,6 +197,10 @@
   </si>
   <si>
     <t>w300</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>w=3</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -648,7 +652,7 @@
         <v>500</v>
       </c>
       <c r="I5">
-        <f t="shared" ref="I4:I56" si="0">1/G5*10^4</f>
+        <f t="shared" ref="I5:I56" si="0">1/G5*10^4</f>
         <v>20</v>
       </c>
       <c r="K5" t="s">
@@ -1505,8 +1509,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68353D5A-B37C-4674-BEEA-04734638F192}">
   <dimension ref="B1:AQ27"/>
   <sheetViews>
-    <sheetView topLeftCell="V1" workbookViewId="0">
-      <selection activeCell="AA8" sqref="AA8"/>
+    <sheetView tabSelected="1" topLeftCell="V1" workbookViewId="0">
+      <selection activeCell="W19" sqref="W19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1960,7 +1964,7 @@
         <v>0.79095400000000005</v>
       </c>
       <c r="AD8">
-        <f t="shared" ref="AD8:AE13" si="3">1/AC8</f>
+        <f t="shared" ref="AD8:AD13" si="3">1/AC8</f>
         <v>1.2642960273290229</v>
       </c>
       <c r="AE8">
@@ -1999,7 +2003,7 @@
         <v>0.81717300000000004</v>
       </c>
       <c r="AP8">
-        <f t="shared" ref="AP8:AQ13" si="6">1/AO8</f>
+        <f t="shared" ref="AP8:AP13" si="6">1/AO8</f>
         <v>1.2237310826471262</v>
       </c>
       <c r="AQ8">
@@ -2492,7 +2496,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="17" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="17" spans="2:23" x14ac:dyDescent="0.4">
       <c r="B17">
         <v>0.81879999999999997</v>
       </c>
@@ -2506,15 +2510,18 @@
         <v>30</v>
       </c>
     </row>
-    <row r="18" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="18" spans="2:23" x14ac:dyDescent="0.4">
       <c r="B18">
         <v>1.5295000000000001</v>
       </c>
       <c r="E18">
         <v>5</v>
       </c>
-    </row>
-    <row r="19" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="W18" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="19" spans="2:23" x14ac:dyDescent="0.4">
       <c r="E19">
         <v>10</v>
       </c>
@@ -2528,7 +2535,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="20" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="20" spans="2:23" x14ac:dyDescent="0.4">
       <c r="B20">
         <v>1.7244900000000001</v>
       </c>
@@ -2548,7 +2555,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="22" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="22" spans="2:23" x14ac:dyDescent="0.4">
       <c r="I22">
         <v>0.622865</v>
       </c>
@@ -2562,7 +2569,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="23" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="23" spans="2:23" x14ac:dyDescent="0.4">
       <c r="I23">
         <v>0.772119</v>
       </c>
@@ -2576,7 +2583,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="25" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="25" spans="2:23" x14ac:dyDescent="0.4">
       <c r="I25">
         <v>0.68570399999999998</v>
       </c>
@@ -2587,7 +2594,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="26" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="26" spans="2:23" x14ac:dyDescent="0.4">
       <c r="I26">
         <v>0.81717300000000004</v>
       </c>
@@ -2598,7 +2605,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="27" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="27" spans="2:23" x14ac:dyDescent="0.4">
       <c r="I27" t="s">
         <v>31</v>
       </c>
@@ -6974,7 +6981,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10DAF3BB-2BF1-4573-A633-E23BD72AFDC2}">
   <dimension ref="B3:I30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>

--- a/修論/本文0117/figure/j0_analysis.xlsx
+++ b/修論/本文0117/figure/j0_analysis.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11208"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\N\Documents\yakisaba\修論\本文0117\figure\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nozomu/Documents/yakisaba/修論/本文0117/figure/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C798EDA7-E20C-4206-90E9-D2C159896353}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5839F9D8-0A6B-5F46-9308-AAF6CC75F9C4}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4035" yWindow="0" windowWidth="12360" windowHeight="7980" firstSheet="1" activeTab="1" xr2:uid="{CCFCD27E-1F0B-405F-8564-B4DA451E3983}"/>
+    <workbookView xWindow="4040" yWindow="460" windowWidth="20200" windowHeight="13160" activeTab="2" xr2:uid="{CCFCD27E-1F0B-405F-8564-B4DA451E3983}"/>
   </bookViews>
   <sheets>
     <sheet name="3QW_broadcontact _J0_annaysis" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,6 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -35,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="50">
   <si>
     <t xml:space="preserve">  係数値 ±標準偏差</t>
   </si>
@@ -203,12 +202,48 @@
     <t>w=3</t>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>sig_Gamma g0</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>sig_alpha</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>sig_j0</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>sig_alpha/Gammag0</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>sig alpha</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>sig_Gammag</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>alpha/gammag0</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>sig slpha/gammag0</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>sig j0</t>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -567,16 +602,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B514D3C-4392-42AD-844E-472965DFAC23}">
   <dimension ref="F3:W56"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="L14" sqref="L14"/>
+    <sheetView topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="O8" sqref="O8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18"/>
   <cols>
-    <col min="11" max="11" width="18.875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18.83203125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="6:23" x14ac:dyDescent="0.4">
+    <row r="3" spans="6:23">
       <c r="F3">
         <v>3</v>
       </c>
@@ -594,7 +630,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="6:23" x14ac:dyDescent="0.4">
+    <row r="4" spans="6:23">
       <c r="F4">
         <v>5</v>
       </c>
@@ -644,7 +680,7 @@
         <v>8.1099999999999992E-3</v>
       </c>
     </row>
-    <row r="5" spans="6:23" x14ac:dyDescent="0.4">
+    <row r="5" spans="6:23">
       <c r="F5">
         <v>10</v>
       </c>
@@ -694,7 +730,7 @@
         <v>5.6599999999999999E-4</v>
       </c>
     </row>
-    <row r="6" spans="6:23" x14ac:dyDescent="0.4">
+    <row r="6" spans="6:23">
       <c r="F6">
         <v>30</v>
       </c>
@@ -729,7 +765,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="6:23" x14ac:dyDescent="0.4">
+    <row r="7" spans="6:23">
       <c r="F7">
         <v>50</v>
       </c>
@@ -752,6 +788,12 @@
       <c r="M7" t="s">
         <v>10</v>
       </c>
+      <c r="N7" t="s">
+        <v>42</v>
+      </c>
+      <c r="O7">
+        <v>3.3</v>
+      </c>
       <c r="R7" t="s">
         <v>8</v>
       </c>
@@ -762,7 +804,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="6:23" x14ac:dyDescent="0.4">
+    <row r="8" spans="6:23">
       <c r="F8">
         <v>100</v>
       </c>
@@ -786,6 +828,13 @@
       <c r="M8" t="s">
         <v>13</v>
       </c>
+      <c r="N8" t="s">
+        <v>41</v>
+      </c>
+      <c r="O8">
+        <f>LN(1/0.32)/M5/M5*P5</f>
+        <v>11.345722130845825</v>
+      </c>
       <c r="R8" t="s">
         <v>6</v>
       </c>
@@ -797,7 +846,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="6:23" x14ac:dyDescent="0.4">
+    <row r="9" spans="6:23">
       <c r="F9">
         <v>300</v>
       </c>
@@ -821,6 +870,13 @@
       <c r="M9" t="s">
         <v>9</v>
       </c>
+      <c r="N9" t="s">
+        <v>43</v>
+      </c>
+      <c r="O9">
+        <f>SQRT(P10^2+P4^2)</f>
+        <v>2.4019048167386942E-2</v>
+      </c>
       <c r="R9" t="s">
         <v>7</v>
       </c>
@@ -832,7 +888,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="6:23" x14ac:dyDescent="0.4">
+    <row r="10" spans="6:23">
       <c r="F10">
         <v>3</v>
       </c>
@@ -846,8 +902,19 @@
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-    </row>
-    <row r="11" spans="6:23" x14ac:dyDescent="0.4">
+      <c r="N10">
+        <f>L7/L8</f>
+        <v>7.8078149229509203E-2</v>
+      </c>
+      <c r="O10" t="s">
+        <v>44</v>
+      </c>
+      <c r="P10">
+        <f>SQRT((O7/L8)^2+(L7/L8/L8*O8)^2)</f>
+        <v>2.2608462461371714E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="6:23">
       <c r="F11">
         <v>5</v>
       </c>
@@ -862,7 +929,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="6:23" x14ac:dyDescent="0.4">
+    <row r="12" spans="6:23">
       <c r="F12">
         <v>10</v>
       </c>
@@ -877,7 +944,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="6:23" x14ac:dyDescent="0.4">
+    <row r="13" spans="6:23">
       <c r="F13">
         <v>30</v>
       </c>
@@ -895,7 +962,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="14" spans="6:23" x14ac:dyDescent="0.4">
+    <row r="14" spans="6:23">
       <c r="F14">
         <v>50</v>
       </c>
@@ -910,7 +977,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="6:23" x14ac:dyDescent="0.4">
+    <row r="15" spans="6:23">
       <c r="F15">
         <v>100</v>
       </c>
@@ -925,7 +992,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="16" spans="6:23" x14ac:dyDescent="0.4">
+    <row r="16" spans="6:23">
       <c r="F16">
         <v>300</v>
       </c>
@@ -940,7 +1007,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="6:9" x14ac:dyDescent="0.4">
+    <row r="17" spans="6:9">
       <c r="F17">
         <v>3</v>
       </c>
@@ -955,7 +1022,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="18" spans="6:9" x14ac:dyDescent="0.4">
+    <row r="18" spans="6:9">
       <c r="F18">
         <v>5</v>
       </c>
@@ -970,7 +1037,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="19" spans="6:9" x14ac:dyDescent="0.4">
+    <row r="19" spans="6:9">
       <c r="F19">
         <v>10</v>
       </c>
@@ -982,7 +1049,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="20" spans="6:9" x14ac:dyDescent="0.4">
+    <row r="20" spans="6:9">
       <c r="F20">
         <v>30</v>
       </c>
@@ -997,7 +1064,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="21" spans="6:9" x14ac:dyDescent="0.4">
+    <row r="21" spans="6:9">
       <c r="F21">
         <v>3</v>
       </c>
@@ -1012,7 +1079,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="22" spans="6:9" x14ac:dyDescent="0.4">
+    <row r="22" spans="6:9">
       <c r="F22">
         <v>5</v>
       </c>
@@ -1027,7 +1094,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="23" spans="6:9" x14ac:dyDescent="0.4">
+    <row r="23" spans="6:9">
       <c r="F23">
         <v>10</v>
       </c>
@@ -1042,7 +1109,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="24" spans="6:9" x14ac:dyDescent="0.4">
+    <row r="24" spans="6:9">
       <c r="F24">
         <v>30</v>
       </c>
@@ -1057,7 +1124,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="25" spans="6:9" x14ac:dyDescent="0.4">
+    <row r="25" spans="6:9">
       <c r="F25">
         <v>50</v>
       </c>
@@ -1072,7 +1139,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="26" spans="6:9" x14ac:dyDescent="0.4">
+    <row r="26" spans="6:9">
       <c r="F26">
         <v>100</v>
       </c>
@@ -1087,7 +1154,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="27" spans="6:9" x14ac:dyDescent="0.4">
+    <row r="27" spans="6:9">
       <c r="F27">
         <v>300</v>
       </c>
@@ -1102,7 +1169,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="28" spans="6:9" x14ac:dyDescent="0.4">
+    <row r="28" spans="6:9">
       <c r="F28">
         <v>3</v>
       </c>
@@ -1117,7 +1184,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="29" spans="6:9" x14ac:dyDescent="0.4">
+    <row r="29" spans="6:9">
       <c r="F29">
         <v>5</v>
       </c>
@@ -1132,7 +1199,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="30" spans="6:9" x14ac:dyDescent="0.4">
+    <row r="30" spans="6:9">
       <c r="F30">
         <v>10</v>
       </c>
@@ -1147,7 +1214,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="31" spans="6:9" x14ac:dyDescent="0.4">
+    <row r="31" spans="6:9">
       <c r="F31">
         <v>30</v>
       </c>
@@ -1162,7 +1229,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="32" spans="6:9" x14ac:dyDescent="0.4">
+    <row r="32" spans="6:9">
       <c r="F32">
         <v>50</v>
       </c>
@@ -1177,7 +1244,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="33" spans="6:9" x14ac:dyDescent="0.4">
+    <row r="33" spans="6:9">
       <c r="F33">
         <v>100</v>
       </c>
@@ -1192,7 +1259,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="34" spans="6:9" x14ac:dyDescent="0.4">
+    <row r="34" spans="6:9">
       <c r="F34">
         <v>300</v>
       </c>
@@ -1207,7 +1274,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="35" spans="6:9" x14ac:dyDescent="0.4">
+    <row r="35" spans="6:9">
       <c r="F35">
         <v>3</v>
       </c>
@@ -1219,7 +1286,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="36" spans="6:9" x14ac:dyDescent="0.4">
+    <row r="36" spans="6:9">
       <c r="F36">
         <v>5</v>
       </c>
@@ -1231,7 +1298,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="37" spans="6:9" x14ac:dyDescent="0.4">
+    <row r="37" spans="6:9">
       <c r="F37">
         <v>10</v>
       </c>
@@ -1243,7 +1310,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="38" spans="6:9" x14ac:dyDescent="0.4">
+    <row r="38" spans="6:9">
       <c r="F38">
         <v>30</v>
       </c>
@@ -1255,7 +1322,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="39" spans="6:9" x14ac:dyDescent="0.4">
+    <row r="39" spans="6:9">
       <c r="F39">
         <v>3</v>
       </c>
@@ -1267,7 +1334,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="40" spans="6:9" x14ac:dyDescent="0.4">
+    <row r="40" spans="6:9">
       <c r="F40">
         <v>5</v>
       </c>
@@ -1279,7 +1346,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="41" spans="6:9" x14ac:dyDescent="0.4">
+    <row r="41" spans="6:9">
       <c r="F41">
         <v>10</v>
       </c>
@@ -1294,7 +1361,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="42" spans="6:9" x14ac:dyDescent="0.4">
+    <row r="42" spans="6:9">
       <c r="F42">
         <v>30</v>
       </c>
@@ -1309,7 +1376,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="43" spans="6:9" x14ac:dyDescent="0.4">
+    <row r="43" spans="6:9">
       <c r="F43">
         <v>50</v>
       </c>
@@ -1321,7 +1388,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="44" spans="6:9" x14ac:dyDescent="0.4">
+    <row r="44" spans="6:9">
       <c r="F44">
         <v>100</v>
       </c>
@@ -1336,7 +1403,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="45" spans="6:9" x14ac:dyDescent="0.4">
+    <row r="45" spans="6:9">
       <c r="F45">
         <v>300</v>
       </c>
@@ -1348,7 +1415,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="46" spans="6:9" x14ac:dyDescent="0.4">
+    <row r="46" spans="6:9">
       <c r="F46">
         <v>3</v>
       </c>
@@ -1363,7 +1430,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="47" spans="6:9" x14ac:dyDescent="0.4">
+    <row r="47" spans="6:9">
       <c r="F47">
         <v>5</v>
       </c>
@@ -1378,7 +1445,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="48" spans="6:9" x14ac:dyDescent="0.4">
+    <row r="48" spans="6:9">
       <c r="F48">
         <v>10</v>
       </c>
@@ -1393,7 +1460,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="49" spans="6:9" x14ac:dyDescent="0.4">
+    <row r="49" spans="6:9">
       <c r="F49">
         <v>30</v>
       </c>
@@ -1408,7 +1475,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="50" spans="6:9" x14ac:dyDescent="0.4">
+    <row r="50" spans="6:9">
       <c r="F50">
         <v>50</v>
       </c>
@@ -1423,7 +1490,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="51" spans="6:9" x14ac:dyDescent="0.4">
+    <row r="51" spans="6:9">
       <c r="F51">
         <v>100</v>
       </c>
@@ -1438,7 +1505,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="52" spans="6:9" x14ac:dyDescent="0.4">
+    <row r="52" spans="6:9">
       <c r="F52">
         <v>300</v>
       </c>
@@ -1450,7 +1517,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="53" spans="6:9" x14ac:dyDescent="0.4">
+    <row r="53" spans="6:9">
       <c r="F53">
         <v>3</v>
       </c>
@@ -1462,7 +1529,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="54" spans="6:9" x14ac:dyDescent="0.4">
+    <row r="54" spans="6:9">
       <c r="F54">
         <v>5</v>
       </c>
@@ -1474,7 +1541,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="55" spans="6:9" x14ac:dyDescent="0.4">
+    <row r="55" spans="6:9">
       <c r="F55">
         <v>10</v>
       </c>
@@ -1486,7 +1553,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="56" spans="6:9" x14ac:dyDescent="0.4">
+    <row r="56" spans="6:9">
       <c r="F56">
         <v>30</v>
       </c>
@@ -1509,18 +1576,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68353D5A-B37C-4674-BEEA-04734638F192}">
   <dimension ref="B1:AQ27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="V1" workbookViewId="0">
+    <sheetView topLeftCell="C1" workbookViewId="0">
       <selection activeCell="W19" sqref="W19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18"/>
   <sheetData>
-    <row r="1" spans="2:43" x14ac:dyDescent="0.4">
+    <row r="1" spans="2:43">
       <c r="B1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="2:43" x14ac:dyDescent="0.4">
+    <row r="2" spans="2:43">
       <c r="B2" t="s">
         <v>27</v>
       </c>
@@ -1585,7 +1652,7 @@
         <v>0.81717300000000004</v>
       </c>
     </row>
-    <row r="3" spans="2:43" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:43">
       <c r="C3">
         <v>0.58543299999999998</v>
       </c>
@@ -1644,7 +1711,7 @@
         <v>0.50941700000000001</v>
       </c>
     </row>
-    <row r="4" spans="2:43" x14ac:dyDescent="0.4">
+    <row r="4" spans="2:43">
       <c r="C4">
         <v>0.53004700000000005</v>
       </c>
@@ -1694,7 +1761,7 @@
         <v>0.32603300000000002</v>
       </c>
     </row>
-    <row r="5" spans="2:43" x14ac:dyDescent="0.4">
+    <row r="5" spans="2:43">
       <c r="C5">
         <v>0.80152299999999999</v>
       </c>
@@ -1765,7 +1832,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="6" spans="2:43" x14ac:dyDescent="0.4">
+    <row r="6" spans="2:43">
       <c r="B6">
         <v>0.68346799999999996</v>
       </c>
@@ -1785,7 +1852,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="7" spans="2:43" x14ac:dyDescent="0.4">
+    <row r="7" spans="2:43">
       <c r="B7">
         <v>0.70464000000000004</v>
       </c>
@@ -1893,7 +1960,7 @@
         <v>1.4583552086614633</v>
       </c>
     </row>
-    <row r="8" spans="2:43" x14ac:dyDescent="0.4">
+    <row r="8" spans="2:43">
       <c r="B8">
         <v>0.622865</v>
       </c>
@@ -2010,7 +2077,7 @@
         <v>1.2237310826471262</v>
       </c>
     </row>
-    <row r="9" spans="2:43" x14ac:dyDescent="0.4">
+    <row r="9" spans="2:43">
       <c r="B9">
         <v>0.68570399999999998</v>
       </c>
@@ -2118,7 +2185,7 @@
         <v>1.917383768195972</v>
       </c>
     </row>
-    <row r="10" spans="2:43" x14ac:dyDescent="0.4">
+    <row r="10" spans="2:43">
       <c r="B10">
         <v>0.66087300000000004</v>
       </c>
@@ -2223,7 +2290,7 @@
         <v>1.9630283245356948</v>
       </c>
     </row>
-    <row r="11" spans="2:43" x14ac:dyDescent="0.4">
+    <row r="11" spans="2:43">
       <c r="B11">
         <v>0.68468700000000005</v>
       </c>
@@ -2328,7 +2395,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="12" spans="2:43" x14ac:dyDescent="0.4">
+    <row r="12" spans="2:43">
       <c r="B12">
         <v>0.72621800000000003</v>
       </c>
@@ -2388,7 +2455,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="13" spans="2:43" x14ac:dyDescent="0.4">
+    <row r="13" spans="2:43">
       <c r="B13">
         <v>0.79095400000000005</v>
       </c>
@@ -2433,7 +2500,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="14" spans="2:43" x14ac:dyDescent="0.4">
+    <row r="14" spans="2:43">
       <c r="B14">
         <v>0.77401600000000004</v>
       </c>
@@ -2447,7 +2514,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="15" spans="2:43" x14ac:dyDescent="0.4">
+    <row r="15" spans="2:43">
       <c r="B15">
         <v>0.772119</v>
       </c>
@@ -2473,7 +2540,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="16" spans="2:43" x14ac:dyDescent="0.4">
+    <row r="16" spans="2:43">
       <c r="B16">
         <v>0.81717300000000004</v>
       </c>
@@ -2496,7 +2563,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="17" spans="2:23" x14ac:dyDescent="0.4">
+    <row r="17" spans="2:23">
       <c r="B17">
         <v>0.81879999999999997</v>
       </c>
@@ -2510,7 +2577,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="18" spans="2:23" x14ac:dyDescent="0.4">
+    <row r="18" spans="2:23">
       <c r="B18">
         <v>1.5295000000000001</v>
       </c>
@@ -2521,7 +2588,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="19" spans="2:23" x14ac:dyDescent="0.4">
+    <row r="19" spans="2:23">
       <c r="E19">
         <v>10</v>
       </c>
@@ -2535,7 +2602,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="20" spans="2:23" x14ac:dyDescent="0.4">
+    <row r="20" spans="2:23">
       <c r="B20">
         <v>1.7244900000000001</v>
       </c>
@@ -2555,7 +2622,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="22" spans="2:23" x14ac:dyDescent="0.4">
+    <row r="22" spans="2:23">
       <c r="I22">
         <v>0.622865</v>
       </c>
@@ -2569,7 +2636,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="23" spans="2:23" x14ac:dyDescent="0.4">
+    <row r="23" spans="2:23">
       <c r="I23">
         <v>0.772119</v>
       </c>
@@ -2583,7 +2650,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="25" spans="2:23" x14ac:dyDescent="0.4">
+    <row r="25" spans="2:23">
       <c r="I25">
         <v>0.68570399999999998</v>
       </c>
@@ -2594,7 +2661,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="26" spans="2:23" x14ac:dyDescent="0.4">
+    <row r="26" spans="2:23">
       <c r="I26">
         <v>0.81717300000000004</v>
       </c>
@@ -2605,7 +2672,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="27" spans="2:23" x14ac:dyDescent="0.4">
+    <row r="27" spans="2:23">
       <c r="I27" t="s">
         <v>31</v>
       </c>
@@ -2622,18 +2689,18 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BFBE4548-357F-44CD-9C9B-EBAA52759321}">
-  <dimension ref="B2:M23"/>
+  <dimension ref="B2:N23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K5" sqref="K5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18"/>
   <cols>
-    <col min="9" max="9" width="18.875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="2" spans="2:14">
       <c r="B2" t="s">
         <v>19</v>
       </c>
@@ -2647,7 +2714,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:14">
       <c r="B3">
         <v>3</v>
       </c>
@@ -2662,7 +2729,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="4" spans="2:14">
       <c r="B4">
         <v>5</v>
       </c>
@@ -2686,7 +2753,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="5" spans="2:14">
       <c r="B5">
         <v>10</v>
       </c>
@@ -2717,7 +2784,7 @@
         <v>1.6899999999999998E-2</v>
       </c>
     </row>
-    <row r="6" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="6" spans="2:14">
       <c r="B6">
         <v>30</v>
       </c>
@@ -2748,7 +2815,7 @@
         <v>1.07E-3</v>
       </c>
     </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="7" spans="2:14">
       <c r="B7">
         <v>50</v>
       </c>
@@ -2773,7 +2840,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="8" spans="2:14">
       <c r="B8">
         <v>100</v>
       </c>
@@ -2796,8 +2863,14 @@
       <c r="K8" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="9" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="L8" t="s">
+        <v>45</v>
+      </c>
+      <c r="M8">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="9" spans="2:14">
       <c r="B9">
         <v>300</v>
       </c>
@@ -2818,8 +2891,15 @@
       <c r="K9" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="10" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="L9" t="s">
+        <v>46</v>
+      </c>
+      <c r="M9">
+        <f>M6*LN(1/0.32)/K6/K6</f>
+        <v>292.73332710557196</v>
+      </c>
+    </row>
+    <row r="10" spans="2:14">
       <c r="B10">
         <v>3</v>
       </c>
@@ -2843,8 +2923,15 @@
       <c r="K10" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="L10" t="s">
+        <v>49</v>
+      </c>
+      <c r="M10">
+        <f>SQRT(N11^2+M5^2)</f>
+        <v>2.4318204615953323E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="2:14">
       <c r="B11">
         <v>5</v>
       </c>
@@ -2858,8 +2945,22 @@
       <c r="E11">
         <v>1000</v>
       </c>
-    </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="K11" t="s">
+        <v>47</v>
+      </c>
+      <c r="L11">
+        <f>J8/J9</f>
+        <v>3.2239156344506165E-2</v>
+      </c>
+      <c r="M11" t="s">
+        <v>48</v>
+      </c>
+      <c r="N11">
+        <f>SQRT((M8/J9)^2+(M9*J8/J9/J9)^2)</f>
+        <v>1.7486139532308827E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="2:14">
       <c r="B12">
         <v>10</v>
       </c>
@@ -2874,7 +2975,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="13" spans="2:14">
       <c r="B13">
         <v>30</v>
       </c>
@@ -2889,7 +2990,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="14" spans="2:14">
       <c r="B14">
         <v>50</v>
       </c>
@@ -2904,7 +3005,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="15" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="15" spans="2:14">
       <c r="B15">
         <v>100</v>
       </c>
@@ -2919,7 +3020,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="16" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="16" spans="2:14">
       <c r="B16">
         <v>300</v>
       </c>
@@ -2931,7 +3032,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="17" spans="2:5">
       <c r="B17">
         <v>3</v>
       </c>
@@ -2943,7 +3044,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="18" spans="2:5">
       <c r="B18">
         <v>5</v>
       </c>
@@ -2955,7 +3056,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="19" spans="2:5">
       <c r="B19">
         <v>10</v>
       </c>
@@ -2967,7 +3068,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="20" spans="2:5">
       <c r="B20">
         <v>30</v>
       </c>
@@ -2982,7 +3083,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="21" spans="2:5">
       <c r="B21">
         <v>50</v>
       </c>
@@ -2997,7 +3098,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="22" spans="2:5">
       <c r="B22">
         <v>100</v>
       </c>
@@ -3009,7 +3110,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="23" spans="2:5">
       <c r="B23">
         <v>300</v>
       </c>
@@ -3035,9 +3136,9 @@
       <selection activeCell="I4" sqref="I4:K305"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18"/>
   <sheetData>
-    <row r="4" spans="3:11" x14ac:dyDescent="0.4">
+    <row r="4" spans="3:11">
       <c r="C4" t="s">
         <v>23</v>
       </c>
@@ -3058,7 +3159,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="3:11" x14ac:dyDescent="0.4">
+    <row r="5" spans="3:11">
       <c r="I5">
         <v>0</v>
       </c>
@@ -3071,7 +3172,7 @@
         <v>-199.20599999999999</v>
       </c>
     </row>
-    <row r="6" spans="3:11" x14ac:dyDescent="0.4">
+    <row r="6" spans="3:11">
       <c r="I6">
         <v>0.01</v>
       </c>
@@ -3084,7 +3185,7 @@
         <v>-193.62599999999998</v>
       </c>
     </row>
-    <row r="7" spans="3:11" x14ac:dyDescent="0.4">
+    <row r="7" spans="3:11">
       <c r="I7">
         <v>0.02</v>
       </c>
@@ -3097,7 +3198,7 @@
         <v>-188.04599999999999</v>
       </c>
     </row>
-    <row r="8" spans="3:11" x14ac:dyDescent="0.4">
+    <row r="8" spans="3:11">
       <c r="I8">
         <v>0.03</v>
       </c>
@@ -3110,7 +3211,7 @@
         <v>-182.46599999999998</v>
       </c>
     </row>
-    <row r="9" spans="3:11" x14ac:dyDescent="0.4">
+    <row r="9" spans="3:11">
       <c r="I9">
         <v>0.04</v>
       </c>
@@ -3123,7 +3224,7 @@
         <v>-176.886</v>
       </c>
     </row>
-    <row r="10" spans="3:11" x14ac:dyDescent="0.4">
+    <row r="10" spans="3:11">
       <c r="I10">
         <v>0.05</v>
       </c>
@@ -3136,7 +3237,7 @@
         <v>-171.30599999999998</v>
       </c>
     </row>
-    <row r="11" spans="3:11" x14ac:dyDescent="0.4">
+    <row r="11" spans="3:11">
       <c r="I11">
         <v>0.06</v>
       </c>
@@ -3149,7 +3250,7 @@
         <v>-165.726</v>
       </c>
     </row>
-    <row r="12" spans="3:11" x14ac:dyDescent="0.4">
+    <row r="12" spans="3:11">
       <c r="I12">
         <v>7.0000000000000007E-2</v>
       </c>
@@ -3162,7 +3263,7 @@
         <v>-160.14599999999999</v>
       </c>
     </row>
-    <row r="13" spans="3:11" x14ac:dyDescent="0.4">
+    <row r="13" spans="3:11">
       <c r="I13">
         <v>0.08</v>
       </c>
@@ -3175,7 +3276,7 @@
         <v>-154.56599999999997</v>
       </c>
     </row>
-    <row r="14" spans="3:11" x14ac:dyDescent="0.4">
+    <row r="14" spans="3:11">
       <c r="I14">
         <v>0.09</v>
       </c>
@@ -3188,7 +3289,7 @@
         <v>-148.98600000000002</v>
       </c>
     </row>
-    <row r="15" spans="3:11" x14ac:dyDescent="0.4">
+    <row r="15" spans="3:11">
       <c r="I15">
         <v>0.1</v>
       </c>
@@ -3201,7 +3302,7 @@
         <v>-143.40600000000001</v>
       </c>
     </row>
-    <row r="16" spans="3:11" x14ac:dyDescent="0.4">
+    <row r="16" spans="3:11">
       <c r="I16">
         <v>0.11</v>
       </c>
@@ -3214,7 +3315,7 @@
         <v>-137.82599999999999</v>
       </c>
     </row>
-    <row r="17" spans="9:11" x14ac:dyDescent="0.4">
+    <row r="17" spans="9:11">
       <c r="I17">
         <v>0.12</v>
       </c>
@@ -3227,7 +3328,7 @@
         <v>-132.24599999999998</v>
       </c>
     </row>
-    <row r="18" spans="9:11" x14ac:dyDescent="0.4">
+    <row r="18" spans="9:11">
       <c r="I18">
         <v>0.13</v>
       </c>
@@ -3240,7 +3341,7 @@
         <v>-126.66599999999998</v>
       </c>
     </row>
-    <row r="19" spans="9:11" x14ac:dyDescent="0.4">
+    <row r="19" spans="9:11">
       <c r="I19">
         <v>0.14000000000000001</v>
       </c>
@@ -3253,7 +3354,7 @@
         <v>-121.08599999999998</v>
       </c>
     </row>
-    <row r="20" spans="9:11" x14ac:dyDescent="0.4">
+    <row r="20" spans="9:11">
       <c r="I20">
         <v>0.15</v>
       </c>
@@ -3266,7 +3367,7 @@
         <v>-115.506</v>
       </c>
     </row>
-    <row r="21" spans="9:11" x14ac:dyDescent="0.4">
+    <row r="21" spans="9:11">
       <c r="I21">
         <v>0.16</v>
       </c>
@@ -3279,7 +3380,7 @@
         <v>-109.92599999999999</v>
       </c>
     </row>
-    <row r="22" spans="9:11" x14ac:dyDescent="0.4">
+    <row r="22" spans="9:11">
       <c r="I22">
         <v>0.17</v>
       </c>
@@ -3292,7 +3393,7 @@
         <v>-104.34599999999999</v>
       </c>
     </row>
-    <row r="23" spans="9:11" x14ac:dyDescent="0.4">
+    <row r="23" spans="9:11">
       <c r="I23">
         <v>0.18</v>
       </c>
@@ -3305,7 +3406,7 @@
         <v>-98.765999999999991</v>
       </c>
     </row>
-    <row r="24" spans="9:11" x14ac:dyDescent="0.4">
+    <row r="24" spans="9:11">
       <c r="I24">
         <v>0.19</v>
       </c>
@@ -3318,7 +3419,7 @@
         <v>-93.185999999999993</v>
       </c>
     </row>
-    <row r="25" spans="9:11" x14ac:dyDescent="0.4">
+    <row r="25" spans="9:11">
       <c r="I25">
         <v>0.2</v>
       </c>
@@ -3331,7 +3432,7 @@
         <v>-87.60599999999998</v>
       </c>
     </row>
-    <row r="26" spans="9:11" x14ac:dyDescent="0.4">
+    <row r="26" spans="9:11">
       <c r="I26">
         <v>0.21</v>
       </c>
@@ -3344,7 +3445,7 @@
         <v>-82.025999999999996</v>
       </c>
     </row>
-    <row r="27" spans="9:11" x14ac:dyDescent="0.4">
+    <row r="27" spans="9:11">
       <c r="I27">
         <v>0.22</v>
       </c>
@@ -3357,7 +3458,7 @@
         <v>-76.445999999999984</v>
       </c>
     </row>
-    <row r="28" spans="9:11" x14ac:dyDescent="0.4">
+    <row r="28" spans="9:11">
       <c r="I28">
         <v>0.23</v>
       </c>
@@ -3370,7 +3471,7 @@
         <v>-70.865999999999985</v>
       </c>
     </row>
-    <row r="29" spans="9:11" x14ac:dyDescent="0.4">
+    <row r="29" spans="9:11">
       <c r="I29">
         <v>0.24</v>
       </c>
@@ -3383,7 +3484,7 @@
         <v>-65.286000000000001</v>
       </c>
     </row>
-    <row r="30" spans="9:11" x14ac:dyDescent="0.4">
+    <row r="30" spans="9:11">
       <c r="I30">
         <v>0.25</v>
       </c>
@@ -3396,7 +3497,7 @@
         <v>-59.705999999999989</v>
       </c>
     </row>
-    <row r="31" spans="9:11" x14ac:dyDescent="0.4">
+    <row r="31" spans="9:11">
       <c r="I31">
         <v>0.26</v>
       </c>
@@ -3409,7 +3510,7 @@
         <v>-54.125999999999983</v>
       </c>
     </row>
-    <row r="32" spans="9:11" x14ac:dyDescent="0.4">
+    <row r="32" spans="9:11">
       <c r="I32">
         <v>0.27</v>
       </c>
@@ -3422,7 +3523,7 @@
         <v>-48.545999999999978</v>
       </c>
     </row>
-    <row r="33" spans="9:11" x14ac:dyDescent="0.4">
+    <row r="33" spans="9:11">
       <c r="I33">
         <v>0.28000000000000003</v>
       </c>
@@ -3435,7 +3536,7 @@
         <v>-42.96599999999998</v>
       </c>
     </row>
-    <row r="34" spans="9:11" x14ac:dyDescent="0.4">
+    <row r="34" spans="9:11">
       <c r="I34">
         <v>0.28999999999999998</v>
       </c>
@@ -3448,7 +3549,7 @@
         <v>-37.386000000000003</v>
       </c>
     </row>
-    <row r="35" spans="9:11" x14ac:dyDescent="0.4">
+    <row r="35" spans="9:11">
       <c r="I35">
         <v>0.3</v>
       </c>
@@ -3461,7 +3562,7 @@
         <v>-31.805999999999997</v>
       </c>
     </row>
-    <row r="36" spans="9:11" x14ac:dyDescent="0.4">
+    <row r="36" spans="9:11">
       <c r="I36">
         <v>0.31</v>
       </c>
@@ -3474,7 +3575,7 @@
         <v>-26.225999999999992</v>
       </c>
     </row>
-    <row r="37" spans="9:11" x14ac:dyDescent="0.4">
+    <row r="37" spans="9:11">
       <c r="I37">
         <v>0.32</v>
       </c>
@@ -3487,7 +3588,7 @@
         <v>-20.645999999999987</v>
       </c>
     </row>
-    <row r="38" spans="9:11" x14ac:dyDescent="0.4">
+    <row r="38" spans="9:11">
       <c r="I38">
         <v>0.33</v>
       </c>
@@ -3500,7 +3601,7 @@
         <v>-15.065999999999983</v>
       </c>
     </row>
-    <row r="39" spans="9:11" x14ac:dyDescent="0.4">
+    <row r="39" spans="9:11">
       <c r="I39">
         <v>0.34</v>
       </c>
@@ -3513,7 +3614,7 @@
         <v>-9.4859999999999776</v>
       </c>
     </row>
-    <row r="40" spans="9:11" x14ac:dyDescent="0.4">
+    <row r="40" spans="9:11">
       <c r="I40">
         <v>0.35</v>
       </c>
@@ -3526,7 +3627,7 @@
         <v>-3.9060000000000032</v>
       </c>
     </row>
-    <row r="41" spans="9:11" x14ac:dyDescent="0.4">
+    <row r="41" spans="9:11">
       <c r="I41">
         <v>0.36</v>
       </c>
@@ -3539,7 +3640,7 @@
         <v>1.6740000000000015</v>
       </c>
     </row>
-    <row r="42" spans="9:11" x14ac:dyDescent="0.4">
+    <row r="42" spans="9:11">
       <c r="I42">
         <v>0.37</v>
       </c>
@@ -3552,7 +3653,7 @@
         <v>7.2540000000000067</v>
       </c>
     </row>
-    <row r="43" spans="9:11" x14ac:dyDescent="0.4">
+    <row r="43" spans="9:11">
       <c r="I43">
         <v>0.38</v>
       </c>
@@ -3565,7 +3666,7 @@
         <v>12.834000000000012</v>
       </c>
     </row>
-    <row r="44" spans="9:11" x14ac:dyDescent="0.4">
+    <row r="44" spans="9:11">
       <c r="I44">
         <v>0.39</v>
       </c>
@@ -3578,7 +3679,7 @@
         <v>18.414000000000016</v>
       </c>
     </row>
-    <row r="45" spans="9:11" x14ac:dyDescent="0.4">
+    <row r="45" spans="9:11">
       <c r="I45">
         <v>0.4</v>
       </c>
@@ -3591,7 +3692,7 @@
         <v>23.994000000000021</v>
       </c>
     </row>
-    <row r="46" spans="9:11" x14ac:dyDescent="0.4">
+    <row r="46" spans="9:11">
       <c r="I46">
         <v>0.41</v>
       </c>
@@ -3604,7 +3705,7 @@
         <v>29.573999999999995</v>
       </c>
     </row>
-    <row r="47" spans="9:11" x14ac:dyDescent="0.4">
+    <row r="47" spans="9:11">
       <c r="I47">
         <v>0.42</v>
       </c>
@@ -3617,7 +3718,7 @@
         <v>35.154000000000003</v>
       </c>
     </row>
-    <row r="48" spans="9:11" x14ac:dyDescent="0.4">
+    <row r="48" spans="9:11">
       <c r="I48">
         <v>0.43</v>
       </c>
@@ -3630,7 +3731,7 @@
         <v>40.734000000000002</v>
       </c>
     </row>
-    <row r="49" spans="9:11" x14ac:dyDescent="0.4">
+    <row r="49" spans="9:11">
       <c r="I49">
         <v>0.44</v>
       </c>
@@ -3643,7 +3744,7 @@
         <v>46.314000000000007</v>
       </c>
     </row>
-    <row r="50" spans="9:11" x14ac:dyDescent="0.4">
+    <row r="50" spans="9:11">
       <c r="I50">
         <v>0.45</v>
       </c>
@@ -3656,7 +3757,7 @@
         <v>51.894000000000013</v>
       </c>
     </row>
-    <row r="51" spans="9:11" x14ac:dyDescent="0.4">
+    <row r="51" spans="9:11">
       <c r="I51">
         <v>0.46</v>
       </c>
@@ -3669,7 +3770,7 @@
         <v>57.474000000000018</v>
       </c>
     </row>
-    <row r="52" spans="9:11" x14ac:dyDescent="0.4">
+    <row r="52" spans="9:11">
       <c r="I52">
         <v>0.47</v>
       </c>
@@ -3682,7 +3783,7 @@
         <v>63.053999999999995</v>
       </c>
     </row>
-    <row r="53" spans="9:11" x14ac:dyDescent="0.4">
+    <row r="53" spans="9:11">
       <c r="I53">
         <v>0.48</v>
       </c>
@@ -3695,7 +3796,7 @@
         <v>68.634</v>
       </c>
     </row>
-    <row r="54" spans="9:11" x14ac:dyDescent="0.4">
+    <row r="54" spans="9:11">
       <c r="I54">
         <v>0.49</v>
       </c>
@@ -3708,7 +3809,7 @@
         <v>74.213999999999999</v>
       </c>
     </row>
-    <row r="55" spans="9:11" x14ac:dyDescent="0.4">
+    <row r="55" spans="9:11">
       <c r="I55">
         <v>0.5</v>
       </c>
@@ -3721,7 +3822,7 @@
         <v>79.794000000000011</v>
       </c>
     </row>
-    <row r="56" spans="9:11" x14ac:dyDescent="0.4">
+    <row r="56" spans="9:11">
       <c r="I56">
         <v>0.51</v>
       </c>
@@ -3734,7 +3835,7 @@
         <v>85.374000000000009</v>
       </c>
     </row>
-    <row r="57" spans="9:11" x14ac:dyDescent="0.4">
+    <row r="57" spans="9:11">
       <c r="I57">
         <v>0.52</v>
       </c>
@@ -3747,7 +3848,7 @@
         <v>90.954000000000022</v>
       </c>
     </row>
-    <row r="58" spans="9:11" x14ac:dyDescent="0.4">
+    <row r="58" spans="9:11">
       <c r="I58">
         <v>0.53</v>
       </c>
@@ -3760,7 +3861,7 @@
         <v>96.53400000000002</v>
       </c>
     </row>
-    <row r="59" spans="9:11" x14ac:dyDescent="0.4">
+    <row r="59" spans="9:11">
       <c r="I59">
         <v>0.54</v>
       </c>
@@ -3773,7 +3874,7 @@
         <v>102.11400000000003</v>
       </c>
     </row>
-    <row r="60" spans="9:11" x14ac:dyDescent="0.4">
+    <row r="60" spans="9:11">
       <c r="I60">
         <v>0.55000000000000004</v>
       </c>
@@ -3786,7 +3887,7 @@
         <v>107.69400000000003</v>
       </c>
     </row>
-    <row r="61" spans="9:11" x14ac:dyDescent="0.4">
+    <row r="61" spans="9:11">
       <c r="I61">
         <v>0.56000000000000005</v>
       </c>
@@ -3799,7 +3900,7 @@
         <v>113.27400000000004</v>
       </c>
     </row>
-    <row r="62" spans="9:11" x14ac:dyDescent="0.4">
+    <row r="62" spans="9:11">
       <c r="I62">
         <v>0.56999999999999995</v>
       </c>
@@ -3812,7 +3913,7 @@
         <v>118.85399999999998</v>
       </c>
     </row>
-    <row r="63" spans="9:11" x14ac:dyDescent="0.4">
+    <row r="63" spans="9:11">
       <c r="I63">
         <v>0.57999999999999996</v>
       </c>
@@ -3825,7 +3926,7 @@
         <v>124.43399999999998</v>
       </c>
     </row>
-    <row r="64" spans="9:11" x14ac:dyDescent="0.4">
+    <row r="64" spans="9:11">
       <c r="I64">
         <v>0.59</v>
       </c>
@@ -3838,7 +3939,7 @@
         <v>130.01399999999998</v>
       </c>
     </row>
-    <row r="65" spans="9:11" x14ac:dyDescent="0.4">
+    <row r="65" spans="9:11">
       <c r="I65">
         <v>0.6</v>
       </c>
@@ -3851,7 +3952,7 @@
         <v>135.59399999999999</v>
       </c>
     </row>
-    <row r="66" spans="9:11" x14ac:dyDescent="0.4">
+    <row r="66" spans="9:11">
       <c r="I66">
         <v>0.61</v>
       </c>
@@ -3864,7 +3965,7 @@
         <v>141.17400000000001</v>
       </c>
     </row>
-    <row r="67" spans="9:11" x14ac:dyDescent="0.4">
+    <row r="67" spans="9:11">
       <c r="I67">
         <v>0.62</v>
       </c>
@@ -3877,7 +3978,7 @@
         <v>146.75400000000002</v>
       </c>
     </row>
-    <row r="68" spans="9:11" x14ac:dyDescent="0.4">
+    <row r="68" spans="9:11">
       <c r="I68">
         <v>0.63</v>
       </c>
@@ -3890,7 +3991,7 @@
         <v>152.334</v>
       </c>
     </row>
-    <row r="69" spans="9:11" x14ac:dyDescent="0.4">
+    <row r="69" spans="9:11">
       <c r="I69">
         <v>0.64</v>
       </c>
@@ -3903,7 +4004,7 @@
         <v>157.91400000000002</v>
       </c>
     </row>
-    <row r="70" spans="9:11" x14ac:dyDescent="0.4">
+    <row r="70" spans="9:11">
       <c r="I70">
         <v>0.65</v>
       </c>
@@ -3916,7 +4017,7 @@
         <v>163.49400000000003</v>
       </c>
     </row>
-    <row r="71" spans="9:11" x14ac:dyDescent="0.4">
+    <row r="71" spans="9:11">
       <c r="I71">
         <v>0.66</v>
       </c>
@@ -3929,7 +4030,7 @@
         <v>169.07400000000001</v>
       </c>
     </row>
-    <row r="72" spans="9:11" x14ac:dyDescent="0.4">
+    <row r="72" spans="9:11">
       <c r="I72">
         <v>0.67</v>
       </c>
@@ -3942,7 +4043,7 @@
         <v>174.65400000000002</v>
       </c>
     </row>
-    <row r="73" spans="9:11" x14ac:dyDescent="0.4">
+    <row r="73" spans="9:11">
       <c r="I73">
         <v>0.68</v>
       </c>
@@ -3955,7 +4056,7 @@
         <v>180.23400000000004</v>
       </c>
     </row>
-    <row r="74" spans="9:11" x14ac:dyDescent="0.4">
+    <row r="74" spans="9:11">
       <c r="I74">
         <v>0.69</v>
       </c>
@@ -3968,7 +4069,7 @@
         <v>185.81399999999999</v>
       </c>
     </row>
-    <row r="75" spans="9:11" x14ac:dyDescent="0.4">
+    <row r="75" spans="9:11">
       <c r="I75">
         <v>0.7</v>
       </c>
@@ -3981,7 +4082,7 @@
         <v>191.39399999999998</v>
       </c>
     </row>
-    <row r="76" spans="9:11" x14ac:dyDescent="0.4">
+    <row r="76" spans="9:11">
       <c r="I76">
         <v>0.71</v>
       </c>
@@ -3994,7 +4095,7 @@
         <v>196.97399999999999</v>
       </c>
     </row>
-    <row r="77" spans="9:11" x14ac:dyDescent="0.4">
+    <row r="77" spans="9:11">
       <c r="I77">
         <v>0.72</v>
       </c>
@@ -4007,7 +4108,7 @@
         <v>202.554</v>
       </c>
     </row>
-    <row r="78" spans="9:11" x14ac:dyDescent="0.4">
+    <row r="78" spans="9:11">
       <c r="I78">
         <v>0.73</v>
       </c>
@@ -4020,7 +4121,7 @@
         <v>208.13399999999999</v>
       </c>
     </row>
-    <row r="79" spans="9:11" x14ac:dyDescent="0.4">
+    <row r="79" spans="9:11">
       <c r="I79">
         <v>0.74</v>
       </c>
@@ -4033,7 +4134,7 @@
         <v>213.714</v>
       </c>
     </row>
-    <row r="80" spans="9:11" x14ac:dyDescent="0.4">
+    <row r="80" spans="9:11">
       <c r="I80">
         <v>0.75</v>
       </c>
@@ -4046,7 +4147,7 @@
         <v>219.29400000000001</v>
       </c>
     </row>
-    <row r="81" spans="9:11" x14ac:dyDescent="0.4">
+    <row r="81" spans="9:11">
       <c r="I81">
         <v>0.76</v>
       </c>
@@ -4059,7 +4160,7 @@
         <v>224.87400000000002</v>
       </c>
     </row>
-    <row r="82" spans="9:11" x14ac:dyDescent="0.4">
+    <row r="82" spans="9:11">
       <c r="I82">
         <v>0.77</v>
       </c>
@@ -4072,7 +4173,7 @@
         <v>230.45400000000001</v>
       </c>
     </row>
-    <row r="83" spans="9:11" x14ac:dyDescent="0.4">
+    <row r="83" spans="9:11">
       <c r="I83">
         <v>0.78</v>
       </c>
@@ -4085,7 +4186,7 @@
         <v>236.03400000000002</v>
       </c>
     </row>
-    <row r="84" spans="9:11" x14ac:dyDescent="0.4">
+    <row r="84" spans="9:11">
       <c r="I84">
         <v>0.79</v>
       </c>
@@ -4098,7 +4199,7 @@
         <v>241.61400000000003</v>
       </c>
     </row>
-    <row r="85" spans="9:11" x14ac:dyDescent="0.4">
+    <row r="85" spans="9:11">
       <c r="I85">
         <v>0.8</v>
       </c>
@@ -4111,7 +4212,7 @@
         <v>247.19400000000005</v>
       </c>
     </row>
-    <row r="86" spans="9:11" x14ac:dyDescent="0.4">
+    <row r="86" spans="9:11">
       <c r="I86">
         <v>0.81</v>
       </c>
@@ -4124,7 +4225,7 @@
         <v>252.77400000000003</v>
       </c>
     </row>
-    <row r="87" spans="9:11" x14ac:dyDescent="0.4">
+    <row r="87" spans="9:11">
       <c r="I87">
         <v>0.82</v>
       </c>
@@ -4137,7 +4238,7 @@
         <v>258.35399999999998</v>
       </c>
     </row>
-    <row r="88" spans="9:11" x14ac:dyDescent="0.4">
+    <row r="88" spans="9:11">
       <c r="I88">
         <v>0.83</v>
       </c>
@@ -4150,7 +4251,7 @@
         <v>263.93399999999997</v>
       </c>
     </row>
-    <row r="89" spans="9:11" x14ac:dyDescent="0.4">
+    <row r="89" spans="9:11">
       <c r="I89">
         <v>0.84</v>
       </c>
@@ -4163,7 +4264,7 @@
         <v>269.51400000000001</v>
       </c>
     </row>
-    <row r="90" spans="9:11" x14ac:dyDescent="0.4">
+    <row r="90" spans="9:11">
       <c r="I90">
         <v>0.85</v>
       </c>
@@ -4176,7 +4277,7 @@
         <v>275.09399999999999</v>
       </c>
     </row>
-    <row r="91" spans="9:11" x14ac:dyDescent="0.4">
+    <row r="91" spans="9:11">
       <c r="I91">
         <v>0.86</v>
       </c>
@@ -4189,7 +4290,7 @@
         <v>280.67399999999998</v>
       </c>
     </row>
-    <row r="92" spans="9:11" x14ac:dyDescent="0.4">
+    <row r="92" spans="9:11">
       <c r="I92">
         <v>0.87</v>
       </c>
@@ -4202,7 +4303,7 @@
         <v>286.25400000000002</v>
       </c>
     </row>
-    <row r="93" spans="9:11" x14ac:dyDescent="0.4">
+    <row r="93" spans="9:11">
       <c r="I93">
         <v>0.88</v>
       </c>
@@ -4215,7 +4316,7 @@
         <v>291.834</v>
       </c>
     </row>
-    <row r="94" spans="9:11" x14ac:dyDescent="0.4">
+    <row r="94" spans="9:11">
       <c r="I94">
         <v>0.89</v>
       </c>
@@ -4228,7 +4329,7 @@
         <v>297.41400000000004</v>
       </c>
     </row>
-    <row r="95" spans="9:11" x14ac:dyDescent="0.4">
+    <row r="95" spans="9:11">
       <c r="I95">
         <v>0.9</v>
       </c>
@@ -4241,7 +4342,7 @@
         <v>302.99400000000003</v>
       </c>
     </row>
-    <row r="96" spans="9:11" x14ac:dyDescent="0.4">
+    <row r="96" spans="9:11">
       <c r="I96">
         <v>0.91</v>
       </c>
@@ -4254,7 +4355,7 @@
         <v>308.57400000000001</v>
       </c>
     </row>
-    <row r="97" spans="9:11" x14ac:dyDescent="0.4">
+    <row r="97" spans="9:11">
       <c r="I97">
         <v>0.92</v>
       </c>
@@ -4267,7 +4368,7 @@
         <v>314.15400000000005</v>
       </c>
     </row>
-    <row r="98" spans="9:11" x14ac:dyDescent="0.4">
+    <row r="98" spans="9:11">
       <c r="I98">
         <v>0.93</v>
       </c>
@@ -4280,7 +4381,7 @@
         <v>319.73400000000004</v>
       </c>
     </row>
-    <row r="99" spans="9:11" x14ac:dyDescent="0.4">
+    <row r="99" spans="9:11">
       <c r="I99">
         <v>0.94</v>
       </c>
@@ -4293,7 +4394,7 @@
         <v>325.31399999999996</v>
       </c>
     </row>
-    <row r="100" spans="9:11" x14ac:dyDescent="0.4">
+    <row r="100" spans="9:11">
       <c r="I100">
         <v>0.95</v>
       </c>
@@ -4306,7 +4407,7 @@
         <v>330.89400000000001</v>
       </c>
     </row>
-    <row r="101" spans="9:11" x14ac:dyDescent="0.4">
+    <row r="101" spans="9:11">
       <c r="I101">
         <v>0.96</v>
       </c>
@@ -4319,7 +4420,7 @@
         <v>336.47399999999999</v>
       </c>
     </row>
-    <row r="102" spans="9:11" x14ac:dyDescent="0.4">
+    <row r="102" spans="9:11">
       <c r="I102">
         <v>0.97</v>
       </c>
@@ -4332,7 +4433,7 @@
         <v>342.05399999999997</v>
       </c>
     </row>
-    <row r="103" spans="9:11" x14ac:dyDescent="0.4">
+    <row r="103" spans="9:11">
       <c r="I103">
         <v>0.98</v>
       </c>
@@ -4345,7 +4446,7 @@
         <v>347.63400000000001</v>
       </c>
     </row>
-    <row r="104" spans="9:11" x14ac:dyDescent="0.4">
+    <row r="104" spans="9:11">
       <c r="I104">
         <v>0.99</v>
       </c>
@@ -4358,7 +4459,7 @@
         <v>353.214</v>
       </c>
     </row>
-    <row r="105" spans="9:11" x14ac:dyDescent="0.4">
+    <row r="105" spans="9:11">
       <c r="I105">
         <v>1</v>
       </c>
@@ -4371,7 +4472,7 @@
         <v>358.79399999999998</v>
       </c>
     </row>
-    <row r="106" spans="9:11" x14ac:dyDescent="0.4">
+    <row r="106" spans="9:11">
       <c r="I106">
         <v>1.01</v>
       </c>
@@ -4384,7 +4485,7 @@
         <v>364.37400000000002</v>
       </c>
     </row>
-    <row r="107" spans="9:11" x14ac:dyDescent="0.4">
+    <row r="107" spans="9:11">
       <c r="I107">
         <v>1.02</v>
       </c>
@@ -4397,7 +4498,7 @@
         <v>369.95400000000001</v>
       </c>
     </row>
-    <row r="108" spans="9:11" x14ac:dyDescent="0.4">
+    <row r="108" spans="9:11">
       <c r="I108">
         <v>1.03</v>
       </c>
@@ -4410,7 +4511,7 @@
         <v>375.53400000000005</v>
       </c>
     </row>
-    <row r="109" spans="9:11" x14ac:dyDescent="0.4">
+    <row r="109" spans="9:11">
       <c r="I109">
         <v>1.04</v>
       </c>
@@ -4423,7 +4524,7 @@
         <v>381.11400000000003</v>
       </c>
     </row>
-    <row r="110" spans="9:11" x14ac:dyDescent="0.4">
+    <row r="110" spans="9:11">
       <c r="I110">
         <v>1.05</v>
       </c>
@@ -4436,7 +4537,7 @@
         <v>386.69400000000002</v>
       </c>
     </row>
-    <row r="111" spans="9:11" x14ac:dyDescent="0.4">
+    <row r="111" spans="9:11">
       <c r="I111">
         <v>1.06</v>
       </c>
@@ -4449,7 +4550,7 @@
         <v>392.27400000000006</v>
       </c>
     </row>
-    <row r="112" spans="9:11" x14ac:dyDescent="0.4">
+    <row r="112" spans="9:11">
       <c r="I112">
         <v>1.07</v>
       </c>
@@ -4462,7 +4563,7 @@
         <v>397.85400000000004</v>
       </c>
     </row>
-    <row r="113" spans="9:11" x14ac:dyDescent="0.4">
+    <row r="113" spans="9:11">
       <c r="I113">
         <v>1.08</v>
       </c>
@@ -4475,7 +4576,7 @@
         <v>403.43400000000003</v>
       </c>
     </row>
-    <row r="114" spans="9:11" x14ac:dyDescent="0.4">
+    <row r="114" spans="9:11">
       <c r="I114">
         <v>1.0900000000000001</v>
       </c>
@@ -4488,7 +4589,7 @@
         <v>409.01400000000007</v>
       </c>
     </row>
-    <row r="115" spans="9:11" x14ac:dyDescent="0.4">
+    <row r="115" spans="9:11">
       <c r="I115">
         <v>1.1000000000000001</v>
       </c>
@@ -4501,7 +4602,7 @@
         <v>414.59400000000005</v>
       </c>
     </row>
-    <row r="116" spans="9:11" x14ac:dyDescent="0.4">
+    <row r="116" spans="9:11">
       <c r="I116">
         <v>1.1100000000000001</v>
       </c>
@@ -4514,7 +4615,7 @@
         <v>420.17400000000009</v>
       </c>
     </row>
-    <row r="117" spans="9:11" x14ac:dyDescent="0.4">
+    <row r="117" spans="9:11">
       <c r="I117">
         <v>1.1200000000000001</v>
       </c>
@@ -4527,7 +4628,7 @@
         <v>425.75400000000008</v>
       </c>
     </row>
-    <row r="118" spans="9:11" x14ac:dyDescent="0.4">
+    <row r="118" spans="9:11">
       <c r="I118">
         <v>1.1299999999999999</v>
       </c>
@@ -4540,7 +4641,7 @@
         <v>431.33399999999995</v>
       </c>
     </row>
-    <row r="119" spans="9:11" x14ac:dyDescent="0.4">
+    <row r="119" spans="9:11">
       <c r="I119">
         <v>1.1399999999999999</v>
       </c>
@@ -4553,7 +4654,7 @@
         <v>436.91399999999993</v>
       </c>
     </row>
-    <row r="120" spans="9:11" x14ac:dyDescent="0.4">
+    <row r="120" spans="9:11">
       <c r="I120">
         <v>1.1499999999999999</v>
       </c>
@@ -4566,7 +4667,7 @@
         <v>442.49399999999997</v>
       </c>
     </row>
-    <row r="121" spans="9:11" x14ac:dyDescent="0.4">
+    <row r="121" spans="9:11">
       <c r="I121">
         <v>1.1599999999999999</v>
       </c>
@@ -4579,7 +4680,7 @@
         <v>448.07399999999996</v>
       </c>
     </row>
-    <row r="122" spans="9:11" x14ac:dyDescent="0.4">
+    <row r="122" spans="9:11">
       <c r="I122">
         <v>1.17</v>
       </c>
@@ -4592,7 +4693,7 @@
         <v>453.654</v>
       </c>
     </row>
-    <row r="123" spans="9:11" x14ac:dyDescent="0.4">
+    <row r="123" spans="9:11">
       <c r="I123">
         <v>1.18</v>
       </c>
@@ -4605,7 +4706,7 @@
         <v>459.23399999999998</v>
       </c>
     </row>
-    <row r="124" spans="9:11" x14ac:dyDescent="0.4">
+    <row r="124" spans="9:11">
       <c r="I124">
         <v>1.19</v>
       </c>
@@ -4618,7 +4719,7 @@
         <v>464.81399999999996</v>
       </c>
     </row>
-    <row r="125" spans="9:11" x14ac:dyDescent="0.4">
+    <row r="125" spans="9:11">
       <c r="I125">
         <v>1.2</v>
       </c>
@@ -4631,7 +4732,7 @@
         <v>470.39400000000001</v>
       </c>
     </row>
-    <row r="126" spans="9:11" x14ac:dyDescent="0.4">
+    <row r="126" spans="9:11">
       <c r="I126">
         <v>1.21</v>
       </c>
@@ -4644,7 +4745,7 @@
         <v>475.97399999999999</v>
       </c>
     </row>
-    <row r="127" spans="9:11" x14ac:dyDescent="0.4">
+    <row r="127" spans="9:11">
       <c r="I127">
         <v>1.22</v>
       </c>
@@ -4657,7 +4758,7 @@
         <v>481.55399999999997</v>
       </c>
     </row>
-    <row r="128" spans="9:11" x14ac:dyDescent="0.4">
+    <row r="128" spans="9:11">
       <c r="I128">
         <v>1.23</v>
       </c>
@@ -4670,7 +4771,7 @@
         <v>487.13400000000001</v>
       </c>
     </row>
-    <row r="129" spans="9:11" x14ac:dyDescent="0.4">
+    <row r="129" spans="9:11">
       <c r="I129">
         <v>1.24</v>
       </c>
@@ -4683,7 +4784,7 @@
         <v>492.714</v>
       </c>
     </row>
-    <row r="130" spans="9:11" x14ac:dyDescent="0.4">
+    <row r="130" spans="9:11">
       <c r="I130">
         <v>1.25</v>
       </c>
@@ -4696,7 +4797,7 @@
         <v>498.29399999999998</v>
       </c>
     </row>
-    <row r="131" spans="9:11" x14ac:dyDescent="0.4">
+    <row r="131" spans="9:11">
       <c r="I131">
         <v>1.26</v>
       </c>
@@ -4709,7 +4810,7 @@
         <v>503.87400000000002</v>
       </c>
     </row>
-    <row r="132" spans="9:11" x14ac:dyDescent="0.4">
+    <row r="132" spans="9:11">
       <c r="I132">
         <v>1.27</v>
       </c>
@@ -4722,7 +4823,7 @@
         <v>509.45400000000001</v>
       </c>
     </row>
-    <row r="133" spans="9:11" x14ac:dyDescent="0.4">
+    <row r="133" spans="9:11">
       <c r="I133">
         <v>1.28</v>
       </c>
@@ -4735,7 +4836,7 @@
         <v>515.03399999999999</v>
       </c>
     </row>
-    <row r="134" spans="9:11" x14ac:dyDescent="0.4">
+    <row r="134" spans="9:11">
       <c r="I134">
         <v>1.29</v>
       </c>
@@ -4748,7 +4849,7 @@
         <v>520.61400000000003</v>
       </c>
     </row>
-    <row r="135" spans="9:11" x14ac:dyDescent="0.4">
+    <row r="135" spans="9:11">
       <c r="I135">
         <v>1.3</v>
       </c>
@@ -4761,7 +4862,7 @@
         <v>526.19400000000007</v>
       </c>
     </row>
-    <row r="136" spans="9:11" x14ac:dyDescent="0.4">
+    <row r="136" spans="9:11">
       <c r="I136">
         <v>1.31</v>
       </c>
@@ -4774,7 +4875,7 @@
         <v>531.774</v>
       </c>
     </row>
-    <row r="137" spans="9:11" x14ac:dyDescent="0.4">
+    <row r="137" spans="9:11">
       <c r="I137">
         <v>1.32</v>
       </c>
@@ -4787,7 +4888,7 @@
         <v>537.35400000000004</v>
       </c>
     </row>
-    <row r="138" spans="9:11" x14ac:dyDescent="0.4">
+    <row r="138" spans="9:11">
       <c r="I138">
         <v>1.33</v>
       </c>
@@ -4800,7 +4901,7 @@
         <v>542.93400000000008</v>
       </c>
     </row>
-    <row r="139" spans="9:11" x14ac:dyDescent="0.4">
+    <row r="139" spans="9:11">
       <c r="I139">
         <v>1.34</v>
       </c>
@@ -4813,7 +4914,7 @@
         <v>548.51400000000001</v>
       </c>
     </row>
-    <row r="140" spans="9:11" x14ac:dyDescent="0.4">
+    <row r="140" spans="9:11">
       <c r="I140">
         <v>1.35</v>
       </c>
@@ -4826,7 +4927,7 @@
         <v>554.09400000000005</v>
       </c>
     </row>
-    <row r="141" spans="9:11" x14ac:dyDescent="0.4">
+    <row r="141" spans="9:11">
       <c r="I141">
         <v>1.36</v>
       </c>
@@ -4839,7 +4940,7 @@
         <v>559.67400000000009</v>
       </c>
     </row>
-    <row r="142" spans="9:11" x14ac:dyDescent="0.4">
+    <row r="142" spans="9:11">
       <c r="I142">
         <v>1.37</v>
       </c>
@@ -4852,7 +4953,7 @@
         <v>565.25400000000002</v>
       </c>
     </row>
-    <row r="143" spans="9:11" x14ac:dyDescent="0.4">
+    <row r="143" spans="9:11">
       <c r="I143">
         <v>1.38</v>
       </c>
@@ -4865,7 +4966,7 @@
         <v>570.83399999999995</v>
       </c>
     </row>
-    <row r="144" spans="9:11" x14ac:dyDescent="0.4">
+    <row r="144" spans="9:11">
       <c r="I144">
         <v>1.39</v>
       </c>
@@ -4878,7 +4979,7 @@
         <v>576.41399999999999</v>
       </c>
     </row>
-    <row r="145" spans="9:11" x14ac:dyDescent="0.4">
+    <row r="145" spans="9:11">
       <c r="I145">
         <v>1.4</v>
       </c>
@@ -4891,7 +4992,7 @@
         <v>581.99399999999991</v>
       </c>
     </row>
-    <row r="146" spans="9:11" x14ac:dyDescent="0.4">
+    <row r="146" spans="9:11">
       <c r="I146">
         <v>1.41</v>
       </c>
@@ -4904,7 +5005,7 @@
         <v>587.57399999999996</v>
       </c>
     </row>
-    <row r="147" spans="9:11" x14ac:dyDescent="0.4">
+    <row r="147" spans="9:11">
       <c r="I147">
         <v>1.42</v>
       </c>
@@ -4917,7 +5018,7 @@
         <v>593.154</v>
       </c>
     </row>
-    <row r="148" spans="9:11" x14ac:dyDescent="0.4">
+    <row r="148" spans="9:11">
       <c r="I148">
         <v>1.43</v>
       </c>
@@ -4930,7 +5031,7 @@
         <v>598.73399999999992</v>
       </c>
     </row>
-    <row r="149" spans="9:11" x14ac:dyDescent="0.4">
+    <row r="149" spans="9:11">
       <c r="I149">
         <v>1.44</v>
       </c>
@@ -4943,7 +5044,7 @@
         <v>604.31399999999996</v>
       </c>
     </row>
-    <row r="150" spans="9:11" x14ac:dyDescent="0.4">
+    <row r="150" spans="9:11">
       <c r="I150">
         <v>1.45</v>
       </c>
@@ -4956,7 +5057,7 @@
         <v>609.89400000000001</v>
       </c>
     </row>
-    <row r="151" spans="9:11" x14ac:dyDescent="0.4">
+    <row r="151" spans="9:11">
       <c r="I151">
         <v>1.46</v>
       </c>
@@ -4969,7 +5070,7 @@
         <v>615.47399999999993</v>
       </c>
     </row>
-    <row r="152" spans="9:11" x14ac:dyDescent="0.4">
+    <row r="152" spans="9:11">
       <c r="I152">
         <v>1.47</v>
       </c>
@@ -4982,7 +5083,7 @@
         <v>621.05399999999997</v>
       </c>
     </row>
-    <row r="153" spans="9:11" x14ac:dyDescent="0.4">
+    <row r="153" spans="9:11">
       <c r="I153">
         <v>1.48</v>
       </c>
@@ -4995,7 +5096,7 @@
         <v>626.63400000000001</v>
       </c>
     </row>
-    <row r="154" spans="9:11" x14ac:dyDescent="0.4">
+    <row r="154" spans="9:11">
       <c r="I154">
         <v>1.49</v>
       </c>
@@ -5008,7 +5109,7 @@
         <v>632.21400000000006</v>
       </c>
     </row>
-    <row r="155" spans="9:11" x14ac:dyDescent="0.4">
+    <row r="155" spans="9:11">
       <c r="I155">
         <v>1.5</v>
       </c>
@@ -5021,7 +5122,7 @@
         <v>637.79399999999998</v>
       </c>
     </row>
-    <row r="156" spans="9:11" x14ac:dyDescent="0.4">
+    <row r="156" spans="9:11">
       <c r="I156">
         <v>1.51</v>
       </c>
@@ -5034,7 +5135,7 @@
         <v>643.37400000000002</v>
       </c>
     </row>
-    <row r="157" spans="9:11" x14ac:dyDescent="0.4">
+    <row r="157" spans="9:11">
       <c r="I157">
         <v>1.52</v>
       </c>
@@ -5047,7 +5148,7 @@
         <v>648.95400000000006</v>
       </c>
     </row>
-    <row r="158" spans="9:11" x14ac:dyDescent="0.4">
+    <row r="158" spans="9:11">
       <c r="I158">
         <v>1.53</v>
       </c>
@@ -5060,7 +5161,7 @@
         <v>654.53399999999999</v>
       </c>
     </row>
-    <row r="159" spans="9:11" x14ac:dyDescent="0.4">
+    <row r="159" spans="9:11">
       <c r="I159">
         <v>1.54</v>
       </c>
@@ -5073,7 +5174,7 @@
         <v>660.11400000000003</v>
       </c>
     </row>
-    <row r="160" spans="9:11" x14ac:dyDescent="0.4">
+    <row r="160" spans="9:11">
       <c r="I160">
         <v>1.55</v>
       </c>
@@ -5086,7 +5187,7 @@
         <v>665.69400000000007</v>
       </c>
     </row>
-    <row r="161" spans="9:11" x14ac:dyDescent="0.4">
+    <row r="161" spans="9:11">
       <c r="I161">
         <v>1.56</v>
       </c>
@@ -5099,7 +5200,7 @@
         <v>671.274</v>
       </c>
     </row>
-    <row r="162" spans="9:11" x14ac:dyDescent="0.4">
+    <row r="162" spans="9:11">
       <c r="I162">
         <v>1.57</v>
       </c>
@@ -5112,7 +5213,7 @@
         <v>676.85400000000004</v>
       </c>
     </row>
-    <row r="163" spans="9:11" x14ac:dyDescent="0.4">
+    <row r="163" spans="9:11">
       <c r="I163">
         <v>1.58</v>
       </c>
@@ -5125,7 +5226,7 @@
         <v>682.43400000000008</v>
       </c>
     </row>
-    <row r="164" spans="9:11" x14ac:dyDescent="0.4">
+    <row r="164" spans="9:11">
       <c r="I164">
         <v>1.59</v>
       </c>
@@ -5138,7 +5239,7 @@
         <v>688.01400000000001</v>
       </c>
     </row>
-    <row r="165" spans="9:11" x14ac:dyDescent="0.4">
+    <row r="165" spans="9:11">
       <c r="I165">
         <v>1.6</v>
       </c>
@@ -5151,7 +5252,7 @@
         <v>693.59400000000005</v>
       </c>
     </row>
-    <row r="166" spans="9:11" x14ac:dyDescent="0.4">
+    <row r="166" spans="9:11">
       <c r="I166">
         <v>1.61</v>
       </c>
@@ -5164,7 +5265,7 @@
         <v>699.17400000000009</v>
       </c>
     </row>
-    <row r="167" spans="9:11" x14ac:dyDescent="0.4">
+    <row r="167" spans="9:11">
       <c r="I167">
         <v>1.62</v>
       </c>
@@ -5177,7 +5278,7 @@
         <v>704.75400000000002</v>
       </c>
     </row>
-    <row r="168" spans="9:11" x14ac:dyDescent="0.4">
+    <row r="168" spans="9:11">
       <c r="I168">
         <v>1.63</v>
       </c>
@@ -5190,7 +5291,7 @@
         <v>710.33399999999995</v>
       </c>
     </row>
-    <row r="169" spans="9:11" x14ac:dyDescent="0.4">
+    <row r="169" spans="9:11">
       <c r="I169">
         <v>1.64</v>
       </c>
@@ -5203,7 +5304,7 @@
         <v>715.91399999999999</v>
       </c>
     </row>
-    <row r="170" spans="9:11" x14ac:dyDescent="0.4">
+    <row r="170" spans="9:11">
       <c r="I170">
         <v>1.65</v>
       </c>
@@ -5216,7 +5317,7 @@
         <v>721.49399999999991</v>
       </c>
     </row>
-    <row r="171" spans="9:11" x14ac:dyDescent="0.4">
+    <row r="171" spans="9:11">
       <c r="I171">
         <v>1.66</v>
       </c>
@@ -5229,7 +5330,7 @@
         <v>727.07399999999996</v>
       </c>
     </row>
-    <row r="172" spans="9:11" x14ac:dyDescent="0.4">
+    <row r="172" spans="9:11">
       <c r="I172">
         <v>1.67</v>
       </c>
@@ -5242,7 +5343,7 @@
         <v>732.654</v>
       </c>
     </row>
-    <row r="173" spans="9:11" x14ac:dyDescent="0.4">
+    <row r="173" spans="9:11">
       <c r="I173">
         <v>1.68</v>
       </c>
@@ -5255,7 +5356,7 @@
         <v>738.23399999999992</v>
       </c>
     </row>
-    <row r="174" spans="9:11" x14ac:dyDescent="0.4">
+    <row r="174" spans="9:11">
       <c r="I174">
         <v>1.69</v>
       </c>
@@ -5268,7 +5369,7 @@
         <v>743.81399999999996</v>
       </c>
     </row>
-    <row r="175" spans="9:11" x14ac:dyDescent="0.4">
+    <row r="175" spans="9:11">
       <c r="I175">
         <v>1.7</v>
       </c>
@@ -5281,7 +5382,7 @@
         <v>749.39400000000001</v>
       </c>
     </row>
-    <row r="176" spans="9:11" x14ac:dyDescent="0.4">
+    <row r="176" spans="9:11">
       <c r="I176">
         <v>1.71</v>
       </c>
@@ -5294,7 +5395,7 @@
         <v>754.97399999999993</v>
       </c>
     </row>
-    <row r="177" spans="9:11" x14ac:dyDescent="0.4">
+    <row r="177" spans="9:11">
       <c r="I177">
         <v>1.72</v>
       </c>
@@ -5307,7 +5408,7 @@
         <v>760.55399999999997</v>
       </c>
     </row>
-    <row r="178" spans="9:11" x14ac:dyDescent="0.4">
+    <row r="178" spans="9:11">
       <c r="I178">
         <v>1.73</v>
       </c>
@@ -5320,7 +5421,7 @@
         <v>766.13400000000001</v>
       </c>
     </row>
-    <row r="179" spans="9:11" x14ac:dyDescent="0.4">
+    <row r="179" spans="9:11">
       <c r="I179">
         <v>1.74</v>
       </c>
@@ -5333,7 +5434,7 @@
         <v>771.71400000000006</v>
       </c>
     </row>
-    <row r="180" spans="9:11" x14ac:dyDescent="0.4">
+    <row r="180" spans="9:11">
       <c r="I180">
         <v>1.75</v>
       </c>
@@ -5346,7 +5447,7 @@
         <v>777.29399999999998</v>
       </c>
     </row>
-    <row r="181" spans="9:11" x14ac:dyDescent="0.4">
+    <row r="181" spans="9:11">
       <c r="I181">
         <v>1.76</v>
       </c>
@@ -5359,7 +5460,7 @@
         <v>782.87400000000002</v>
       </c>
     </row>
-    <row r="182" spans="9:11" x14ac:dyDescent="0.4">
+    <row r="182" spans="9:11">
       <c r="I182">
         <v>1.77</v>
       </c>
@@ -5372,7 +5473,7 @@
         <v>788.45400000000006</v>
       </c>
     </row>
-    <row r="183" spans="9:11" x14ac:dyDescent="0.4">
+    <row r="183" spans="9:11">
       <c r="I183">
         <v>1.78</v>
       </c>
@@ -5385,7 +5486,7 @@
         <v>794.03399999999999</v>
       </c>
     </row>
-    <row r="184" spans="9:11" x14ac:dyDescent="0.4">
+    <row r="184" spans="9:11">
       <c r="I184">
         <v>1.79</v>
       </c>
@@ -5398,7 +5499,7 @@
         <v>799.61400000000003</v>
       </c>
     </row>
-    <row r="185" spans="9:11" x14ac:dyDescent="0.4">
+    <row r="185" spans="9:11">
       <c r="I185">
         <v>1.8</v>
       </c>
@@ -5411,7 +5512,7 @@
         <v>805.19400000000007</v>
       </c>
     </row>
-    <row r="186" spans="9:11" x14ac:dyDescent="0.4">
+    <row r="186" spans="9:11">
       <c r="I186">
         <v>1.81</v>
       </c>
@@ -5424,7 +5525,7 @@
         <v>810.774</v>
       </c>
     </row>
-    <row r="187" spans="9:11" x14ac:dyDescent="0.4">
+    <row r="187" spans="9:11">
       <c r="I187">
         <v>1.82</v>
       </c>
@@ -5437,7 +5538,7 @@
         <v>816.35400000000004</v>
       </c>
     </row>
-    <row r="188" spans="9:11" x14ac:dyDescent="0.4">
+    <row r="188" spans="9:11">
       <c r="I188">
         <v>1.83</v>
       </c>
@@ -5450,7 +5551,7 @@
         <v>821.93400000000008</v>
       </c>
     </row>
-    <row r="189" spans="9:11" x14ac:dyDescent="0.4">
+    <row r="189" spans="9:11">
       <c r="I189">
         <v>1.84</v>
       </c>
@@ -5463,7 +5564,7 @@
         <v>827.51400000000001</v>
       </c>
     </row>
-    <row r="190" spans="9:11" x14ac:dyDescent="0.4">
+    <row r="190" spans="9:11">
       <c r="I190">
         <v>1.85</v>
       </c>
@@ -5476,7 +5577,7 @@
         <v>833.09400000000005</v>
       </c>
     </row>
-    <row r="191" spans="9:11" x14ac:dyDescent="0.4">
+    <row r="191" spans="9:11">
       <c r="I191">
         <v>1.86</v>
       </c>
@@ -5489,7 +5590,7 @@
         <v>838.67400000000009</v>
       </c>
     </row>
-    <row r="192" spans="9:11" x14ac:dyDescent="0.4">
+    <row r="192" spans="9:11">
       <c r="I192">
         <v>1.87</v>
       </c>
@@ -5502,7 +5603,7 @@
         <v>844.25400000000002</v>
       </c>
     </row>
-    <row r="193" spans="9:11" x14ac:dyDescent="0.4">
+    <row r="193" spans="9:11">
       <c r="I193">
         <v>1.88</v>
       </c>
@@ -5515,7 +5616,7 @@
         <v>849.83399999999995</v>
       </c>
     </row>
-    <row r="194" spans="9:11" x14ac:dyDescent="0.4">
+    <row r="194" spans="9:11">
       <c r="I194">
         <v>1.89</v>
       </c>
@@ -5528,7 +5629,7 @@
         <v>855.41399999999999</v>
       </c>
     </row>
-    <row r="195" spans="9:11" x14ac:dyDescent="0.4">
+    <row r="195" spans="9:11">
       <c r="I195">
         <v>1.9</v>
       </c>
@@ -5541,7 +5642,7 @@
         <v>860.99399999999991</v>
       </c>
     </row>
-    <row r="196" spans="9:11" x14ac:dyDescent="0.4">
+    <row r="196" spans="9:11">
       <c r="I196">
         <v>1.91</v>
       </c>
@@ -5554,7 +5655,7 @@
         <v>866.57399999999996</v>
       </c>
     </row>
-    <row r="197" spans="9:11" x14ac:dyDescent="0.4">
+    <row r="197" spans="9:11">
       <c r="I197">
         <v>1.92</v>
       </c>
@@ -5567,7 +5668,7 @@
         <v>872.154</v>
       </c>
     </row>
-    <row r="198" spans="9:11" x14ac:dyDescent="0.4">
+    <row r="198" spans="9:11">
       <c r="I198">
         <v>1.93</v>
       </c>
@@ -5580,7 +5681,7 @@
         <v>877.73399999999992</v>
       </c>
     </row>
-    <row r="199" spans="9:11" x14ac:dyDescent="0.4">
+    <row r="199" spans="9:11">
       <c r="I199">
         <v>1.94</v>
       </c>
@@ -5593,7 +5694,7 @@
         <v>883.31399999999996</v>
       </c>
     </row>
-    <row r="200" spans="9:11" x14ac:dyDescent="0.4">
+    <row r="200" spans="9:11">
       <c r="I200">
         <v>1.95</v>
       </c>
@@ -5606,7 +5707,7 @@
         <v>888.89400000000001</v>
       </c>
     </row>
-    <row r="201" spans="9:11" x14ac:dyDescent="0.4">
+    <row r="201" spans="9:11">
       <c r="I201">
         <v>1.96</v>
       </c>
@@ -5619,7 +5720,7 @@
         <v>894.47399999999993</v>
       </c>
     </row>
-    <row r="202" spans="9:11" x14ac:dyDescent="0.4">
+    <row r="202" spans="9:11">
       <c r="I202">
         <v>1.97</v>
       </c>
@@ -5632,7 +5733,7 @@
         <v>900.05399999999997</v>
       </c>
     </row>
-    <row r="203" spans="9:11" x14ac:dyDescent="0.4">
+    <row r="203" spans="9:11">
       <c r="I203">
         <v>1.98</v>
       </c>
@@ -5645,7 +5746,7 @@
         <v>905.63400000000001</v>
       </c>
     </row>
-    <row r="204" spans="9:11" x14ac:dyDescent="0.4">
+    <row r="204" spans="9:11">
       <c r="I204">
         <v>1.99</v>
       </c>
@@ -5658,7 +5759,7 @@
         <v>911.21400000000006</v>
       </c>
     </row>
-    <row r="205" spans="9:11" x14ac:dyDescent="0.4">
+    <row r="205" spans="9:11">
       <c r="I205">
         <v>2</v>
       </c>
@@ -5671,7 +5772,7 @@
         <v>916.79399999999998</v>
       </c>
     </row>
-    <row r="206" spans="9:11" x14ac:dyDescent="0.4">
+    <row r="206" spans="9:11">
       <c r="I206">
         <v>2.0099999999999998</v>
       </c>
@@ -5684,7 +5785,7 @@
         <v>922.37399999999991</v>
       </c>
     </row>
-    <row r="207" spans="9:11" x14ac:dyDescent="0.4">
+    <row r="207" spans="9:11">
       <c r="I207">
         <v>2.02</v>
       </c>
@@ -5697,7 +5798,7 @@
         <v>927.95400000000006</v>
       </c>
     </row>
-    <row r="208" spans="9:11" x14ac:dyDescent="0.4">
+    <row r="208" spans="9:11">
       <c r="I208">
         <v>2.0299999999999998</v>
       </c>
@@ -5710,7 +5811,7 @@
         <v>933.53399999999988</v>
       </c>
     </row>
-    <row r="209" spans="9:11" x14ac:dyDescent="0.4">
+    <row r="209" spans="9:11">
       <c r="I209">
         <v>2.04</v>
       </c>
@@ -5723,7 +5824,7 @@
         <v>939.11400000000003</v>
       </c>
     </row>
-    <row r="210" spans="9:11" x14ac:dyDescent="0.4">
+    <row r="210" spans="9:11">
       <c r="I210">
         <v>2.0499999999999998</v>
       </c>
@@ -5736,7 +5837,7 @@
         <v>944.69399999999996</v>
       </c>
     </row>
-    <row r="211" spans="9:11" x14ac:dyDescent="0.4">
+    <row r="211" spans="9:11">
       <c r="I211">
         <v>2.06</v>
       </c>
@@ -5749,7 +5850,7 @@
         <v>950.274</v>
       </c>
     </row>
-    <row r="212" spans="9:11" x14ac:dyDescent="0.4">
+    <row r="212" spans="9:11">
       <c r="I212">
         <v>2.0699999999999998</v>
       </c>
@@ -5762,7 +5863,7 @@
         <v>955.85399999999993</v>
       </c>
     </row>
-    <row r="213" spans="9:11" x14ac:dyDescent="0.4">
+    <row r="213" spans="9:11">
       <c r="I213">
         <v>2.08</v>
       </c>
@@ -5775,7 +5876,7 @@
         <v>961.43400000000008</v>
       </c>
     </row>
-    <row r="214" spans="9:11" x14ac:dyDescent="0.4">
+    <row r="214" spans="9:11">
       <c r="I214">
         <v>2.09</v>
       </c>
@@ -5788,7 +5889,7 @@
         <v>967.0139999999999</v>
       </c>
     </row>
-    <row r="215" spans="9:11" x14ac:dyDescent="0.4">
+    <row r="215" spans="9:11">
       <c r="I215">
         <v>2.1</v>
       </c>
@@ -5801,7 +5902,7 @@
         <v>972.59400000000005</v>
       </c>
     </row>
-    <row r="216" spans="9:11" x14ac:dyDescent="0.4">
+    <row r="216" spans="9:11">
       <c r="I216">
         <v>2.11</v>
       </c>
@@ -5814,7 +5915,7 @@
         <v>978.17399999999998</v>
       </c>
     </row>
-    <row r="217" spans="9:11" x14ac:dyDescent="0.4">
+    <row r="217" spans="9:11">
       <c r="I217">
         <v>2.12</v>
       </c>
@@ -5827,7 +5928,7 @@
         <v>983.75400000000002</v>
       </c>
     </row>
-    <row r="218" spans="9:11" x14ac:dyDescent="0.4">
+    <row r="218" spans="9:11">
       <c r="I218">
         <v>2.13</v>
       </c>
@@ -5840,7 +5941,7 @@
         <v>989.33399999999995</v>
       </c>
     </row>
-    <row r="219" spans="9:11" x14ac:dyDescent="0.4">
+    <row r="219" spans="9:11">
       <c r="I219">
         <v>2.14</v>
       </c>
@@ -5853,7 +5954,7 @@
         <v>994.9140000000001</v>
       </c>
     </row>
-    <row r="220" spans="9:11" x14ac:dyDescent="0.4">
+    <row r="220" spans="9:11">
       <c r="I220">
         <v>2.15</v>
       </c>
@@ -5866,7 +5967,7 @@
         <v>1000.4939999999999</v>
       </c>
     </row>
-    <row r="221" spans="9:11" x14ac:dyDescent="0.4">
+    <row r="221" spans="9:11">
       <c r="I221">
         <v>2.16</v>
       </c>
@@ -5879,7 +5980,7 @@
         <v>1006.0740000000001</v>
       </c>
     </row>
-    <row r="222" spans="9:11" x14ac:dyDescent="0.4">
+    <row r="222" spans="9:11">
       <c r="I222">
         <v>2.17</v>
       </c>
@@ -5892,7 +5993,7 @@
         <v>1011.654</v>
       </c>
     </row>
-    <row r="223" spans="9:11" x14ac:dyDescent="0.4">
+    <row r="223" spans="9:11">
       <c r="I223">
         <v>2.1800000000000002</v>
       </c>
@@ -5905,7 +6006,7 @@
         <v>1017.2340000000002</v>
       </c>
     </row>
-    <row r="224" spans="9:11" x14ac:dyDescent="0.4">
+    <row r="224" spans="9:11">
       <c r="I224">
         <v>2.19</v>
       </c>
@@ -5918,7 +6019,7 @@
         <v>1022.814</v>
       </c>
     </row>
-    <row r="225" spans="9:11" x14ac:dyDescent="0.4">
+    <row r="225" spans="9:11">
       <c r="I225">
         <v>2.2000000000000002</v>
       </c>
@@ -5931,7 +6032,7 @@
         <v>1028.394</v>
       </c>
     </row>
-    <row r="226" spans="9:11" x14ac:dyDescent="0.4">
+    <row r="226" spans="9:11">
       <c r="I226">
         <v>2.21</v>
       </c>
@@ -5944,7 +6045,7 @@
         <v>1033.9739999999999</v>
       </c>
     </row>
-    <row r="227" spans="9:11" x14ac:dyDescent="0.4">
+    <row r="227" spans="9:11">
       <c r="I227">
         <v>2.2200000000000002</v>
       </c>
@@ -5957,7 +6058,7 @@
         <v>1039.5540000000001</v>
       </c>
     </row>
-    <row r="228" spans="9:11" x14ac:dyDescent="0.4">
+    <row r="228" spans="9:11">
       <c r="I228">
         <v>2.23</v>
       </c>
@@ -5970,7 +6071,7 @@
         <v>1045.134</v>
       </c>
     </row>
-    <row r="229" spans="9:11" x14ac:dyDescent="0.4">
+    <row r="229" spans="9:11">
       <c r="I229">
         <v>2.2400000000000002</v>
       </c>
@@ -5983,7 +6084,7 @@
         <v>1050.7140000000002</v>
       </c>
     </row>
-    <row r="230" spans="9:11" x14ac:dyDescent="0.4">
+    <row r="230" spans="9:11">
       <c r="I230">
         <v>2.25</v>
       </c>
@@ -5996,7 +6097,7 @@
         <v>1056.2940000000001</v>
       </c>
     </row>
-    <row r="231" spans="9:11" x14ac:dyDescent="0.4">
+    <row r="231" spans="9:11">
       <c r="I231">
         <v>2.2599999999999998</v>
       </c>
@@ -6009,7 +6110,7 @@
         <v>1061.8739999999998</v>
       </c>
     </row>
-    <row r="232" spans="9:11" x14ac:dyDescent="0.4">
+    <row r="232" spans="9:11">
       <c r="I232">
         <v>2.27</v>
       </c>
@@ -6022,7 +6123,7 @@
         <v>1067.454</v>
       </c>
     </row>
-    <row r="233" spans="9:11" x14ac:dyDescent="0.4">
+    <row r="233" spans="9:11">
       <c r="I233">
         <v>2.2799999999999998</v>
       </c>
@@ -6035,7 +6136,7 @@
         <v>1073.0339999999999</v>
       </c>
     </row>
-    <row r="234" spans="9:11" x14ac:dyDescent="0.4">
+    <row r="234" spans="9:11">
       <c r="I234">
         <v>2.29</v>
       </c>
@@ -6048,7 +6149,7 @@
         <v>1078.614</v>
       </c>
     </row>
-    <row r="235" spans="9:11" x14ac:dyDescent="0.4">
+    <row r="235" spans="9:11">
       <c r="I235">
         <v>2.2999999999999998</v>
       </c>
@@ -6061,7 +6162,7 @@
         <v>1084.194</v>
       </c>
     </row>
-    <row r="236" spans="9:11" x14ac:dyDescent="0.4">
+    <row r="236" spans="9:11">
       <c r="I236">
         <v>2.31</v>
       </c>
@@ -6074,7 +6175,7 @@
         <v>1089.7740000000001</v>
       </c>
     </row>
-    <row r="237" spans="9:11" x14ac:dyDescent="0.4">
+    <row r="237" spans="9:11">
       <c r="I237">
         <v>2.3199999999999998</v>
       </c>
@@ -6087,7 +6188,7 @@
         <v>1095.3539999999998</v>
       </c>
     </row>
-    <row r="238" spans="9:11" x14ac:dyDescent="0.4">
+    <row r="238" spans="9:11">
       <c r="I238">
         <v>2.33</v>
       </c>
@@ -6100,7 +6201,7 @@
         <v>1100.934</v>
       </c>
     </row>
-    <row r="239" spans="9:11" x14ac:dyDescent="0.4">
+    <row r="239" spans="9:11">
       <c r="I239">
         <v>2.34</v>
       </c>
@@ -6113,7 +6214,7 @@
         <v>1106.5139999999999</v>
       </c>
     </row>
-    <row r="240" spans="9:11" x14ac:dyDescent="0.4">
+    <row r="240" spans="9:11">
       <c r="I240">
         <v>2.35</v>
       </c>
@@ -6126,7 +6227,7 @@
         <v>1112.0940000000001</v>
       </c>
     </row>
-    <row r="241" spans="9:11" x14ac:dyDescent="0.4">
+    <row r="241" spans="9:11">
       <c r="I241">
         <v>2.36</v>
       </c>
@@ -6139,7 +6240,7 @@
         <v>1117.674</v>
       </c>
     </row>
-    <row r="242" spans="9:11" x14ac:dyDescent="0.4">
+    <row r="242" spans="9:11">
       <c r="I242">
         <v>2.37</v>
       </c>
@@ -6152,7 +6253,7 @@
         <v>1123.2539999999999</v>
       </c>
     </row>
-    <row r="243" spans="9:11" x14ac:dyDescent="0.4">
+    <row r="243" spans="9:11">
       <c r="I243">
         <v>2.38</v>
       </c>
@@ -6165,7 +6266,7 @@
         <v>1128.8339999999998</v>
       </c>
     </row>
-    <row r="244" spans="9:11" x14ac:dyDescent="0.4">
+    <row r="244" spans="9:11">
       <c r="I244">
         <v>2.39</v>
       </c>
@@ -6178,7 +6279,7 @@
         <v>1134.4140000000002</v>
       </c>
     </row>
-    <row r="245" spans="9:11" x14ac:dyDescent="0.4">
+    <row r="245" spans="9:11">
       <c r="I245">
         <v>2.4</v>
       </c>
@@ -6191,7 +6292,7 @@
         <v>1139.9940000000001</v>
       </c>
     </row>
-    <row r="246" spans="9:11" x14ac:dyDescent="0.4">
+    <row r="246" spans="9:11">
       <c r="I246">
         <v>2.41</v>
       </c>
@@ -6204,7 +6305,7 @@
         <v>1145.5740000000001</v>
       </c>
     </row>
-    <row r="247" spans="9:11" x14ac:dyDescent="0.4">
+    <row r="247" spans="9:11">
       <c r="I247">
         <v>2.42</v>
       </c>
@@ -6217,7 +6318,7 @@
         <v>1151.1539999999998</v>
       </c>
     </row>
-    <row r="248" spans="9:11" x14ac:dyDescent="0.4">
+    <row r="248" spans="9:11">
       <c r="I248">
         <v>2.4300000000000002</v>
       </c>
@@ -6230,7 +6331,7 @@
         <v>1156.7340000000002</v>
       </c>
     </row>
-    <row r="249" spans="9:11" x14ac:dyDescent="0.4">
+    <row r="249" spans="9:11">
       <c r="I249">
         <v>2.44</v>
       </c>
@@ -6243,7 +6344,7 @@
         <v>1162.3140000000001</v>
       </c>
     </row>
-    <row r="250" spans="9:11" x14ac:dyDescent="0.4">
+    <row r="250" spans="9:11">
       <c r="I250">
         <v>2.4500000000000002</v>
       </c>
@@ -6256,7 +6357,7 @@
         <v>1167.894</v>
       </c>
     </row>
-    <row r="251" spans="9:11" x14ac:dyDescent="0.4">
+    <row r="251" spans="9:11">
       <c r="I251">
         <v>2.46</v>
       </c>
@@ -6269,7 +6370,7 @@
         <v>1173.4739999999999</v>
       </c>
     </row>
-    <row r="252" spans="9:11" x14ac:dyDescent="0.4">
+    <row r="252" spans="9:11">
       <c r="I252">
         <v>2.4700000000000002</v>
       </c>
@@ -6282,7 +6383,7 @@
         <v>1179.0540000000003</v>
       </c>
     </row>
-    <row r="253" spans="9:11" x14ac:dyDescent="0.4">
+    <row r="253" spans="9:11">
       <c r="I253">
         <v>2.48</v>
       </c>
@@ -6295,7 +6396,7 @@
         <v>1184.634</v>
       </c>
     </row>
-    <row r="254" spans="9:11" x14ac:dyDescent="0.4">
+    <row r="254" spans="9:11">
       <c r="I254">
         <v>2.4900000000000002</v>
       </c>
@@ -6308,7 +6409,7 @@
         <v>1190.2139999999999</v>
       </c>
     </row>
-    <row r="255" spans="9:11" x14ac:dyDescent="0.4">
+    <row r="255" spans="9:11">
       <c r="I255">
         <v>2.5</v>
       </c>
@@ -6321,7 +6422,7 @@
         <v>1195.7939999999999</v>
       </c>
     </row>
-    <row r="256" spans="9:11" x14ac:dyDescent="0.4">
+    <row r="256" spans="9:11">
       <c r="I256">
         <v>2.5099999999999998</v>
       </c>
@@ -6334,7 +6435,7 @@
         <v>1201.3739999999998</v>
       </c>
     </row>
-    <row r="257" spans="9:11" x14ac:dyDescent="0.4">
+    <row r="257" spans="9:11">
       <c r="I257">
         <v>2.52</v>
       </c>
@@ -6347,7 +6448,7 @@
         <v>1206.9540000000002</v>
       </c>
     </row>
-    <row r="258" spans="9:11" x14ac:dyDescent="0.4">
+    <row r="258" spans="9:11">
       <c r="I258">
         <v>2.5299999999999998</v>
       </c>
@@ -6360,7 +6461,7 @@
         <v>1212.5340000000001</v>
       </c>
     </row>
-    <row r="259" spans="9:11" x14ac:dyDescent="0.4">
+    <row r="259" spans="9:11">
       <c r="I259">
         <v>2.54</v>
       </c>
@@ -6373,7 +6474,7 @@
         <v>1218.1139999999998</v>
       </c>
     </row>
-    <row r="260" spans="9:11" x14ac:dyDescent="0.4">
+    <row r="260" spans="9:11">
       <c r="I260">
         <v>2.5499999999999998</v>
       </c>
@@ -6386,7 +6487,7 @@
         <v>1223.6939999999997</v>
       </c>
     </row>
-    <row r="261" spans="9:11" x14ac:dyDescent="0.4">
+    <row r="261" spans="9:11">
       <c r="I261">
         <v>2.56</v>
       </c>
@@ -6399,7 +6500,7 @@
         <v>1229.2740000000001</v>
       </c>
     </row>
-    <row r="262" spans="9:11" x14ac:dyDescent="0.4">
+    <row r="262" spans="9:11">
       <c r="I262">
         <v>2.57</v>
       </c>
@@ -6412,7 +6513,7 @@
         <v>1234.854</v>
       </c>
     </row>
-    <row r="263" spans="9:11" x14ac:dyDescent="0.4">
+    <row r="263" spans="9:11">
       <c r="I263">
         <v>2.58</v>
       </c>
@@ -6425,7 +6526,7 @@
         <v>1240.434</v>
       </c>
     </row>
-    <row r="264" spans="9:11" x14ac:dyDescent="0.4">
+    <row r="264" spans="9:11">
       <c r="I264">
         <v>2.59</v>
       </c>
@@ -6438,7 +6539,7 @@
         <v>1246.0139999999999</v>
       </c>
     </row>
-    <row r="265" spans="9:11" x14ac:dyDescent="0.4">
+    <row r="265" spans="9:11">
       <c r="I265">
         <v>2.6</v>
       </c>
@@ -6451,7 +6552,7 @@
         <v>1251.5940000000003</v>
       </c>
     </row>
-    <row r="266" spans="9:11" x14ac:dyDescent="0.4">
+    <row r="266" spans="9:11">
       <c r="I266">
         <v>2.61</v>
       </c>
@@ -6464,7 +6565,7 @@
         <v>1257.174</v>
       </c>
     </row>
-    <row r="267" spans="9:11" x14ac:dyDescent="0.4">
+    <row r="267" spans="9:11">
       <c r="I267">
         <v>2.62</v>
       </c>
@@ -6477,7 +6578,7 @@
         <v>1262.7539999999999</v>
       </c>
     </row>
-    <row r="268" spans="9:11" x14ac:dyDescent="0.4">
+    <row r="268" spans="9:11">
       <c r="I268">
         <v>2.63</v>
       </c>
@@ -6490,7 +6591,7 @@
         <v>1268.3339999999998</v>
       </c>
     </row>
-    <row r="269" spans="9:11" x14ac:dyDescent="0.4">
+    <row r="269" spans="9:11">
       <c r="I269">
         <v>2.64</v>
       </c>
@@ -6503,7 +6604,7 @@
         <v>1273.9140000000002</v>
       </c>
     </row>
-    <row r="270" spans="9:11" x14ac:dyDescent="0.4">
+    <row r="270" spans="9:11">
       <c r="I270">
         <v>2.65</v>
       </c>
@@ -6516,7 +6617,7 @@
         <v>1279.4940000000001</v>
       </c>
     </row>
-    <row r="271" spans="9:11" x14ac:dyDescent="0.4">
+    <row r="271" spans="9:11">
       <c r="I271">
         <v>2.66</v>
       </c>
@@ -6529,7 +6630,7 @@
         <v>1285.0740000000001</v>
       </c>
     </row>
-    <row r="272" spans="9:11" x14ac:dyDescent="0.4">
+    <row r="272" spans="9:11">
       <c r="I272">
         <v>2.67</v>
       </c>
@@ -6542,7 +6643,7 @@
         <v>1290.6539999999998</v>
       </c>
     </row>
-    <row r="273" spans="9:11" x14ac:dyDescent="0.4">
+    <row r="273" spans="9:11">
       <c r="I273">
         <v>2.68</v>
       </c>
@@ -6555,7 +6656,7 @@
         <v>1296.2340000000002</v>
       </c>
     </row>
-    <row r="274" spans="9:11" x14ac:dyDescent="0.4">
+    <row r="274" spans="9:11">
       <c r="I274">
         <v>2.69</v>
       </c>
@@ -6568,7 +6669,7 @@
         <v>1301.8140000000001</v>
       </c>
     </row>
-    <row r="275" spans="9:11" x14ac:dyDescent="0.4">
+    <row r="275" spans="9:11">
       <c r="I275">
         <v>2.7</v>
       </c>
@@ -6581,7 +6682,7 @@
         <v>1307.394</v>
       </c>
     </row>
-    <row r="276" spans="9:11" x14ac:dyDescent="0.4">
+    <row r="276" spans="9:11">
       <c r="I276">
         <v>2.71</v>
       </c>
@@ -6594,7 +6695,7 @@
         <v>1312.9739999999999</v>
       </c>
     </row>
-    <row r="277" spans="9:11" x14ac:dyDescent="0.4">
+    <row r="277" spans="9:11">
       <c r="I277">
         <v>2.72</v>
       </c>
@@ -6607,7 +6708,7 @@
         <v>1318.5540000000003</v>
       </c>
     </row>
-    <row r="278" spans="9:11" x14ac:dyDescent="0.4">
+    <row r="278" spans="9:11">
       <c r="I278">
         <v>2.73</v>
       </c>
@@ -6620,7 +6721,7 @@
         <v>1324.134</v>
       </c>
     </row>
-    <row r="279" spans="9:11" x14ac:dyDescent="0.4">
+    <row r="279" spans="9:11">
       <c r="I279">
         <v>2.74</v>
       </c>
@@ -6633,7 +6734,7 @@
         <v>1329.7139999999999</v>
       </c>
     </row>
-    <row r="280" spans="9:11" x14ac:dyDescent="0.4">
+    <row r="280" spans="9:11">
       <c r="I280">
         <v>2.75</v>
       </c>
@@ -6646,7 +6747,7 @@
         <v>1335.2939999999999</v>
       </c>
     </row>
-    <row r="281" spans="9:11" x14ac:dyDescent="0.4">
+    <row r="281" spans="9:11">
       <c r="I281">
         <v>2.76</v>
       </c>
@@ -6659,7 +6760,7 @@
         <v>1340.8739999999998</v>
       </c>
     </row>
-    <row r="282" spans="9:11" x14ac:dyDescent="0.4">
+    <row r="282" spans="9:11">
       <c r="I282">
         <v>2.77</v>
       </c>
@@ -6672,7 +6773,7 @@
         <v>1346.4540000000002</v>
       </c>
     </row>
-    <row r="283" spans="9:11" x14ac:dyDescent="0.4">
+    <row r="283" spans="9:11">
       <c r="I283">
         <v>2.78</v>
       </c>
@@ -6685,7 +6786,7 @@
         <v>1352.0340000000001</v>
       </c>
     </row>
-    <row r="284" spans="9:11" x14ac:dyDescent="0.4">
+    <row r="284" spans="9:11">
       <c r="I284">
         <v>2.79</v>
       </c>
@@ -6698,7 +6799,7 @@
         <v>1357.6139999999998</v>
       </c>
     </row>
-    <row r="285" spans="9:11" x14ac:dyDescent="0.4">
+    <row r="285" spans="9:11">
       <c r="I285">
         <v>2.8</v>
       </c>
@@ -6711,7 +6812,7 @@
         <v>1363.1939999999997</v>
       </c>
     </row>
-    <row r="286" spans="9:11" x14ac:dyDescent="0.4">
+    <row r="286" spans="9:11">
       <c r="I286">
         <v>2.81</v>
       </c>
@@ -6724,7 +6825,7 @@
         <v>1368.7740000000001</v>
       </c>
     </row>
-    <row r="287" spans="9:11" x14ac:dyDescent="0.4">
+    <row r="287" spans="9:11">
       <c r="I287">
         <v>2.82</v>
       </c>
@@ -6737,7 +6838,7 @@
         <v>1374.354</v>
       </c>
     </row>
-    <row r="288" spans="9:11" x14ac:dyDescent="0.4">
+    <row r="288" spans="9:11">
       <c r="I288">
         <v>2.83</v>
       </c>
@@ -6750,7 +6851,7 @@
         <v>1379.934</v>
       </c>
     </row>
-    <row r="289" spans="9:11" x14ac:dyDescent="0.4">
+    <row r="289" spans="9:11">
       <c r="I289">
         <v>2.84</v>
       </c>
@@ -6763,7 +6864,7 @@
         <v>1385.5139999999999</v>
       </c>
     </row>
-    <row r="290" spans="9:11" x14ac:dyDescent="0.4">
+    <row r="290" spans="9:11">
       <c r="I290">
         <v>2.85</v>
       </c>
@@ -6776,7 +6877,7 @@
         <v>1391.0940000000003</v>
       </c>
     </row>
-    <row r="291" spans="9:11" x14ac:dyDescent="0.4">
+    <row r="291" spans="9:11">
       <c r="I291">
         <v>2.86</v>
       </c>
@@ -6789,7 +6890,7 @@
         <v>1396.674</v>
       </c>
     </row>
-    <row r="292" spans="9:11" x14ac:dyDescent="0.4">
+    <row r="292" spans="9:11">
       <c r="I292">
         <v>2.87</v>
       </c>
@@ -6802,7 +6903,7 @@
         <v>1402.2539999999999</v>
       </c>
     </row>
-    <row r="293" spans="9:11" x14ac:dyDescent="0.4">
+    <row r="293" spans="9:11">
       <c r="I293">
         <v>2.88</v>
       </c>
@@ -6815,7 +6916,7 @@
         <v>1407.8339999999998</v>
       </c>
     </row>
-    <row r="294" spans="9:11" x14ac:dyDescent="0.4">
+    <row r="294" spans="9:11">
       <c r="I294">
         <v>2.89</v>
       </c>
@@ -6828,7 +6929,7 @@
         <v>1413.4140000000002</v>
       </c>
     </row>
-    <row r="295" spans="9:11" x14ac:dyDescent="0.4">
+    <row r="295" spans="9:11">
       <c r="I295">
         <v>2.9</v>
       </c>
@@ -6841,7 +6942,7 @@
         <v>1418.9940000000001</v>
       </c>
     </row>
-    <row r="296" spans="9:11" x14ac:dyDescent="0.4">
+    <row r="296" spans="9:11">
       <c r="I296">
         <v>2.91</v>
       </c>
@@ -6854,7 +6955,7 @@
         <v>1424.5740000000001</v>
       </c>
     </row>
-    <row r="297" spans="9:11" x14ac:dyDescent="0.4">
+    <row r="297" spans="9:11">
       <c r="I297">
         <v>2.92</v>
       </c>
@@ -6867,7 +6968,7 @@
         <v>1430.1539999999998</v>
       </c>
     </row>
-    <row r="298" spans="9:11" x14ac:dyDescent="0.4">
+    <row r="298" spans="9:11">
       <c r="I298">
         <v>2.93</v>
       </c>
@@ -6880,7 +6981,7 @@
         <v>1435.7340000000002</v>
       </c>
     </row>
-    <row r="299" spans="9:11" x14ac:dyDescent="0.4">
+    <row r="299" spans="9:11">
       <c r="I299">
         <v>2.94</v>
       </c>
@@ -6893,7 +6994,7 @@
         <v>1441.3140000000001</v>
       </c>
     </row>
-    <row r="300" spans="9:11" x14ac:dyDescent="0.4">
+    <row r="300" spans="9:11">
       <c r="I300">
         <v>2.95</v>
       </c>
@@ -6906,7 +7007,7 @@
         <v>1446.894</v>
       </c>
     </row>
-    <row r="301" spans="9:11" x14ac:dyDescent="0.4">
+    <row r="301" spans="9:11">
       <c r="I301">
         <v>2.96</v>
       </c>
@@ -6919,7 +7020,7 @@
         <v>1452.4739999999999</v>
       </c>
     </row>
-    <row r="302" spans="9:11" x14ac:dyDescent="0.4">
+    <row r="302" spans="9:11">
       <c r="I302">
         <v>2.97</v>
       </c>
@@ -6932,7 +7033,7 @@
         <v>1458.0540000000003</v>
       </c>
     </row>
-    <row r="303" spans="9:11" x14ac:dyDescent="0.4">
+    <row r="303" spans="9:11">
       <c r="I303">
         <v>2.98</v>
       </c>
@@ -6945,7 +7046,7 @@
         <v>1463.634</v>
       </c>
     </row>
-    <row r="304" spans="9:11" x14ac:dyDescent="0.4">
+    <row r="304" spans="9:11">
       <c r="I304">
         <v>2.99</v>
       </c>
@@ -6958,7 +7059,7 @@
         <v>1469.2139999999999</v>
       </c>
     </row>
-    <row r="305" spans="9:11" x14ac:dyDescent="0.4">
+    <row r="305" spans="9:11">
       <c r="I305">
         <v>3</v>
       </c>
@@ -6985,14 +7086,14 @@
       <selection activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18"/>
   <sheetData>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:9">
       <c r="F3">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="4" spans="2:9">
       <c r="B4">
         <v>3</v>
       </c>
@@ -7016,7 +7117,7 @@
         <v>2.3148148148148149</v>
       </c>
     </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="5" spans="2:9">
       <c r="B5">
         <v>5</v>
       </c>
@@ -7040,7 +7141,7 @@
         <v>2.8490028490028494</v>
       </c>
     </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="6" spans="2:9">
       <c r="B6">
         <v>10</v>
       </c>
@@ -7058,7 +7159,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="7" spans="2:9">
       <c r="B7">
         <v>30</v>
       </c>
@@ -7072,7 +7173,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="8" spans="2:9">
       <c r="B8">
         <v>50</v>
       </c>
@@ -7096,7 +7197,7 @@
         <v>1.7667844522968199</v>
       </c>
     </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="9" spans="2:9">
       <c r="B9">
         <v>100</v>
       </c>
@@ -7120,7 +7221,7 @@
         <v>1.9120458891013383</v>
       </c>
     </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="10" spans="2:9">
       <c r="B10">
         <v>300</v>
       </c>
@@ -7131,7 +7232,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="11" spans="2:9">
       <c r="B11">
         <v>3</v>
       </c>
@@ -7145,7 +7246,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="12" spans="2:9">
       <c r="B12">
         <v>5</v>
       </c>
@@ -7169,7 +7270,7 @@
         <v>1.6891891891891893</v>
       </c>
     </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="13" spans="2:9">
       <c r="B13">
         <v>10</v>
       </c>
@@ -7193,7 +7294,7 @@
         <v>2.2271714922048997</v>
       </c>
     </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="14" spans="2:9">
       <c r="B14">
         <v>30</v>
       </c>
@@ -7207,7 +7308,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="15" spans="2:9">
       <c r="B15">
         <v>50</v>
       </c>
@@ -7221,7 +7322,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="16" spans="2:9">
       <c r="B16">
         <v>100</v>
       </c>
@@ -7245,7 +7346,7 @@
         <v>1.8148820326678765</v>
       </c>
     </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="17" spans="2:9">
       <c r="B17">
         <v>300</v>
       </c>
@@ -7266,7 +7367,7 @@
         <v>3.6496350364963499</v>
       </c>
     </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="18" spans="2:9">
       <c r="B18">
         <v>3</v>
       </c>
@@ -7287,7 +7388,7 @@
         <v>6.9930069930069934</v>
       </c>
     </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="19" spans="2:9">
       <c r="B19">
         <v>5</v>
       </c>
@@ -7298,7 +7399,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="20" spans="2:9">
       <c r="B20">
         <v>10</v>
       </c>
@@ -7319,7 +7420,7 @@
         <v>1.8315018315018314</v>
       </c>
     </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="21" spans="2:9">
       <c r="B21">
         <v>30</v>
       </c>
@@ -7343,7 +7444,7 @@
         <v>2.8328611898017</v>
       </c>
     </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="22" spans="2:9">
       <c r="B22">
         <v>50</v>
       </c>
@@ -7367,7 +7468,7 @@
         <v>4.3668122270742353</v>
       </c>
     </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="23" spans="2:9">
       <c r="B23">
         <v>100</v>
       </c>
@@ -7378,7 +7479,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="24" spans="2:9">
       <c r="B24">
         <v>300</v>
       </c>
@@ -7399,7 +7500,7 @@
         <v>1.6583747927031509</v>
       </c>
     </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="25" spans="2:9">
       <c r="F25">
         <v>1000</v>
       </c>
@@ -7414,27 +7515,27 @@
         <v>2.2522522522522523</v>
       </c>
     </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="26" spans="2:9">
       <c r="F26">
         <v>2000</v>
       </c>
     </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="27" spans="2:9">
       <c r="F27" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="28" spans="2:9">
       <c r="F28">
         <v>500</v>
       </c>
     </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="29" spans="2:9">
       <c r="F29">
         <v>1000</v>
       </c>
     </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="30" spans="2:9">
       <c r="F30">
         <v>2000</v>
       </c>

--- a/修論/本文0117/figure/j0_analysis.xlsx
+++ b/修論/本文0117/figure/j0_analysis.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11208"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nozomu/Documents/yakisaba/修論/本文0117/figure/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\N\Documents\yakisaba\修論\本文0117\figure\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5839F9D8-0A6B-5F46-9308-AAF6CC75F9C4}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80A5E7FF-B452-411E-B518-CBAB1C5E2970}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4040" yWindow="460" windowWidth="20200" windowHeight="13160" activeTab="2" xr2:uid="{CCFCD27E-1F0B-405F-8564-B4DA451E3983}"/>
+    <workbookView xWindow="5070" yWindow="465" windowWidth="20205" windowHeight="13155" xr2:uid="{CCFCD27E-1F0B-405F-8564-B4DA451E3983}"/>
   </bookViews>
   <sheets>
     <sheet name="3QW_broadcontact _J0_annaysis" sheetId="1" r:id="rId1"/>
@@ -27,6 +27,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="51">
   <si>
     <t xml:space="preserve">  係数値 ±標準偏差</t>
   </si>
@@ -238,12 +239,16 @@
     <t>sig j0</t>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>cm/kA</t>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -602,17 +607,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B514D3C-4392-42AD-844E-472965DFAC23}">
   <dimension ref="F3:W56"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="O8" sqref="O8"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="W15" sqref="W15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="11" max="11" width="18.83203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18.875" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="6:23">
+    <row r="3" spans="6:23" x14ac:dyDescent="0.4">
       <c r="F3">
         <v>3</v>
       </c>
@@ -630,7 +635,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="6:23">
+    <row r="4" spans="6:23" x14ac:dyDescent="0.4">
       <c r="F4">
         <v>5</v>
       </c>
@@ -680,7 +685,7 @@
         <v>8.1099999999999992E-3</v>
       </c>
     </row>
-    <row r="5" spans="6:23">
+    <row r="5" spans="6:23" x14ac:dyDescent="0.4">
       <c r="F5">
         <v>10</v>
       </c>
@@ -730,7 +735,7 @@
         <v>5.6599999999999999E-4</v>
       </c>
     </row>
-    <row r="6" spans="6:23">
+    <row r="6" spans="6:23" x14ac:dyDescent="0.4">
       <c r="F6">
         <v>30</v>
       </c>
@@ -765,7 +770,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="6:23">
+    <row r="7" spans="6:23" x14ac:dyDescent="0.4">
       <c r="F7">
         <v>50</v>
       </c>
@@ -804,7 +809,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="6:23">
+    <row r="8" spans="6:23" x14ac:dyDescent="0.4">
       <c r="F8">
         <v>100</v>
       </c>
@@ -826,7 +831,7 @@
         <v>151.13063150759541</v>
       </c>
       <c r="M8" t="s">
-        <v>13</v>
+        <v>50</v>
       </c>
       <c r="N8" t="s">
         <v>41</v>
@@ -843,10 +848,10 @@
         <v>159.69079824998488</v>
       </c>
       <c r="T8" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="9" spans="6:23">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9" spans="6:23" x14ac:dyDescent="0.4">
       <c r="F9">
         <v>300</v>
       </c>
@@ -888,7 +893,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="6:23">
+    <row r="10" spans="6:23" x14ac:dyDescent="0.4">
       <c r="F10">
         <v>3</v>
       </c>
@@ -914,7 +919,7 @@
         <v>2.2608462461371714E-2</v>
       </c>
     </row>
-    <row r="11" spans="6:23">
+    <row r="11" spans="6:23" x14ac:dyDescent="0.4">
       <c r="F11">
         <v>5</v>
       </c>
@@ -929,7 +934,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="6:23">
+    <row r="12" spans="6:23" x14ac:dyDescent="0.4">
       <c r="F12">
         <v>10</v>
       </c>
@@ -944,7 +949,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="6:23">
+    <row r="13" spans="6:23" x14ac:dyDescent="0.4">
       <c r="F13">
         <v>30</v>
       </c>
@@ -962,7 +967,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="14" spans="6:23">
+    <row r="14" spans="6:23" x14ac:dyDescent="0.4">
       <c r="F14">
         <v>50</v>
       </c>
@@ -976,8 +981,11 @@
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-    </row>
-    <row r="15" spans="6:23">
+      <c r="K14" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="6:23" x14ac:dyDescent="0.4">
       <c r="F15">
         <v>100</v>
       </c>
@@ -991,8 +999,27 @@
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-    </row>
-    <row r="16" spans="6:23">
+      <c r="K15" t="s">
+        <v>4</v>
+      </c>
+      <c r="L15" t="s">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <f>0.15629</f>
+        <v>0.15629000000000001</v>
+      </c>
+      <c r="N15" t="s">
+        <v>12</v>
+      </c>
+      <c r="O15" t="s">
+        <v>3</v>
+      </c>
+      <c r="P15">
+        <v>8.1099999999999992E-3</v>
+      </c>
+    </row>
+    <row r="16" spans="6:23" x14ac:dyDescent="0.4">
       <c r="F16">
         <v>300</v>
       </c>
@@ -1006,8 +1033,27 @@
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-    </row>
-    <row r="17" spans="6:9">
+      <c r="K16" t="s">
+        <v>5</v>
+      </c>
+      <c r="L16" t="s">
+        <v>2</v>
+      </c>
+      <c r="M16">
+        <f>0.0075394</f>
+        <v>7.5393999999999999E-3</v>
+      </c>
+      <c r="N16" t="s">
+        <v>11</v>
+      </c>
+      <c r="O16" t="s">
+        <v>3</v>
+      </c>
+      <c r="P16">
+        <v>5.6599999999999999E-4</v>
+      </c>
+    </row>
+    <row r="17" spans="6:16" x14ac:dyDescent="0.4">
       <c r="F17">
         <v>3</v>
       </c>
@@ -1021,8 +1067,18 @@
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-    </row>
-    <row r="18" spans="6:9">
+      <c r="K17" t="s">
+        <v>14</v>
+      </c>
+      <c r="L17">
+        <f>LN(1/0.32)</f>
+        <v>1.1394342831883648</v>
+      </c>
+      <c r="M17" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="6:16" x14ac:dyDescent="0.4">
       <c r="F18">
         <v>5</v>
       </c>
@@ -1036,8 +1092,23 @@
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-    </row>
-    <row r="19" spans="6:9">
+      <c r="K18" t="s">
+        <v>8</v>
+      </c>
+      <c r="L18">
+        <v>20</v>
+      </c>
+      <c r="M18" t="s">
+        <v>10</v>
+      </c>
+      <c r="N18" t="s">
+        <v>42</v>
+      </c>
+      <c r="O18">
+        <v>3.8</v>
+      </c>
+    </row>
+    <row r="19" spans="6:16" x14ac:dyDescent="0.4">
       <c r="F19">
         <v>10</v>
       </c>
@@ -1048,8 +1119,25 @@
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-    </row>
-    <row r="20" spans="6:9">
+      <c r="K19" t="s">
+        <v>6</v>
+      </c>
+      <c r="L19">
+        <f>1/M16*LN(1/0.32)</f>
+        <v>151.13063150759541</v>
+      </c>
+      <c r="M19" t="s">
+        <v>50</v>
+      </c>
+      <c r="N19" t="s">
+        <v>41</v>
+      </c>
+      <c r="O19">
+        <f>LN(1/0.32)/M16/M16*P16</f>
+        <v>11.345722130845825</v>
+      </c>
+    </row>
+    <row r="20" spans="6:16" x14ac:dyDescent="0.4">
       <c r="F20">
         <v>30</v>
       </c>
@@ -1063,8 +1151,25 @@
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-    </row>
-    <row r="21" spans="6:9">
+      <c r="K20" t="s">
+        <v>7</v>
+      </c>
+      <c r="L20">
+        <f>M15-L18/L19</f>
+        <v>2.39541538482895E-2</v>
+      </c>
+      <c r="M20" t="s">
+        <v>9</v>
+      </c>
+      <c r="N20" t="s">
+        <v>43</v>
+      </c>
+      <c r="O20">
+        <f>SQRT(P21^2+P15^2)</f>
+        <v>2.8225567650262493E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="6:16" x14ac:dyDescent="0.4">
       <c r="F21">
         <v>3</v>
       </c>
@@ -1078,8 +1183,19 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-    </row>
-    <row r="22" spans="6:9">
+      <c r="N21">
+        <f>L18/L19</f>
+        <v>0.13233584615171051</v>
+      </c>
+      <c r="O21" t="s">
+        <v>44</v>
+      </c>
+      <c r="P21">
+        <f>SQRT((O18/L19)^2+(L18/L19/L19*O19)^2)</f>
+        <v>2.7035357759414697E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="6:16" x14ac:dyDescent="0.4">
       <c r="F22">
         <v>5</v>
       </c>
@@ -1094,7 +1210,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="23" spans="6:9">
+    <row r="23" spans="6:16" x14ac:dyDescent="0.4">
       <c r="F23">
         <v>10</v>
       </c>
@@ -1109,7 +1225,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="24" spans="6:9">
+    <row r="24" spans="6:16" x14ac:dyDescent="0.4">
       <c r="F24">
         <v>30</v>
       </c>
@@ -1124,7 +1240,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="25" spans="6:9">
+    <row r="25" spans="6:16" x14ac:dyDescent="0.4">
       <c r="F25">
         <v>50</v>
       </c>
@@ -1139,7 +1255,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="26" spans="6:9">
+    <row r="26" spans="6:16" x14ac:dyDescent="0.4">
       <c r="F26">
         <v>100</v>
       </c>
@@ -1154,7 +1270,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="27" spans="6:9">
+    <row r="27" spans="6:16" x14ac:dyDescent="0.4">
       <c r="F27">
         <v>300</v>
       </c>
@@ -1169,7 +1285,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="28" spans="6:9">
+    <row r="28" spans="6:16" x14ac:dyDescent="0.4">
       <c r="F28">
         <v>3</v>
       </c>
@@ -1184,7 +1300,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="29" spans="6:9">
+    <row r="29" spans="6:16" x14ac:dyDescent="0.4">
       <c r="F29">
         <v>5</v>
       </c>
@@ -1199,7 +1315,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="30" spans="6:9">
+    <row r="30" spans="6:16" x14ac:dyDescent="0.4">
       <c r="F30">
         <v>10</v>
       </c>
@@ -1214,7 +1330,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="31" spans="6:9">
+    <row r="31" spans="6:16" x14ac:dyDescent="0.4">
       <c r="F31">
         <v>30</v>
       </c>
@@ -1229,7 +1345,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="32" spans="6:9">
+    <row r="32" spans="6:16" x14ac:dyDescent="0.4">
       <c r="F32">
         <v>50</v>
       </c>
@@ -1244,7 +1360,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="33" spans="6:9">
+    <row r="33" spans="6:9" x14ac:dyDescent="0.4">
       <c r="F33">
         <v>100</v>
       </c>
@@ -1259,7 +1375,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="34" spans="6:9">
+    <row r="34" spans="6:9" x14ac:dyDescent="0.4">
       <c r="F34">
         <v>300</v>
       </c>
@@ -1274,7 +1390,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="35" spans="6:9">
+    <row r="35" spans="6:9" x14ac:dyDescent="0.4">
       <c r="F35">
         <v>3</v>
       </c>
@@ -1286,7 +1402,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="36" spans="6:9">
+    <row r="36" spans="6:9" x14ac:dyDescent="0.4">
       <c r="F36">
         <v>5</v>
       </c>
@@ -1298,7 +1414,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="37" spans="6:9">
+    <row r="37" spans="6:9" x14ac:dyDescent="0.4">
       <c r="F37">
         <v>10</v>
       </c>
@@ -1310,7 +1426,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="38" spans="6:9">
+    <row r="38" spans="6:9" x14ac:dyDescent="0.4">
       <c r="F38">
         <v>30</v>
       </c>
@@ -1322,7 +1438,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="39" spans="6:9">
+    <row r="39" spans="6:9" x14ac:dyDescent="0.4">
       <c r="F39">
         <v>3</v>
       </c>
@@ -1334,7 +1450,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="40" spans="6:9">
+    <row r="40" spans="6:9" x14ac:dyDescent="0.4">
       <c r="F40">
         <v>5</v>
       </c>
@@ -1346,7 +1462,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="41" spans="6:9">
+    <row r="41" spans="6:9" x14ac:dyDescent="0.4">
       <c r="F41">
         <v>10</v>
       </c>
@@ -1361,7 +1477,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="42" spans="6:9">
+    <row r="42" spans="6:9" x14ac:dyDescent="0.4">
       <c r="F42">
         <v>30</v>
       </c>
@@ -1376,7 +1492,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="43" spans="6:9">
+    <row r="43" spans="6:9" x14ac:dyDescent="0.4">
       <c r="F43">
         <v>50</v>
       </c>
@@ -1388,7 +1504,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="44" spans="6:9">
+    <row r="44" spans="6:9" x14ac:dyDescent="0.4">
       <c r="F44">
         <v>100</v>
       </c>
@@ -1403,7 +1519,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="45" spans="6:9">
+    <row r="45" spans="6:9" x14ac:dyDescent="0.4">
       <c r="F45">
         <v>300</v>
       </c>
@@ -1415,7 +1531,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="46" spans="6:9">
+    <row r="46" spans="6:9" x14ac:dyDescent="0.4">
       <c r="F46">
         <v>3</v>
       </c>
@@ -1430,7 +1546,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="47" spans="6:9">
+    <row r="47" spans="6:9" x14ac:dyDescent="0.4">
       <c r="F47">
         <v>5</v>
       </c>
@@ -1445,7 +1561,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="48" spans="6:9">
+    <row r="48" spans="6:9" x14ac:dyDescent="0.4">
       <c r="F48">
         <v>10</v>
       </c>
@@ -1460,7 +1576,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="49" spans="6:9">
+    <row r="49" spans="6:9" x14ac:dyDescent="0.4">
       <c r="F49">
         <v>30</v>
       </c>
@@ -1475,7 +1591,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="50" spans="6:9">
+    <row r="50" spans="6:9" x14ac:dyDescent="0.4">
       <c r="F50">
         <v>50</v>
       </c>
@@ -1490,7 +1606,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="51" spans="6:9">
+    <row r="51" spans="6:9" x14ac:dyDescent="0.4">
       <c r="F51">
         <v>100</v>
       </c>
@@ -1505,7 +1621,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="52" spans="6:9">
+    <row r="52" spans="6:9" x14ac:dyDescent="0.4">
       <c r="F52">
         <v>300</v>
       </c>
@@ -1517,7 +1633,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="53" spans="6:9">
+    <row r="53" spans="6:9" x14ac:dyDescent="0.4">
       <c r="F53">
         <v>3</v>
       </c>
@@ -1529,7 +1645,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="54" spans="6:9">
+    <row r="54" spans="6:9" x14ac:dyDescent="0.4">
       <c r="F54">
         <v>5</v>
       </c>
@@ -1541,7 +1657,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="55" spans="6:9">
+    <row r="55" spans="6:9" x14ac:dyDescent="0.4">
       <c r="F55">
         <v>10</v>
       </c>
@@ -1553,7 +1669,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="56" spans="6:9">
+    <row r="56" spans="6:9" x14ac:dyDescent="0.4">
       <c r="F56">
         <v>30</v>
       </c>
@@ -1580,14 +1696,14 @@
       <selection activeCell="W19" sqref="W19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="2:43">
+    <row r="1" spans="2:43" x14ac:dyDescent="0.4">
       <c r="B1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="2:43">
+    <row r="2" spans="2:43" x14ac:dyDescent="0.4">
       <c r="B2" t="s">
         <v>27</v>
       </c>
@@ -1652,7 +1768,7 @@
         <v>0.81717300000000004</v>
       </c>
     </row>
-    <row r="3" spans="2:43">
+    <row r="3" spans="2:43" x14ac:dyDescent="0.4">
       <c r="C3">
         <v>0.58543299999999998</v>
       </c>
@@ -1711,7 +1827,7 @@
         <v>0.50941700000000001</v>
       </c>
     </row>
-    <row r="4" spans="2:43">
+    <row r="4" spans="2:43" x14ac:dyDescent="0.4">
       <c r="C4">
         <v>0.53004700000000005</v>
       </c>
@@ -1761,7 +1877,7 @@
         <v>0.32603300000000002</v>
       </c>
     </row>
-    <row r="5" spans="2:43">
+    <row r="5" spans="2:43" x14ac:dyDescent="0.4">
       <c r="C5">
         <v>0.80152299999999999</v>
       </c>
@@ -1832,7 +1948,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="6" spans="2:43">
+    <row r="6" spans="2:43" x14ac:dyDescent="0.4">
       <c r="B6">
         <v>0.68346799999999996</v>
       </c>
@@ -1852,7 +1968,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="7" spans="2:43">
+    <row r="7" spans="2:43" x14ac:dyDescent="0.4">
       <c r="B7">
         <v>0.70464000000000004</v>
       </c>
@@ -1960,7 +2076,7 @@
         <v>1.4583552086614633</v>
       </c>
     </row>
-    <row r="8" spans="2:43">
+    <row r="8" spans="2:43" x14ac:dyDescent="0.4">
       <c r="B8">
         <v>0.622865</v>
       </c>
@@ -2077,7 +2193,7 @@
         <v>1.2237310826471262</v>
       </c>
     </row>
-    <row r="9" spans="2:43">
+    <row r="9" spans="2:43" x14ac:dyDescent="0.4">
       <c r="B9">
         <v>0.68570399999999998</v>
       </c>
@@ -2185,7 +2301,7 @@
         <v>1.917383768195972</v>
       </c>
     </row>
-    <row r="10" spans="2:43">
+    <row r="10" spans="2:43" x14ac:dyDescent="0.4">
       <c r="B10">
         <v>0.66087300000000004</v>
       </c>
@@ -2290,7 +2406,7 @@
         <v>1.9630283245356948</v>
       </c>
     </row>
-    <row r="11" spans="2:43">
+    <row r="11" spans="2:43" x14ac:dyDescent="0.4">
       <c r="B11">
         <v>0.68468700000000005</v>
       </c>
@@ -2395,7 +2511,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="12" spans="2:43">
+    <row r="12" spans="2:43" x14ac:dyDescent="0.4">
       <c r="B12">
         <v>0.72621800000000003</v>
       </c>
@@ -2455,7 +2571,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="13" spans="2:43">
+    <row r="13" spans="2:43" x14ac:dyDescent="0.4">
       <c r="B13">
         <v>0.79095400000000005</v>
       </c>
@@ -2500,7 +2616,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="14" spans="2:43">
+    <row r="14" spans="2:43" x14ac:dyDescent="0.4">
       <c r="B14">
         <v>0.77401600000000004</v>
       </c>
@@ -2514,7 +2630,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="15" spans="2:43">
+    <row r="15" spans="2:43" x14ac:dyDescent="0.4">
       <c r="B15">
         <v>0.772119</v>
       </c>
@@ -2540,7 +2656,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="16" spans="2:43">
+    <row r="16" spans="2:43" x14ac:dyDescent="0.4">
       <c r="B16">
         <v>0.81717300000000004</v>
       </c>
@@ -2563,7 +2679,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="17" spans="2:23">
+    <row r="17" spans="2:23" x14ac:dyDescent="0.4">
       <c r="B17">
         <v>0.81879999999999997</v>
       </c>
@@ -2577,7 +2693,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="18" spans="2:23">
+    <row r="18" spans="2:23" x14ac:dyDescent="0.4">
       <c r="B18">
         <v>1.5295000000000001</v>
       </c>
@@ -2588,7 +2704,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="19" spans="2:23">
+    <row r="19" spans="2:23" x14ac:dyDescent="0.4">
       <c r="E19">
         <v>10</v>
       </c>
@@ -2602,7 +2718,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="20" spans="2:23">
+    <row r="20" spans="2:23" x14ac:dyDescent="0.4">
       <c r="B20">
         <v>1.7244900000000001</v>
       </c>
@@ -2622,7 +2738,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="22" spans="2:23">
+    <row r="22" spans="2:23" x14ac:dyDescent="0.4">
       <c r="I22">
         <v>0.622865</v>
       </c>
@@ -2636,7 +2752,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="23" spans="2:23">
+    <row r="23" spans="2:23" x14ac:dyDescent="0.4">
       <c r="I23">
         <v>0.772119</v>
       </c>
@@ -2650,7 +2766,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="25" spans="2:23">
+    <row r="25" spans="2:23" x14ac:dyDescent="0.4">
       <c r="I25">
         <v>0.68570399999999998</v>
       </c>
@@ -2661,7 +2777,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="26" spans="2:23">
+    <row r="26" spans="2:23" x14ac:dyDescent="0.4">
       <c r="I26">
         <v>0.81717300000000004</v>
       </c>
@@ -2672,7 +2788,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="27" spans="2:23">
+    <row r="27" spans="2:23" x14ac:dyDescent="0.4">
       <c r="I27" t="s">
         <v>31</v>
       </c>
@@ -2691,16 +2807,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BFBE4548-357F-44CD-9C9B-EBAA52759321}">
   <dimension ref="B2:N23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I16" sqref="I16:N23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="9" max="9" width="18.83203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:14">
+    <row r="2" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B2" t="s">
         <v>19</v>
       </c>
@@ -2714,7 +2830,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="2:14">
+    <row r="3" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B3">
         <v>3</v>
       </c>
@@ -2729,7 +2845,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="4" spans="2:14">
+    <row r="4" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B4">
         <v>5</v>
       </c>
@@ -2753,7 +2869,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="2:14">
+    <row r="5" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B5">
         <v>10</v>
       </c>
@@ -2784,7 +2900,7 @@
         <v>1.6899999999999998E-2</v>
       </c>
     </row>
-    <row r="6" spans="2:14">
+    <row r="6" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B6">
         <v>30</v>
       </c>
@@ -2815,7 +2931,7 @@
         <v>1.07E-3</v>
       </c>
     </row>
-    <row r="7" spans="2:14">
+    <row r="7" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B7">
         <v>50</v>
       </c>
@@ -2840,7 +2956,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="2:14">
+    <row r="8" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B8">
         <v>100</v>
       </c>
@@ -2870,7 +2986,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="9" spans="2:14">
+    <row r="9" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B9">
         <v>300</v>
       </c>
@@ -2899,7 +3015,7 @@
         <v>292.73332710557196</v>
       </c>
     </row>
-    <row r="10" spans="2:14">
+    <row r="10" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B10">
         <v>3</v>
       </c>
@@ -2931,7 +3047,7 @@
         <v>2.4318204615953323E-2</v>
       </c>
     </row>
-    <row r="11" spans="2:14">
+    <row r="11" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B11">
         <v>5</v>
       </c>
@@ -2960,7 +3076,7 @@
         <v>1.7486139532308827E-2</v>
       </c>
     </row>
-    <row r="12" spans="2:14">
+    <row r="12" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B12">
         <v>10</v>
       </c>
@@ -2975,7 +3091,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="13" spans="2:14">
+    <row r="13" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B13">
         <v>30</v>
       </c>
@@ -2990,7 +3106,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="14" spans="2:14">
+    <row r="14" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B14">
         <v>50</v>
       </c>
@@ -3005,7 +3121,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="15" spans="2:14">
+    <row r="15" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B15">
         <v>100</v>
       </c>
@@ -3020,7 +3136,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="16" spans="2:14">
+    <row r="16" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B16">
         <v>300</v>
       </c>
@@ -3031,8 +3147,17 @@
       <c r="E16">
         <v>1000</v>
       </c>
-    </row>
-    <row r="17" spans="2:5">
+      <c r="I16" t="s">
+        <v>0</v>
+      </c>
+      <c r="J16" t="s">
+        <v>20</v>
+      </c>
+      <c r="K16" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="17" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B17">
         <v>3</v>
       </c>
@@ -3043,8 +3168,24 @@
       <c r="E17">
         <v>2000</v>
       </c>
-    </row>
-    <row r="18" spans="2:5">
+      <c r="I17" t="s">
+        <v>4</v>
+      </c>
+      <c r="J17" t="s">
+        <v>1</v>
+      </c>
+      <c r="K17">
+        <f>0.38918</f>
+        <v>0.38918000000000003</v>
+      </c>
+      <c r="L17" t="s">
+        <v>3</v>
+      </c>
+      <c r="M17">
+        <v>1.6899999999999998E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B18">
         <v>5</v>
       </c>
@@ -3055,8 +3196,24 @@
       <c r="E18">
         <v>2000</v>
       </c>
-    </row>
-    <row r="19" spans="2:5">
+      <c r="I18" t="s">
+        <v>5</v>
+      </c>
+      <c r="J18" t="s">
+        <v>2</v>
+      </c>
+      <c r="K18">
+        <f>0.0020408</f>
+        <v>2.0408000000000002E-3</v>
+      </c>
+      <c r="L18" t="s">
+        <v>3</v>
+      </c>
+      <c r="M18">
+        <v>1.07E-3</v>
+      </c>
+    </row>
+    <row r="19" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B19">
         <v>10</v>
       </c>
@@ -3067,8 +3224,18 @@
       <c r="E19">
         <v>2000</v>
       </c>
-    </row>
-    <row r="20" spans="2:5">
+      <c r="I19" t="s">
+        <v>14</v>
+      </c>
+      <c r="J19">
+        <f>LN(1/0.32)</f>
+        <v>1.1394342831883648</v>
+      </c>
+      <c r="K19" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="20" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B20">
         <v>30</v>
       </c>
@@ -3082,8 +3249,23 @@
       <c r="E20">
         <v>2000</v>
       </c>
-    </row>
-    <row r="21" spans="2:5">
+      <c r="I20" t="s">
+        <v>8</v>
+      </c>
+      <c r="J20">
+        <v>18</v>
+      </c>
+      <c r="K20" t="s">
+        <v>10</v>
+      </c>
+      <c r="L20" t="s">
+        <v>45</v>
+      </c>
+      <c r="M20">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="21" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B21">
         <v>50</v>
       </c>
@@ -3097,8 +3279,25 @@
       <c r="E21">
         <v>2000</v>
       </c>
-    </row>
-    <row r="22" spans="2:5">
+      <c r="I21" t="s">
+        <v>6</v>
+      </c>
+      <c r="J21">
+        <f>1/K18*LN(1/0.32)</f>
+        <v>558.32726538042175</v>
+      </c>
+      <c r="K21" t="s">
+        <v>13</v>
+      </c>
+      <c r="L21" t="s">
+        <v>46</v>
+      </c>
+      <c r="M21">
+        <f>M18*LN(1/0.32)/K18/K18</f>
+        <v>292.73332710557196</v>
+      </c>
+    </row>
+    <row r="22" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B22">
         <v>100</v>
       </c>
@@ -3109,8 +3308,25 @@
       <c r="E22">
         <v>2000</v>
       </c>
-    </row>
-    <row r="23" spans="2:5">
+      <c r="I22" t="s">
+        <v>7</v>
+      </c>
+      <c r="J22">
+        <f>K17-J20/J21</f>
+        <v>0.35694084365549383</v>
+      </c>
+      <c r="K22" t="s">
+        <v>9</v>
+      </c>
+      <c r="L22" t="s">
+        <v>49</v>
+      </c>
+      <c r="M22">
+        <f>SQRT(N23^2+M17^2)</f>
+        <v>2.4318204615953323E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B23">
         <v>300</v>
       </c>
@@ -3120,11 +3336,26 @@
       </c>
       <c r="E23">
         <v>2000</v>
+      </c>
+      <c r="K23" t="s">
+        <v>47</v>
+      </c>
+      <c r="L23">
+        <f>J20/J21</f>
+        <v>3.2239156344506165E-2</v>
+      </c>
+      <c r="M23" t="s">
+        <v>48</v>
+      </c>
+      <c r="N23">
+        <f>SQRT((M20/J21)^2+(M21*J20/J21/J21)^2)</f>
+        <v>1.7486139532308827E-2</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3136,9 +3367,9 @@
       <selection activeCell="I4" sqref="I4:K305"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="4" spans="3:11">
+    <row r="4" spans="3:11" x14ac:dyDescent="0.4">
       <c r="C4" t="s">
         <v>23</v>
       </c>
@@ -3159,7 +3390,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="3:11">
+    <row r="5" spans="3:11" x14ac:dyDescent="0.4">
       <c r="I5">
         <v>0</v>
       </c>
@@ -3172,7 +3403,7 @@
         <v>-199.20599999999999</v>
       </c>
     </row>
-    <row r="6" spans="3:11">
+    <row r="6" spans="3:11" x14ac:dyDescent="0.4">
       <c r="I6">
         <v>0.01</v>
       </c>
@@ -3185,7 +3416,7 @@
         <v>-193.62599999999998</v>
       </c>
     </row>
-    <row r="7" spans="3:11">
+    <row r="7" spans="3:11" x14ac:dyDescent="0.4">
       <c r="I7">
         <v>0.02</v>
       </c>
@@ -3198,7 +3429,7 @@
         <v>-188.04599999999999</v>
       </c>
     </row>
-    <row r="8" spans="3:11">
+    <row r="8" spans="3:11" x14ac:dyDescent="0.4">
       <c r="I8">
         <v>0.03</v>
       </c>
@@ -3211,7 +3442,7 @@
         <v>-182.46599999999998</v>
       </c>
     </row>
-    <row r="9" spans="3:11">
+    <row r="9" spans="3:11" x14ac:dyDescent="0.4">
       <c r="I9">
         <v>0.04</v>
       </c>
@@ -3224,7 +3455,7 @@
         <v>-176.886</v>
       </c>
     </row>
-    <row r="10" spans="3:11">
+    <row r="10" spans="3:11" x14ac:dyDescent="0.4">
       <c r="I10">
         <v>0.05</v>
       </c>
@@ -3237,7 +3468,7 @@
         <v>-171.30599999999998</v>
       </c>
     </row>
-    <row r="11" spans="3:11">
+    <row r="11" spans="3:11" x14ac:dyDescent="0.4">
       <c r="I11">
         <v>0.06</v>
       </c>
@@ -3250,7 +3481,7 @@
         <v>-165.726</v>
       </c>
     </row>
-    <row r="12" spans="3:11">
+    <row r="12" spans="3:11" x14ac:dyDescent="0.4">
       <c r="I12">
         <v>7.0000000000000007E-2</v>
       </c>
@@ -3263,7 +3494,7 @@
         <v>-160.14599999999999</v>
       </c>
     </row>
-    <row r="13" spans="3:11">
+    <row r="13" spans="3:11" x14ac:dyDescent="0.4">
       <c r="I13">
         <v>0.08</v>
       </c>
@@ -3276,7 +3507,7 @@
         <v>-154.56599999999997</v>
       </c>
     </row>
-    <row r="14" spans="3:11">
+    <row r="14" spans="3:11" x14ac:dyDescent="0.4">
       <c r="I14">
         <v>0.09</v>
       </c>
@@ -3289,7 +3520,7 @@
         <v>-148.98600000000002</v>
       </c>
     </row>
-    <row r="15" spans="3:11">
+    <row r="15" spans="3:11" x14ac:dyDescent="0.4">
       <c r="I15">
         <v>0.1</v>
       </c>
@@ -3302,7 +3533,7 @@
         <v>-143.40600000000001</v>
       </c>
     </row>
-    <row r="16" spans="3:11">
+    <row r="16" spans="3:11" x14ac:dyDescent="0.4">
       <c r="I16">
         <v>0.11</v>
       </c>
@@ -3315,7 +3546,7 @@
         <v>-137.82599999999999</v>
       </c>
     </row>
-    <row r="17" spans="9:11">
+    <row r="17" spans="9:11" x14ac:dyDescent="0.4">
       <c r="I17">
         <v>0.12</v>
       </c>
@@ -3328,7 +3559,7 @@
         <v>-132.24599999999998</v>
       </c>
     </row>
-    <row r="18" spans="9:11">
+    <row r="18" spans="9:11" x14ac:dyDescent="0.4">
       <c r="I18">
         <v>0.13</v>
       </c>
@@ -3341,7 +3572,7 @@
         <v>-126.66599999999998</v>
       </c>
     </row>
-    <row r="19" spans="9:11">
+    <row r="19" spans="9:11" x14ac:dyDescent="0.4">
       <c r="I19">
         <v>0.14000000000000001</v>
       </c>
@@ -3354,7 +3585,7 @@
         <v>-121.08599999999998</v>
       </c>
     </row>
-    <row r="20" spans="9:11">
+    <row r="20" spans="9:11" x14ac:dyDescent="0.4">
       <c r="I20">
         <v>0.15</v>
       </c>
@@ -3367,7 +3598,7 @@
         <v>-115.506</v>
       </c>
     </row>
-    <row r="21" spans="9:11">
+    <row r="21" spans="9:11" x14ac:dyDescent="0.4">
       <c r="I21">
         <v>0.16</v>
       </c>
@@ -3380,7 +3611,7 @@
         <v>-109.92599999999999</v>
       </c>
     </row>
-    <row r="22" spans="9:11">
+    <row r="22" spans="9:11" x14ac:dyDescent="0.4">
       <c r="I22">
         <v>0.17</v>
       </c>
@@ -3393,7 +3624,7 @@
         <v>-104.34599999999999</v>
       </c>
     </row>
-    <row r="23" spans="9:11">
+    <row r="23" spans="9:11" x14ac:dyDescent="0.4">
       <c r="I23">
         <v>0.18</v>
       </c>
@@ -3406,7 +3637,7 @@
         <v>-98.765999999999991</v>
       </c>
     </row>
-    <row r="24" spans="9:11">
+    <row r="24" spans="9:11" x14ac:dyDescent="0.4">
       <c r="I24">
         <v>0.19</v>
       </c>
@@ -3419,7 +3650,7 @@
         <v>-93.185999999999993</v>
       </c>
     </row>
-    <row r="25" spans="9:11">
+    <row r="25" spans="9:11" x14ac:dyDescent="0.4">
       <c r="I25">
         <v>0.2</v>
       </c>
@@ -3432,7 +3663,7 @@
         <v>-87.60599999999998</v>
       </c>
     </row>
-    <row r="26" spans="9:11">
+    <row r="26" spans="9:11" x14ac:dyDescent="0.4">
       <c r="I26">
         <v>0.21</v>
       </c>
@@ -3445,7 +3676,7 @@
         <v>-82.025999999999996</v>
       </c>
     </row>
-    <row r="27" spans="9:11">
+    <row r="27" spans="9:11" x14ac:dyDescent="0.4">
       <c r="I27">
         <v>0.22</v>
       </c>
@@ -3458,7 +3689,7 @@
         <v>-76.445999999999984</v>
       </c>
     </row>
-    <row r="28" spans="9:11">
+    <row r="28" spans="9:11" x14ac:dyDescent="0.4">
       <c r="I28">
         <v>0.23</v>
       </c>
@@ -3471,7 +3702,7 @@
         <v>-70.865999999999985</v>
       </c>
     </row>
-    <row r="29" spans="9:11">
+    <row r="29" spans="9:11" x14ac:dyDescent="0.4">
       <c r="I29">
         <v>0.24</v>
       </c>
@@ -3484,7 +3715,7 @@
         <v>-65.286000000000001</v>
       </c>
     </row>
-    <row r="30" spans="9:11">
+    <row r="30" spans="9:11" x14ac:dyDescent="0.4">
       <c r="I30">
         <v>0.25</v>
       </c>
@@ -3497,7 +3728,7 @@
         <v>-59.705999999999989</v>
       </c>
     </row>
-    <row r="31" spans="9:11">
+    <row r="31" spans="9:11" x14ac:dyDescent="0.4">
       <c r="I31">
         <v>0.26</v>
       </c>
@@ -3510,7 +3741,7 @@
         <v>-54.125999999999983</v>
       </c>
     </row>
-    <row r="32" spans="9:11">
+    <row r="32" spans="9:11" x14ac:dyDescent="0.4">
       <c r="I32">
         <v>0.27</v>
       </c>
@@ -3523,7 +3754,7 @@
         <v>-48.545999999999978</v>
       </c>
     </row>
-    <row r="33" spans="9:11">
+    <row r="33" spans="9:11" x14ac:dyDescent="0.4">
       <c r="I33">
         <v>0.28000000000000003</v>
       </c>
@@ -3536,7 +3767,7 @@
         <v>-42.96599999999998</v>
       </c>
     </row>
-    <row r="34" spans="9:11">
+    <row r="34" spans="9:11" x14ac:dyDescent="0.4">
       <c r="I34">
         <v>0.28999999999999998</v>
       </c>
@@ -3549,7 +3780,7 @@
         <v>-37.386000000000003</v>
       </c>
     </row>
-    <row r="35" spans="9:11">
+    <row r="35" spans="9:11" x14ac:dyDescent="0.4">
       <c r="I35">
         <v>0.3</v>
       </c>
@@ -3562,7 +3793,7 @@
         <v>-31.805999999999997</v>
       </c>
     </row>
-    <row r="36" spans="9:11">
+    <row r="36" spans="9:11" x14ac:dyDescent="0.4">
       <c r="I36">
         <v>0.31</v>
       </c>
@@ -3575,7 +3806,7 @@
         <v>-26.225999999999992</v>
       </c>
     </row>
-    <row r="37" spans="9:11">
+    <row r="37" spans="9:11" x14ac:dyDescent="0.4">
       <c r="I37">
         <v>0.32</v>
       </c>
@@ -3588,7 +3819,7 @@
         <v>-20.645999999999987</v>
       </c>
     </row>
-    <row r="38" spans="9:11">
+    <row r="38" spans="9:11" x14ac:dyDescent="0.4">
       <c r="I38">
         <v>0.33</v>
       </c>
@@ -3601,7 +3832,7 @@
         <v>-15.065999999999983</v>
       </c>
     </row>
-    <row r="39" spans="9:11">
+    <row r="39" spans="9:11" x14ac:dyDescent="0.4">
       <c r="I39">
         <v>0.34</v>
       </c>
@@ -3614,7 +3845,7 @@
         <v>-9.4859999999999776</v>
       </c>
     </row>
-    <row r="40" spans="9:11">
+    <row r="40" spans="9:11" x14ac:dyDescent="0.4">
       <c r="I40">
         <v>0.35</v>
       </c>
@@ -3627,7 +3858,7 @@
         <v>-3.9060000000000032</v>
       </c>
     </row>
-    <row r="41" spans="9:11">
+    <row r="41" spans="9:11" x14ac:dyDescent="0.4">
       <c r="I41">
         <v>0.36</v>
       </c>
@@ -3640,7 +3871,7 @@
         <v>1.6740000000000015</v>
       </c>
     </row>
-    <row r="42" spans="9:11">
+    <row r="42" spans="9:11" x14ac:dyDescent="0.4">
       <c r="I42">
         <v>0.37</v>
       </c>
@@ -3653,7 +3884,7 @@
         <v>7.2540000000000067</v>
       </c>
     </row>
-    <row r="43" spans="9:11">
+    <row r="43" spans="9:11" x14ac:dyDescent="0.4">
       <c r="I43">
         <v>0.38</v>
       </c>
@@ -3666,7 +3897,7 @@
         <v>12.834000000000012</v>
       </c>
     </row>
-    <row r="44" spans="9:11">
+    <row r="44" spans="9:11" x14ac:dyDescent="0.4">
       <c r="I44">
         <v>0.39</v>
       </c>
@@ -3679,7 +3910,7 @@
         <v>18.414000000000016</v>
       </c>
     </row>
-    <row r="45" spans="9:11">
+    <row r="45" spans="9:11" x14ac:dyDescent="0.4">
       <c r="I45">
         <v>0.4</v>
       </c>
@@ -3692,7 +3923,7 @@
         <v>23.994000000000021</v>
       </c>
     </row>
-    <row r="46" spans="9:11">
+    <row r="46" spans="9:11" x14ac:dyDescent="0.4">
       <c r="I46">
         <v>0.41</v>
       </c>
@@ -3705,7 +3936,7 @@
         <v>29.573999999999995</v>
       </c>
     </row>
-    <row r="47" spans="9:11">
+    <row r="47" spans="9:11" x14ac:dyDescent="0.4">
       <c r="I47">
         <v>0.42</v>
       </c>
@@ -3718,7 +3949,7 @@
         <v>35.154000000000003</v>
       </c>
     </row>
-    <row r="48" spans="9:11">
+    <row r="48" spans="9:11" x14ac:dyDescent="0.4">
       <c r="I48">
         <v>0.43</v>
       </c>
@@ -3731,7 +3962,7 @@
         <v>40.734000000000002</v>
       </c>
     </row>
-    <row r="49" spans="9:11">
+    <row r="49" spans="9:11" x14ac:dyDescent="0.4">
       <c r="I49">
         <v>0.44</v>
       </c>
@@ -3744,7 +3975,7 @@
         <v>46.314000000000007</v>
       </c>
     </row>
-    <row r="50" spans="9:11">
+    <row r="50" spans="9:11" x14ac:dyDescent="0.4">
       <c r="I50">
         <v>0.45</v>
       </c>
@@ -3757,7 +3988,7 @@
         <v>51.894000000000013</v>
       </c>
     </row>
-    <row r="51" spans="9:11">
+    <row r="51" spans="9:11" x14ac:dyDescent="0.4">
       <c r="I51">
         <v>0.46</v>
       </c>
@@ -3770,7 +4001,7 @@
         <v>57.474000000000018</v>
       </c>
     </row>
-    <row r="52" spans="9:11">
+    <row r="52" spans="9:11" x14ac:dyDescent="0.4">
       <c r="I52">
         <v>0.47</v>
       </c>
@@ -3783,7 +4014,7 @@
         <v>63.053999999999995</v>
       </c>
     </row>
-    <row r="53" spans="9:11">
+    <row r="53" spans="9:11" x14ac:dyDescent="0.4">
       <c r="I53">
         <v>0.48</v>
       </c>
@@ -3796,7 +4027,7 @@
         <v>68.634</v>
       </c>
     </row>
-    <row r="54" spans="9:11">
+    <row r="54" spans="9:11" x14ac:dyDescent="0.4">
       <c r="I54">
         <v>0.49</v>
       </c>
@@ -3809,7 +4040,7 @@
         <v>74.213999999999999</v>
       </c>
     </row>
-    <row r="55" spans="9:11">
+    <row r="55" spans="9:11" x14ac:dyDescent="0.4">
       <c r="I55">
         <v>0.5</v>
       </c>
@@ -3822,7 +4053,7 @@
         <v>79.794000000000011</v>
       </c>
     </row>
-    <row r="56" spans="9:11">
+    <row r="56" spans="9:11" x14ac:dyDescent="0.4">
       <c r="I56">
         <v>0.51</v>
       </c>
@@ -3835,7 +4066,7 @@
         <v>85.374000000000009</v>
       </c>
     </row>
-    <row r="57" spans="9:11">
+    <row r="57" spans="9:11" x14ac:dyDescent="0.4">
       <c r="I57">
         <v>0.52</v>
       </c>
@@ -3848,7 +4079,7 @@
         <v>90.954000000000022</v>
       </c>
     </row>
-    <row r="58" spans="9:11">
+    <row r="58" spans="9:11" x14ac:dyDescent="0.4">
       <c r="I58">
         <v>0.53</v>
       </c>
@@ -3861,7 +4092,7 @@
         <v>96.53400000000002</v>
       </c>
     </row>
-    <row r="59" spans="9:11">
+    <row r="59" spans="9:11" x14ac:dyDescent="0.4">
       <c r="I59">
         <v>0.54</v>
       </c>
@@ -3874,7 +4105,7 @@
         <v>102.11400000000003</v>
       </c>
     </row>
-    <row r="60" spans="9:11">
+    <row r="60" spans="9:11" x14ac:dyDescent="0.4">
       <c r="I60">
         <v>0.55000000000000004</v>
       </c>
@@ -3887,7 +4118,7 @@
         <v>107.69400000000003</v>
       </c>
     </row>
-    <row r="61" spans="9:11">
+    <row r="61" spans="9:11" x14ac:dyDescent="0.4">
       <c r="I61">
         <v>0.56000000000000005</v>
       </c>
@@ -3900,7 +4131,7 @@
         <v>113.27400000000004</v>
       </c>
     </row>
-    <row r="62" spans="9:11">
+    <row r="62" spans="9:11" x14ac:dyDescent="0.4">
       <c r="I62">
         <v>0.56999999999999995</v>
       </c>
@@ -3913,7 +4144,7 @@
         <v>118.85399999999998</v>
       </c>
     </row>
-    <row r="63" spans="9:11">
+    <row r="63" spans="9:11" x14ac:dyDescent="0.4">
       <c r="I63">
         <v>0.57999999999999996</v>
       </c>
@@ -3926,7 +4157,7 @@
         <v>124.43399999999998</v>
       </c>
     </row>
-    <row r="64" spans="9:11">
+    <row r="64" spans="9:11" x14ac:dyDescent="0.4">
       <c r="I64">
         <v>0.59</v>
       </c>
@@ -3939,7 +4170,7 @@
         <v>130.01399999999998</v>
       </c>
     </row>
-    <row r="65" spans="9:11">
+    <row r="65" spans="9:11" x14ac:dyDescent="0.4">
       <c r="I65">
         <v>0.6</v>
       </c>
@@ -3952,7 +4183,7 @@
         <v>135.59399999999999</v>
       </c>
     </row>
-    <row r="66" spans="9:11">
+    <row r="66" spans="9:11" x14ac:dyDescent="0.4">
       <c r="I66">
         <v>0.61</v>
       </c>
@@ -3965,7 +4196,7 @@
         <v>141.17400000000001</v>
       </c>
     </row>
-    <row r="67" spans="9:11">
+    <row r="67" spans="9:11" x14ac:dyDescent="0.4">
       <c r="I67">
         <v>0.62</v>
       </c>
@@ -3978,7 +4209,7 @@
         <v>146.75400000000002</v>
       </c>
     </row>
-    <row r="68" spans="9:11">
+    <row r="68" spans="9:11" x14ac:dyDescent="0.4">
       <c r="I68">
         <v>0.63</v>
       </c>
@@ -3991,7 +4222,7 @@
         <v>152.334</v>
       </c>
     </row>
-    <row r="69" spans="9:11">
+    <row r="69" spans="9:11" x14ac:dyDescent="0.4">
       <c r="I69">
         <v>0.64</v>
       </c>
@@ -4004,7 +4235,7 @@
         <v>157.91400000000002</v>
       </c>
     </row>
-    <row r="70" spans="9:11">
+    <row r="70" spans="9:11" x14ac:dyDescent="0.4">
       <c r="I70">
         <v>0.65</v>
       </c>
@@ -4017,7 +4248,7 @@
         <v>163.49400000000003</v>
       </c>
     </row>
-    <row r="71" spans="9:11">
+    <row r="71" spans="9:11" x14ac:dyDescent="0.4">
       <c r="I71">
         <v>0.66</v>
       </c>
@@ -4030,7 +4261,7 @@
         <v>169.07400000000001</v>
       </c>
     </row>
-    <row r="72" spans="9:11">
+    <row r="72" spans="9:11" x14ac:dyDescent="0.4">
       <c r="I72">
         <v>0.67</v>
       </c>
@@ -4043,7 +4274,7 @@
         <v>174.65400000000002</v>
       </c>
     </row>
-    <row r="73" spans="9:11">
+    <row r="73" spans="9:11" x14ac:dyDescent="0.4">
       <c r="I73">
         <v>0.68</v>
       </c>
@@ -4056,7 +4287,7 @@
         <v>180.23400000000004</v>
       </c>
     </row>
-    <row r="74" spans="9:11">
+    <row r="74" spans="9:11" x14ac:dyDescent="0.4">
       <c r="I74">
         <v>0.69</v>
       </c>
@@ -4069,7 +4300,7 @@
         <v>185.81399999999999</v>
       </c>
     </row>
-    <row r="75" spans="9:11">
+    <row r="75" spans="9:11" x14ac:dyDescent="0.4">
       <c r="I75">
         <v>0.7</v>
       </c>
@@ -4082,7 +4313,7 @@
         <v>191.39399999999998</v>
       </c>
     </row>
-    <row r="76" spans="9:11">
+    <row r="76" spans="9:11" x14ac:dyDescent="0.4">
       <c r="I76">
         <v>0.71</v>
       </c>
@@ -4095,7 +4326,7 @@
         <v>196.97399999999999</v>
       </c>
     </row>
-    <row r="77" spans="9:11">
+    <row r="77" spans="9:11" x14ac:dyDescent="0.4">
       <c r="I77">
         <v>0.72</v>
       </c>
@@ -4108,7 +4339,7 @@
         <v>202.554</v>
       </c>
     </row>
-    <row r="78" spans="9:11">
+    <row r="78" spans="9:11" x14ac:dyDescent="0.4">
       <c r="I78">
         <v>0.73</v>
       </c>
@@ -4121,7 +4352,7 @@
         <v>208.13399999999999</v>
       </c>
     </row>
-    <row r="79" spans="9:11">
+    <row r="79" spans="9:11" x14ac:dyDescent="0.4">
       <c r="I79">
         <v>0.74</v>
       </c>
@@ -4134,7 +4365,7 @@
         <v>213.714</v>
       </c>
     </row>
-    <row r="80" spans="9:11">
+    <row r="80" spans="9:11" x14ac:dyDescent="0.4">
       <c r="I80">
         <v>0.75</v>
       </c>
@@ -4147,7 +4378,7 @@
         <v>219.29400000000001</v>
       </c>
     </row>
-    <row r="81" spans="9:11">
+    <row r="81" spans="9:11" x14ac:dyDescent="0.4">
       <c r="I81">
         <v>0.76</v>
       </c>
@@ -4160,7 +4391,7 @@
         <v>224.87400000000002</v>
       </c>
     </row>
-    <row r="82" spans="9:11">
+    <row r="82" spans="9:11" x14ac:dyDescent="0.4">
       <c r="I82">
         <v>0.77</v>
       </c>
@@ -4173,7 +4404,7 @@
         <v>230.45400000000001</v>
       </c>
     </row>
-    <row r="83" spans="9:11">
+    <row r="83" spans="9:11" x14ac:dyDescent="0.4">
       <c r="I83">
         <v>0.78</v>
       </c>
@@ -4186,7 +4417,7 @@
         <v>236.03400000000002</v>
       </c>
     </row>
-    <row r="84" spans="9:11">
+    <row r="84" spans="9:11" x14ac:dyDescent="0.4">
       <c r="I84">
         <v>0.79</v>
       </c>
@@ -4199,7 +4430,7 @@
         <v>241.61400000000003</v>
       </c>
     </row>
-    <row r="85" spans="9:11">
+    <row r="85" spans="9:11" x14ac:dyDescent="0.4">
       <c r="I85">
         <v>0.8</v>
       </c>
@@ -4212,7 +4443,7 @@
         <v>247.19400000000005</v>
       </c>
     </row>
-    <row r="86" spans="9:11">
+    <row r="86" spans="9:11" x14ac:dyDescent="0.4">
       <c r="I86">
         <v>0.81</v>
       </c>
@@ -4225,7 +4456,7 @@
         <v>252.77400000000003</v>
       </c>
     </row>
-    <row r="87" spans="9:11">
+    <row r="87" spans="9:11" x14ac:dyDescent="0.4">
       <c r="I87">
         <v>0.82</v>
       </c>
@@ -4238,7 +4469,7 @@
         <v>258.35399999999998</v>
       </c>
     </row>
-    <row r="88" spans="9:11">
+    <row r="88" spans="9:11" x14ac:dyDescent="0.4">
       <c r="I88">
         <v>0.83</v>
       </c>
@@ -4251,7 +4482,7 @@
         <v>263.93399999999997</v>
       </c>
     </row>
-    <row r="89" spans="9:11">
+    <row r="89" spans="9:11" x14ac:dyDescent="0.4">
       <c r="I89">
         <v>0.84</v>
       </c>
@@ -4264,7 +4495,7 @@
         <v>269.51400000000001</v>
       </c>
     </row>
-    <row r="90" spans="9:11">
+    <row r="90" spans="9:11" x14ac:dyDescent="0.4">
       <c r="I90">
         <v>0.85</v>
       </c>
@@ -4277,7 +4508,7 @@
         <v>275.09399999999999</v>
       </c>
     </row>
-    <row r="91" spans="9:11">
+    <row r="91" spans="9:11" x14ac:dyDescent="0.4">
       <c r="I91">
         <v>0.86</v>
       </c>
@@ -4290,7 +4521,7 @@
         <v>280.67399999999998</v>
       </c>
     </row>
-    <row r="92" spans="9:11">
+    <row r="92" spans="9:11" x14ac:dyDescent="0.4">
       <c r="I92">
         <v>0.87</v>
       </c>
@@ -4303,7 +4534,7 @@
         <v>286.25400000000002</v>
       </c>
     </row>
-    <row r="93" spans="9:11">
+    <row r="93" spans="9:11" x14ac:dyDescent="0.4">
       <c r="I93">
         <v>0.88</v>
       </c>
@@ -4316,7 +4547,7 @@
         <v>291.834</v>
       </c>
     </row>
-    <row r="94" spans="9:11">
+    <row r="94" spans="9:11" x14ac:dyDescent="0.4">
       <c r="I94">
         <v>0.89</v>
       </c>
@@ -4329,7 +4560,7 @@
         <v>297.41400000000004</v>
       </c>
     </row>
-    <row r="95" spans="9:11">
+    <row r="95" spans="9:11" x14ac:dyDescent="0.4">
       <c r="I95">
         <v>0.9</v>
       </c>
@@ -4342,7 +4573,7 @@
         <v>302.99400000000003</v>
       </c>
     </row>
-    <row r="96" spans="9:11">
+    <row r="96" spans="9:11" x14ac:dyDescent="0.4">
       <c r="I96">
         <v>0.91</v>
       </c>
@@ -4355,7 +4586,7 @@
         <v>308.57400000000001</v>
       </c>
     </row>
-    <row r="97" spans="9:11">
+    <row r="97" spans="9:11" x14ac:dyDescent="0.4">
       <c r="I97">
         <v>0.92</v>
       </c>
@@ -4368,7 +4599,7 @@
         <v>314.15400000000005</v>
       </c>
     </row>
-    <row r="98" spans="9:11">
+    <row r="98" spans="9:11" x14ac:dyDescent="0.4">
       <c r="I98">
         <v>0.93</v>
       </c>
@@ -4381,7 +4612,7 @@
         <v>319.73400000000004</v>
       </c>
     </row>
-    <row r="99" spans="9:11">
+    <row r="99" spans="9:11" x14ac:dyDescent="0.4">
       <c r="I99">
         <v>0.94</v>
       </c>
@@ -4394,7 +4625,7 @@
         <v>325.31399999999996</v>
       </c>
     </row>
-    <row r="100" spans="9:11">
+    <row r="100" spans="9:11" x14ac:dyDescent="0.4">
       <c r="I100">
         <v>0.95</v>
       </c>
@@ -4407,7 +4638,7 @@
         <v>330.89400000000001</v>
       </c>
     </row>
-    <row r="101" spans="9:11">
+    <row r="101" spans="9:11" x14ac:dyDescent="0.4">
       <c r="I101">
         <v>0.96</v>
       </c>
@@ -4420,7 +4651,7 @@
         <v>336.47399999999999</v>
       </c>
     </row>
-    <row r="102" spans="9:11">
+    <row r="102" spans="9:11" x14ac:dyDescent="0.4">
       <c r="I102">
         <v>0.97</v>
       </c>
@@ -4433,7 +4664,7 @@
         <v>342.05399999999997</v>
       </c>
     </row>
-    <row r="103" spans="9:11">
+    <row r="103" spans="9:11" x14ac:dyDescent="0.4">
       <c r="I103">
         <v>0.98</v>
       </c>
@@ -4446,7 +4677,7 @@
         <v>347.63400000000001</v>
       </c>
     </row>
-    <row r="104" spans="9:11">
+    <row r="104" spans="9:11" x14ac:dyDescent="0.4">
       <c r="I104">
         <v>0.99</v>
       </c>
@@ -4459,7 +4690,7 @@
         <v>353.214</v>
       </c>
     </row>
-    <row r="105" spans="9:11">
+    <row r="105" spans="9:11" x14ac:dyDescent="0.4">
       <c r="I105">
         <v>1</v>
       </c>
@@ -4472,7 +4703,7 @@
         <v>358.79399999999998</v>
       </c>
     </row>
-    <row r="106" spans="9:11">
+    <row r="106" spans="9:11" x14ac:dyDescent="0.4">
       <c r="I106">
         <v>1.01</v>
       </c>
@@ -4485,7 +4716,7 @@
         <v>364.37400000000002</v>
       </c>
     </row>
-    <row r="107" spans="9:11">
+    <row r="107" spans="9:11" x14ac:dyDescent="0.4">
       <c r="I107">
         <v>1.02</v>
       </c>
@@ -4498,7 +4729,7 @@
         <v>369.95400000000001</v>
       </c>
     </row>
-    <row r="108" spans="9:11">
+    <row r="108" spans="9:11" x14ac:dyDescent="0.4">
       <c r="I108">
         <v>1.03</v>
       </c>
@@ -4511,7 +4742,7 @@
         <v>375.53400000000005</v>
       </c>
     </row>
-    <row r="109" spans="9:11">
+    <row r="109" spans="9:11" x14ac:dyDescent="0.4">
       <c r="I109">
         <v>1.04</v>
       </c>
@@ -4524,7 +4755,7 @@
         <v>381.11400000000003</v>
       </c>
     </row>
-    <row r="110" spans="9:11">
+    <row r="110" spans="9:11" x14ac:dyDescent="0.4">
       <c r="I110">
         <v>1.05</v>
       </c>
@@ -4537,7 +4768,7 @@
         <v>386.69400000000002</v>
       </c>
     </row>
-    <row r="111" spans="9:11">
+    <row r="111" spans="9:11" x14ac:dyDescent="0.4">
       <c r="I111">
         <v>1.06</v>
       </c>
@@ -4550,7 +4781,7 @@
         <v>392.27400000000006</v>
       </c>
     </row>
-    <row r="112" spans="9:11">
+    <row r="112" spans="9:11" x14ac:dyDescent="0.4">
       <c r="I112">
         <v>1.07</v>
       </c>
@@ -4563,7 +4794,7 @@
         <v>397.85400000000004</v>
       </c>
     </row>
-    <row r="113" spans="9:11">
+    <row r="113" spans="9:11" x14ac:dyDescent="0.4">
       <c r="I113">
         <v>1.08</v>
       </c>
@@ -4576,7 +4807,7 @@
         <v>403.43400000000003</v>
       </c>
     </row>
-    <row r="114" spans="9:11">
+    <row r="114" spans="9:11" x14ac:dyDescent="0.4">
       <c r="I114">
         <v>1.0900000000000001</v>
       </c>
@@ -4589,7 +4820,7 @@
         <v>409.01400000000007</v>
       </c>
     </row>
-    <row r="115" spans="9:11">
+    <row r="115" spans="9:11" x14ac:dyDescent="0.4">
       <c r="I115">
         <v>1.1000000000000001</v>
       </c>
@@ -4602,7 +4833,7 @@
         <v>414.59400000000005</v>
       </c>
     </row>
-    <row r="116" spans="9:11">
+    <row r="116" spans="9:11" x14ac:dyDescent="0.4">
       <c r="I116">
         <v>1.1100000000000001</v>
       </c>
@@ -4615,7 +4846,7 @@
         <v>420.17400000000009</v>
       </c>
     </row>
-    <row r="117" spans="9:11">
+    <row r="117" spans="9:11" x14ac:dyDescent="0.4">
       <c r="I117">
         <v>1.1200000000000001</v>
       </c>
@@ -4628,7 +4859,7 @@
         <v>425.75400000000008</v>
       </c>
     </row>
-    <row r="118" spans="9:11">
+    <row r="118" spans="9:11" x14ac:dyDescent="0.4">
       <c r="I118">
         <v>1.1299999999999999</v>
       </c>
@@ -4641,7 +4872,7 @@
         <v>431.33399999999995</v>
       </c>
     </row>
-    <row r="119" spans="9:11">
+    <row r="119" spans="9:11" x14ac:dyDescent="0.4">
       <c r="I119">
         <v>1.1399999999999999</v>
       </c>
@@ -4654,7 +4885,7 @@
         <v>436.91399999999993</v>
       </c>
     </row>
-    <row r="120" spans="9:11">
+    <row r="120" spans="9:11" x14ac:dyDescent="0.4">
       <c r="I120">
         <v>1.1499999999999999</v>
       </c>
@@ -4667,7 +4898,7 @@
         <v>442.49399999999997</v>
       </c>
     </row>
-    <row r="121" spans="9:11">
+    <row r="121" spans="9:11" x14ac:dyDescent="0.4">
       <c r="I121">
         <v>1.1599999999999999</v>
       </c>
@@ -4680,7 +4911,7 @@
         <v>448.07399999999996</v>
       </c>
     </row>
-    <row r="122" spans="9:11">
+    <row r="122" spans="9:11" x14ac:dyDescent="0.4">
       <c r="I122">
         <v>1.17</v>
       </c>
@@ -4693,7 +4924,7 @@
         <v>453.654</v>
       </c>
     </row>
-    <row r="123" spans="9:11">
+    <row r="123" spans="9:11" x14ac:dyDescent="0.4">
       <c r="I123">
         <v>1.18</v>
       </c>
@@ -4706,7 +4937,7 @@
         <v>459.23399999999998</v>
       </c>
     </row>
-    <row r="124" spans="9:11">
+    <row r="124" spans="9:11" x14ac:dyDescent="0.4">
       <c r="I124">
         <v>1.19</v>
       </c>
@@ -4719,7 +4950,7 @@
         <v>464.81399999999996</v>
       </c>
     </row>
-    <row r="125" spans="9:11">
+    <row r="125" spans="9:11" x14ac:dyDescent="0.4">
       <c r="I125">
         <v>1.2</v>
       </c>
@@ -4732,7 +4963,7 @@
         <v>470.39400000000001</v>
       </c>
     </row>
-    <row r="126" spans="9:11">
+    <row r="126" spans="9:11" x14ac:dyDescent="0.4">
       <c r="I126">
         <v>1.21</v>
       </c>
@@ -4745,7 +4976,7 @@
         <v>475.97399999999999</v>
       </c>
     </row>
-    <row r="127" spans="9:11">
+    <row r="127" spans="9:11" x14ac:dyDescent="0.4">
       <c r="I127">
         <v>1.22</v>
       </c>
@@ -4758,7 +4989,7 @@
         <v>481.55399999999997</v>
       </c>
     </row>
-    <row r="128" spans="9:11">
+    <row r="128" spans="9:11" x14ac:dyDescent="0.4">
       <c r="I128">
         <v>1.23</v>
       </c>
@@ -4771,7 +5002,7 @@
         <v>487.13400000000001</v>
       </c>
     </row>
-    <row r="129" spans="9:11">
+    <row r="129" spans="9:11" x14ac:dyDescent="0.4">
       <c r="I129">
         <v>1.24</v>
       </c>
@@ -4784,7 +5015,7 @@
         <v>492.714</v>
       </c>
     </row>
-    <row r="130" spans="9:11">
+    <row r="130" spans="9:11" x14ac:dyDescent="0.4">
       <c r="I130">
         <v>1.25</v>
       </c>
@@ -4797,7 +5028,7 @@
         <v>498.29399999999998</v>
       </c>
     </row>
-    <row r="131" spans="9:11">
+    <row r="131" spans="9:11" x14ac:dyDescent="0.4">
       <c r="I131">
         <v>1.26</v>
       </c>
@@ -4810,7 +5041,7 @@
         <v>503.87400000000002</v>
       </c>
     </row>
-    <row r="132" spans="9:11">
+    <row r="132" spans="9:11" x14ac:dyDescent="0.4">
       <c r="I132">
         <v>1.27</v>
       </c>
@@ -4823,7 +5054,7 @@
         <v>509.45400000000001</v>
       </c>
     </row>
-    <row r="133" spans="9:11">
+    <row r="133" spans="9:11" x14ac:dyDescent="0.4">
       <c r="I133">
         <v>1.28</v>
       </c>
@@ -4836,7 +5067,7 @@
         <v>515.03399999999999</v>
       </c>
     </row>
-    <row r="134" spans="9:11">
+    <row r="134" spans="9:11" x14ac:dyDescent="0.4">
       <c r="I134">
         <v>1.29</v>
       </c>
@@ -4849,7 +5080,7 @@
         <v>520.61400000000003</v>
       </c>
     </row>
-    <row r="135" spans="9:11">
+    <row r="135" spans="9:11" x14ac:dyDescent="0.4">
       <c r="I135">
         <v>1.3</v>
       </c>
@@ -4862,7 +5093,7 @@
         <v>526.19400000000007</v>
       </c>
     </row>
-    <row r="136" spans="9:11">
+    <row r="136" spans="9:11" x14ac:dyDescent="0.4">
       <c r="I136">
         <v>1.31</v>
       </c>
@@ -4875,7 +5106,7 @@
         <v>531.774</v>
       </c>
     </row>
-    <row r="137" spans="9:11">
+    <row r="137" spans="9:11" x14ac:dyDescent="0.4">
       <c r="I137">
         <v>1.32</v>
       </c>
@@ -4888,7 +5119,7 @@
         <v>537.35400000000004</v>
       </c>
     </row>
-    <row r="138" spans="9:11">
+    <row r="138" spans="9:11" x14ac:dyDescent="0.4">
       <c r="I138">
         <v>1.33</v>
       </c>
@@ -4901,7 +5132,7 @@
         <v>542.93400000000008</v>
       </c>
     </row>
-    <row r="139" spans="9:11">
+    <row r="139" spans="9:11" x14ac:dyDescent="0.4">
       <c r="I139">
         <v>1.34</v>
       </c>
@@ -4914,7 +5145,7 @@
         <v>548.51400000000001</v>
       </c>
     </row>
-    <row r="140" spans="9:11">
+    <row r="140" spans="9:11" x14ac:dyDescent="0.4">
       <c r="I140">
         <v>1.35</v>
       </c>
@@ -4927,7 +5158,7 @@
         <v>554.09400000000005</v>
       </c>
     </row>
-    <row r="141" spans="9:11">
+    <row r="141" spans="9:11" x14ac:dyDescent="0.4">
       <c r="I141">
         <v>1.36</v>
       </c>
@@ -4940,7 +5171,7 @@
         <v>559.67400000000009</v>
       </c>
     </row>
-    <row r="142" spans="9:11">
+    <row r="142" spans="9:11" x14ac:dyDescent="0.4">
       <c r="I142">
         <v>1.37</v>
       </c>
@@ -4953,7 +5184,7 @@
         <v>565.25400000000002</v>
       </c>
     </row>
-    <row r="143" spans="9:11">
+    <row r="143" spans="9:11" x14ac:dyDescent="0.4">
       <c r="I143">
         <v>1.38</v>
       </c>
@@ -4966,7 +5197,7 @@
         <v>570.83399999999995</v>
       </c>
     </row>
-    <row r="144" spans="9:11">
+    <row r="144" spans="9:11" x14ac:dyDescent="0.4">
       <c r="I144">
         <v>1.39</v>
       </c>
@@ -4979,7 +5210,7 @@
         <v>576.41399999999999</v>
       </c>
     </row>
-    <row r="145" spans="9:11">
+    <row r="145" spans="9:11" x14ac:dyDescent="0.4">
       <c r="I145">
         <v>1.4</v>
       </c>
@@ -4992,7 +5223,7 @@
         <v>581.99399999999991</v>
       </c>
     </row>
-    <row r="146" spans="9:11">
+    <row r="146" spans="9:11" x14ac:dyDescent="0.4">
       <c r="I146">
         <v>1.41</v>
       </c>
@@ -5005,7 +5236,7 @@
         <v>587.57399999999996</v>
       </c>
     </row>
-    <row r="147" spans="9:11">
+    <row r="147" spans="9:11" x14ac:dyDescent="0.4">
       <c r="I147">
         <v>1.42</v>
       </c>
@@ -5018,7 +5249,7 @@
         <v>593.154</v>
       </c>
     </row>
-    <row r="148" spans="9:11">
+    <row r="148" spans="9:11" x14ac:dyDescent="0.4">
       <c r="I148">
         <v>1.43</v>
       </c>
@@ -5031,7 +5262,7 @@
         <v>598.73399999999992</v>
       </c>
     </row>
-    <row r="149" spans="9:11">
+    <row r="149" spans="9:11" x14ac:dyDescent="0.4">
       <c r="I149">
         <v>1.44</v>
       </c>
@@ -5044,7 +5275,7 @@
         <v>604.31399999999996</v>
       </c>
     </row>
-    <row r="150" spans="9:11">
+    <row r="150" spans="9:11" x14ac:dyDescent="0.4">
       <c r="I150">
         <v>1.45</v>
       </c>
@@ -5057,7 +5288,7 @@
         <v>609.89400000000001</v>
       </c>
     </row>
-    <row r="151" spans="9:11">
+    <row r="151" spans="9:11" x14ac:dyDescent="0.4">
       <c r="I151">
         <v>1.46</v>
       </c>
@@ -5070,7 +5301,7 @@
         <v>615.47399999999993</v>
       </c>
     </row>
-    <row r="152" spans="9:11">
+    <row r="152" spans="9:11" x14ac:dyDescent="0.4">
       <c r="I152">
         <v>1.47</v>
       </c>
@@ -5083,7 +5314,7 @@
         <v>621.05399999999997</v>
       </c>
     </row>
-    <row r="153" spans="9:11">
+    <row r="153" spans="9:11" x14ac:dyDescent="0.4">
       <c r="I153">
         <v>1.48</v>
       </c>
@@ -5096,7 +5327,7 @@
         <v>626.63400000000001</v>
       </c>
     </row>
-    <row r="154" spans="9:11">
+    <row r="154" spans="9:11" x14ac:dyDescent="0.4">
       <c r="I154">
         <v>1.49</v>
       </c>
@@ -5109,7 +5340,7 @@
         <v>632.21400000000006</v>
       </c>
     </row>
-    <row r="155" spans="9:11">
+    <row r="155" spans="9:11" x14ac:dyDescent="0.4">
       <c r="I155">
         <v>1.5</v>
       </c>
@@ -5122,7 +5353,7 @@
         <v>637.79399999999998</v>
       </c>
     </row>
-    <row r="156" spans="9:11">
+    <row r="156" spans="9:11" x14ac:dyDescent="0.4">
       <c r="I156">
         <v>1.51</v>
       </c>
@@ -5135,7 +5366,7 @@
         <v>643.37400000000002</v>
       </c>
     </row>
-    <row r="157" spans="9:11">
+    <row r="157" spans="9:11" x14ac:dyDescent="0.4">
       <c r="I157">
         <v>1.52</v>
       </c>
@@ -5148,7 +5379,7 @@
         <v>648.95400000000006</v>
       </c>
     </row>
-    <row r="158" spans="9:11">
+    <row r="158" spans="9:11" x14ac:dyDescent="0.4">
       <c r="I158">
         <v>1.53</v>
       </c>
@@ -5161,7 +5392,7 @@
         <v>654.53399999999999</v>
       </c>
     </row>
-    <row r="159" spans="9:11">
+    <row r="159" spans="9:11" x14ac:dyDescent="0.4">
       <c r="I159">
         <v>1.54</v>
       </c>
@@ -5174,7 +5405,7 @@
         <v>660.11400000000003</v>
       </c>
     </row>
-    <row r="160" spans="9:11">
+    <row r="160" spans="9:11" x14ac:dyDescent="0.4">
       <c r="I160">
         <v>1.55</v>
       </c>
@@ -5187,7 +5418,7 @@
         <v>665.69400000000007</v>
       </c>
     </row>
-    <row r="161" spans="9:11">
+    <row r="161" spans="9:11" x14ac:dyDescent="0.4">
       <c r="I161">
         <v>1.56</v>
       </c>
@@ -5200,7 +5431,7 @@
         <v>671.274</v>
       </c>
     </row>
-    <row r="162" spans="9:11">
+    <row r="162" spans="9:11" x14ac:dyDescent="0.4">
       <c r="I162">
         <v>1.57</v>
       </c>
@@ -5213,7 +5444,7 @@
         <v>676.85400000000004</v>
       </c>
     </row>
-    <row r="163" spans="9:11">
+    <row r="163" spans="9:11" x14ac:dyDescent="0.4">
       <c r="I163">
         <v>1.58</v>
       </c>
@@ -5226,7 +5457,7 @@
         <v>682.43400000000008</v>
       </c>
     </row>
-    <row r="164" spans="9:11">
+    <row r="164" spans="9:11" x14ac:dyDescent="0.4">
       <c r="I164">
         <v>1.59</v>
       </c>
@@ -5239,7 +5470,7 @@
         <v>688.01400000000001</v>
       </c>
     </row>
-    <row r="165" spans="9:11">
+    <row r="165" spans="9:11" x14ac:dyDescent="0.4">
       <c r="I165">
         <v>1.6</v>
       </c>
@@ -5252,7 +5483,7 @@
         <v>693.59400000000005</v>
       </c>
     </row>
-    <row r="166" spans="9:11">
+    <row r="166" spans="9:11" x14ac:dyDescent="0.4">
       <c r="I166">
         <v>1.61</v>
       </c>
@@ -5265,7 +5496,7 @@
         <v>699.17400000000009</v>
       </c>
     </row>
-    <row r="167" spans="9:11">
+    <row r="167" spans="9:11" x14ac:dyDescent="0.4">
       <c r="I167">
         <v>1.62</v>
       </c>
@@ -5278,7 +5509,7 @@
         <v>704.75400000000002</v>
       </c>
     </row>
-    <row r="168" spans="9:11">
+    <row r="168" spans="9:11" x14ac:dyDescent="0.4">
       <c r="I168">
         <v>1.63</v>
       </c>
@@ -5291,7 +5522,7 @@
         <v>710.33399999999995</v>
       </c>
     </row>
-    <row r="169" spans="9:11">
+    <row r="169" spans="9:11" x14ac:dyDescent="0.4">
       <c r="I169">
         <v>1.64</v>
       </c>
@@ -5304,7 +5535,7 @@
         <v>715.91399999999999</v>
       </c>
     </row>
-    <row r="170" spans="9:11">
+    <row r="170" spans="9:11" x14ac:dyDescent="0.4">
       <c r="I170">
         <v>1.65</v>
       </c>
@@ -5317,7 +5548,7 @@
         <v>721.49399999999991</v>
       </c>
     </row>
-    <row r="171" spans="9:11">
+    <row r="171" spans="9:11" x14ac:dyDescent="0.4">
       <c r="I171">
         <v>1.66</v>
       </c>
@@ -5330,7 +5561,7 @@
         <v>727.07399999999996</v>
       </c>
     </row>
-    <row r="172" spans="9:11">
+    <row r="172" spans="9:11" x14ac:dyDescent="0.4">
       <c r="I172">
         <v>1.67</v>
       </c>
@@ -5343,7 +5574,7 @@
         <v>732.654</v>
       </c>
     </row>
-    <row r="173" spans="9:11">
+    <row r="173" spans="9:11" x14ac:dyDescent="0.4">
       <c r="I173">
         <v>1.68</v>
       </c>
@@ -5356,7 +5587,7 @@
         <v>738.23399999999992</v>
       </c>
     </row>
-    <row r="174" spans="9:11">
+    <row r="174" spans="9:11" x14ac:dyDescent="0.4">
       <c r="I174">
         <v>1.69</v>
       </c>
@@ -5369,7 +5600,7 @@
         <v>743.81399999999996</v>
       </c>
     </row>
-    <row r="175" spans="9:11">
+    <row r="175" spans="9:11" x14ac:dyDescent="0.4">
       <c r="I175">
         <v>1.7</v>
       </c>
@@ -5382,7 +5613,7 @@
         <v>749.39400000000001</v>
       </c>
     </row>
-    <row r="176" spans="9:11">
+    <row r="176" spans="9:11" x14ac:dyDescent="0.4">
       <c r="I176">
         <v>1.71</v>
       </c>
@@ -5395,7 +5626,7 @@
         <v>754.97399999999993</v>
       </c>
     </row>
-    <row r="177" spans="9:11">
+    <row r="177" spans="9:11" x14ac:dyDescent="0.4">
       <c r="I177">
         <v>1.72</v>
       </c>
@@ -5408,7 +5639,7 @@
         <v>760.55399999999997</v>
       </c>
     </row>
-    <row r="178" spans="9:11">
+    <row r="178" spans="9:11" x14ac:dyDescent="0.4">
       <c r="I178">
         <v>1.73</v>
       </c>
@@ -5421,7 +5652,7 @@
         <v>766.13400000000001</v>
       </c>
     </row>
-    <row r="179" spans="9:11">
+    <row r="179" spans="9:11" x14ac:dyDescent="0.4">
       <c r="I179">
         <v>1.74</v>
       </c>
@@ -5434,7 +5665,7 @@
         <v>771.71400000000006</v>
       </c>
     </row>
-    <row r="180" spans="9:11">
+    <row r="180" spans="9:11" x14ac:dyDescent="0.4">
       <c r="I180">
         <v>1.75</v>
       </c>
@@ -5447,7 +5678,7 @@
         <v>777.29399999999998</v>
       </c>
     </row>
-    <row r="181" spans="9:11">
+    <row r="181" spans="9:11" x14ac:dyDescent="0.4">
       <c r="I181">
         <v>1.76</v>
       </c>
@@ -5460,7 +5691,7 @@
         <v>782.87400000000002</v>
       </c>
     </row>
-    <row r="182" spans="9:11">
+    <row r="182" spans="9:11" x14ac:dyDescent="0.4">
       <c r="I182">
         <v>1.77</v>
       </c>
@@ -5473,7 +5704,7 @@
         <v>788.45400000000006</v>
       </c>
     </row>
-    <row r="183" spans="9:11">
+    <row r="183" spans="9:11" x14ac:dyDescent="0.4">
       <c r="I183">
         <v>1.78</v>
       </c>
@@ -5486,7 +5717,7 @@
         <v>794.03399999999999</v>
       </c>
     </row>
-    <row r="184" spans="9:11">
+    <row r="184" spans="9:11" x14ac:dyDescent="0.4">
       <c r="I184">
         <v>1.79</v>
       </c>
@@ -5499,7 +5730,7 @@
         <v>799.61400000000003</v>
       </c>
     </row>
-    <row r="185" spans="9:11">
+    <row r="185" spans="9:11" x14ac:dyDescent="0.4">
       <c r="I185">
         <v>1.8</v>
       </c>
@@ -5512,7 +5743,7 @@
         <v>805.19400000000007</v>
       </c>
     </row>
-    <row r="186" spans="9:11">
+    <row r="186" spans="9:11" x14ac:dyDescent="0.4">
       <c r="I186">
         <v>1.81</v>
       </c>
@@ -5525,7 +5756,7 @@
         <v>810.774</v>
       </c>
     </row>
-    <row r="187" spans="9:11">
+    <row r="187" spans="9:11" x14ac:dyDescent="0.4">
       <c r="I187">
         <v>1.82</v>
       </c>
@@ -5538,7 +5769,7 @@
         <v>816.35400000000004</v>
       </c>
     </row>
-    <row r="188" spans="9:11">
+    <row r="188" spans="9:11" x14ac:dyDescent="0.4">
       <c r="I188">
         <v>1.83</v>
       </c>
@@ -5551,7 +5782,7 @@
         <v>821.93400000000008</v>
       </c>
     </row>
-    <row r="189" spans="9:11">
+    <row r="189" spans="9:11" x14ac:dyDescent="0.4">
       <c r="I189">
         <v>1.84</v>
       </c>
@@ -5564,7 +5795,7 @@
         <v>827.51400000000001</v>
       </c>
     </row>
-    <row r="190" spans="9:11">
+    <row r="190" spans="9:11" x14ac:dyDescent="0.4">
       <c r="I190">
         <v>1.85</v>
       </c>
@@ -5577,7 +5808,7 @@
         <v>833.09400000000005</v>
       </c>
     </row>
-    <row r="191" spans="9:11">
+    <row r="191" spans="9:11" x14ac:dyDescent="0.4">
       <c r="I191">
         <v>1.86</v>
       </c>
@@ -5590,7 +5821,7 @@
         <v>838.67400000000009</v>
       </c>
     </row>
-    <row r="192" spans="9:11">
+    <row r="192" spans="9:11" x14ac:dyDescent="0.4">
       <c r="I192">
         <v>1.87</v>
       </c>
@@ -5603,7 +5834,7 @@
         <v>844.25400000000002</v>
       </c>
     </row>
-    <row r="193" spans="9:11">
+    <row r="193" spans="9:11" x14ac:dyDescent="0.4">
       <c r="I193">
         <v>1.88</v>
       </c>
@@ -5616,7 +5847,7 @@
         <v>849.83399999999995</v>
       </c>
     </row>
-    <row r="194" spans="9:11">
+    <row r="194" spans="9:11" x14ac:dyDescent="0.4">
       <c r="I194">
         <v>1.89</v>
       </c>
@@ -5629,7 +5860,7 @@
         <v>855.41399999999999</v>
       </c>
     </row>
-    <row r="195" spans="9:11">
+    <row r="195" spans="9:11" x14ac:dyDescent="0.4">
       <c r="I195">
         <v>1.9</v>
       </c>
@@ -5642,7 +5873,7 @@
         <v>860.99399999999991</v>
       </c>
     </row>
-    <row r="196" spans="9:11">
+    <row r="196" spans="9:11" x14ac:dyDescent="0.4">
       <c r="I196">
         <v>1.91</v>
       </c>
@@ -5655,7 +5886,7 @@
         <v>866.57399999999996</v>
       </c>
     </row>
-    <row r="197" spans="9:11">
+    <row r="197" spans="9:11" x14ac:dyDescent="0.4">
       <c r="I197">
         <v>1.92</v>
       </c>
@@ -5668,7 +5899,7 @@
         <v>872.154</v>
       </c>
     </row>
-    <row r="198" spans="9:11">
+    <row r="198" spans="9:11" x14ac:dyDescent="0.4">
       <c r="I198">
         <v>1.93</v>
       </c>
@@ -5681,7 +5912,7 @@
         <v>877.73399999999992</v>
       </c>
     </row>
-    <row r="199" spans="9:11">
+    <row r="199" spans="9:11" x14ac:dyDescent="0.4">
       <c r="I199">
         <v>1.94</v>
       </c>
@@ -5694,7 +5925,7 @@
         <v>883.31399999999996</v>
       </c>
     </row>
-    <row r="200" spans="9:11">
+    <row r="200" spans="9:11" x14ac:dyDescent="0.4">
       <c r="I200">
         <v>1.95</v>
       </c>
@@ -5707,7 +5938,7 @@
         <v>888.89400000000001</v>
       </c>
     </row>
-    <row r="201" spans="9:11">
+    <row r="201" spans="9:11" x14ac:dyDescent="0.4">
       <c r="I201">
         <v>1.96</v>
       </c>
@@ -5720,7 +5951,7 @@
         <v>894.47399999999993</v>
       </c>
     </row>
-    <row r="202" spans="9:11">
+    <row r="202" spans="9:11" x14ac:dyDescent="0.4">
       <c r="I202">
         <v>1.97</v>
       </c>
@@ -5733,7 +5964,7 @@
         <v>900.05399999999997</v>
       </c>
     </row>
-    <row r="203" spans="9:11">
+    <row r="203" spans="9:11" x14ac:dyDescent="0.4">
       <c r="I203">
         <v>1.98</v>
       </c>
@@ -5746,7 +5977,7 @@
         <v>905.63400000000001</v>
       </c>
     </row>
-    <row r="204" spans="9:11">
+    <row r="204" spans="9:11" x14ac:dyDescent="0.4">
       <c r="I204">
         <v>1.99</v>
       </c>
@@ -5759,7 +5990,7 @@
         <v>911.21400000000006</v>
       </c>
     </row>
-    <row r="205" spans="9:11">
+    <row r="205" spans="9:11" x14ac:dyDescent="0.4">
       <c r="I205">
         <v>2</v>
       </c>
@@ -5772,7 +6003,7 @@
         <v>916.79399999999998</v>
       </c>
     </row>
-    <row r="206" spans="9:11">
+    <row r="206" spans="9:11" x14ac:dyDescent="0.4">
       <c r="I206">
         <v>2.0099999999999998</v>
       </c>
@@ -5785,7 +6016,7 @@
         <v>922.37399999999991</v>
       </c>
     </row>
-    <row r="207" spans="9:11">
+    <row r="207" spans="9:11" x14ac:dyDescent="0.4">
       <c r="I207">
         <v>2.02</v>
       </c>
@@ -5798,7 +6029,7 @@
         <v>927.95400000000006</v>
       </c>
     </row>
-    <row r="208" spans="9:11">
+    <row r="208" spans="9:11" x14ac:dyDescent="0.4">
       <c r="I208">
         <v>2.0299999999999998</v>
       </c>
@@ -5811,7 +6042,7 @@
         <v>933.53399999999988</v>
       </c>
     </row>
-    <row r="209" spans="9:11">
+    <row r="209" spans="9:11" x14ac:dyDescent="0.4">
       <c r="I209">
         <v>2.04</v>
       </c>
@@ -5824,7 +6055,7 @@
         <v>939.11400000000003</v>
       </c>
     </row>
-    <row r="210" spans="9:11">
+    <row r="210" spans="9:11" x14ac:dyDescent="0.4">
       <c r="I210">
         <v>2.0499999999999998</v>
       </c>
@@ -5837,7 +6068,7 @@
         <v>944.69399999999996</v>
       </c>
     </row>
-    <row r="211" spans="9:11">
+    <row r="211" spans="9:11" x14ac:dyDescent="0.4">
       <c r="I211">
         <v>2.06</v>
       </c>
@@ -5850,7 +6081,7 @@
         <v>950.274</v>
       </c>
     </row>
-    <row r="212" spans="9:11">
+    <row r="212" spans="9:11" x14ac:dyDescent="0.4">
       <c r="I212">
         <v>2.0699999999999998</v>
       </c>
@@ -5863,7 +6094,7 @@
         <v>955.85399999999993</v>
       </c>
     </row>
-    <row r="213" spans="9:11">
+    <row r="213" spans="9:11" x14ac:dyDescent="0.4">
       <c r="I213">
         <v>2.08</v>
       </c>
@@ -5876,7 +6107,7 @@
         <v>961.43400000000008</v>
       </c>
     </row>
-    <row r="214" spans="9:11">
+    <row r="214" spans="9:11" x14ac:dyDescent="0.4">
       <c r="I214">
         <v>2.09</v>
       </c>
@@ -5889,7 +6120,7 @@
         <v>967.0139999999999</v>
       </c>
     </row>
-    <row r="215" spans="9:11">
+    <row r="215" spans="9:11" x14ac:dyDescent="0.4">
       <c r="I215">
         <v>2.1</v>
       </c>
@@ -5902,7 +6133,7 @@
         <v>972.59400000000005</v>
       </c>
     </row>
-    <row r="216" spans="9:11">
+    <row r="216" spans="9:11" x14ac:dyDescent="0.4">
       <c r="I216">
         <v>2.11</v>
       </c>
@@ -5915,7 +6146,7 @@
         <v>978.17399999999998</v>
       </c>
     </row>
-    <row r="217" spans="9:11">
+    <row r="217" spans="9:11" x14ac:dyDescent="0.4">
       <c r="I217">
         <v>2.12</v>
       </c>
@@ -5928,7 +6159,7 @@
         <v>983.75400000000002</v>
       </c>
     </row>
-    <row r="218" spans="9:11">
+    <row r="218" spans="9:11" x14ac:dyDescent="0.4">
       <c r="I218">
         <v>2.13</v>
       </c>
@@ -5941,7 +6172,7 @@
         <v>989.33399999999995</v>
       </c>
     </row>
-    <row r="219" spans="9:11">
+    <row r="219" spans="9:11" x14ac:dyDescent="0.4">
       <c r="I219">
         <v>2.14</v>
       </c>
@@ -5954,7 +6185,7 @@
         <v>994.9140000000001</v>
       </c>
     </row>
-    <row r="220" spans="9:11">
+    <row r="220" spans="9:11" x14ac:dyDescent="0.4">
       <c r="I220">
         <v>2.15</v>
       </c>
@@ -5967,7 +6198,7 @@
         <v>1000.4939999999999</v>
       </c>
     </row>
-    <row r="221" spans="9:11">
+    <row r="221" spans="9:11" x14ac:dyDescent="0.4">
       <c r="I221">
         <v>2.16</v>
       </c>
@@ -5980,7 +6211,7 @@
         <v>1006.0740000000001</v>
       </c>
     </row>
-    <row r="222" spans="9:11">
+    <row r="222" spans="9:11" x14ac:dyDescent="0.4">
       <c r="I222">
         <v>2.17</v>
       </c>
@@ -5993,7 +6224,7 @@
         <v>1011.654</v>
       </c>
     </row>
-    <row r="223" spans="9:11">
+    <row r="223" spans="9:11" x14ac:dyDescent="0.4">
       <c r="I223">
         <v>2.1800000000000002</v>
       </c>
@@ -6006,7 +6237,7 @@
         <v>1017.2340000000002</v>
       </c>
     </row>
-    <row r="224" spans="9:11">
+    <row r="224" spans="9:11" x14ac:dyDescent="0.4">
       <c r="I224">
         <v>2.19</v>
       </c>
@@ -6019,7 +6250,7 @@
         <v>1022.814</v>
       </c>
     </row>
-    <row r="225" spans="9:11">
+    <row r="225" spans="9:11" x14ac:dyDescent="0.4">
       <c r="I225">
         <v>2.2000000000000002</v>
       </c>
@@ -6032,7 +6263,7 @@
         <v>1028.394</v>
       </c>
     </row>
-    <row r="226" spans="9:11">
+    <row r="226" spans="9:11" x14ac:dyDescent="0.4">
       <c r="I226">
         <v>2.21</v>
       </c>
@@ -6045,7 +6276,7 @@
         <v>1033.9739999999999</v>
       </c>
     </row>
-    <row r="227" spans="9:11">
+    <row r="227" spans="9:11" x14ac:dyDescent="0.4">
       <c r="I227">
         <v>2.2200000000000002</v>
       </c>
@@ -6058,7 +6289,7 @@
         <v>1039.5540000000001</v>
       </c>
     </row>
-    <row r="228" spans="9:11">
+    <row r="228" spans="9:11" x14ac:dyDescent="0.4">
       <c r="I228">
         <v>2.23</v>
       </c>
@@ -6071,7 +6302,7 @@
         <v>1045.134</v>
       </c>
     </row>
-    <row r="229" spans="9:11">
+    <row r="229" spans="9:11" x14ac:dyDescent="0.4">
       <c r="I229">
         <v>2.2400000000000002</v>
       </c>
@@ -6084,7 +6315,7 @@
         <v>1050.7140000000002</v>
       </c>
     </row>
-    <row r="230" spans="9:11">
+    <row r="230" spans="9:11" x14ac:dyDescent="0.4">
       <c r="I230">
         <v>2.25</v>
       </c>
@@ -6097,7 +6328,7 @@
         <v>1056.2940000000001</v>
       </c>
     </row>
-    <row r="231" spans="9:11">
+    <row r="231" spans="9:11" x14ac:dyDescent="0.4">
       <c r="I231">
         <v>2.2599999999999998</v>
       </c>
@@ -6110,7 +6341,7 @@
         <v>1061.8739999999998</v>
       </c>
     </row>
-    <row r="232" spans="9:11">
+    <row r="232" spans="9:11" x14ac:dyDescent="0.4">
       <c r="I232">
         <v>2.27</v>
       </c>
@@ -6123,7 +6354,7 @@
         <v>1067.454</v>
       </c>
     </row>
-    <row r="233" spans="9:11">
+    <row r="233" spans="9:11" x14ac:dyDescent="0.4">
       <c r="I233">
         <v>2.2799999999999998</v>
       </c>
@@ -6136,7 +6367,7 @@
         <v>1073.0339999999999</v>
       </c>
     </row>
-    <row r="234" spans="9:11">
+    <row r="234" spans="9:11" x14ac:dyDescent="0.4">
       <c r="I234">
         <v>2.29</v>
       </c>
@@ -6149,7 +6380,7 @@
         <v>1078.614</v>
       </c>
     </row>
-    <row r="235" spans="9:11">
+    <row r="235" spans="9:11" x14ac:dyDescent="0.4">
       <c r="I235">
         <v>2.2999999999999998</v>
       </c>
@@ -6162,7 +6393,7 @@
         <v>1084.194</v>
       </c>
     </row>
-    <row r="236" spans="9:11">
+    <row r="236" spans="9:11" x14ac:dyDescent="0.4">
       <c r="I236">
         <v>2.31</v>
       </c>
@@ -6175,7 +6406,7 @@
         <v>1089.7740000000001</v>
       </c>
     </row>
-    <row r="237" spans="9:11">
+    <row r="237" spans="9:11" x14ac:dyDescent="0.4">
       <c r="I237">
         <v>2.3199999999999998</v>
       </c>
@@ -6188,7 +6419,7 @@
         <v>1095.3539999999998</v>
       </c>
     </row>
-    <row r="238" spans="9:11">
+    <row r="238" spans="9:11" x14ac:dyDescent="0.4">
       <c r="I238">
         <v>2.33</v>
       </c>
@@ -6201,7 +6432,7 @@
         <v>1100.934</v>
       </c>
     </row>
-    <row r="239" spans="9:11">
+    <row r="239" spans="9:11" x14ac:dyDescent="0.4">
       <c r="I239">
         <v>2.34</v>
       </c>
@@ -6214,7 +6445,7 @@
         <v>1106.5139999999999</v>
       </c>
     </row>
-    <row r="240" spans="9:11">
+    <row r="240" spans="9:11" x14ac:dyDescent="0.4">
       <c r="I240">
         <v>2.35</v>
       </c>
@@ -6227,7 +6458,7 @@
         <v>1112.0940000000001</v>
       </c>
     </row>
-    <row r="241" spans="9:11">
+    <row r="241" spans="9:11" x14ac:dyDescent="0.4">
       <c r="I241">
         <v>2.36</v>
       </c>
@@ -6240,7 +6471,7 @@
         <v>1117.674</v>
       </c>
     </row>
-    <row r="242" spans="9:11">
+    <row r="242" spans="9:11" x14ac:dyDescent="0.4">
       <c r="I242">
         <v>2.37</v>
       </c>
@@ -6253,7 +6484,7 @@
         <v>1123.2539999999999</v>
       </c>
     </row>
-    <row r="243" spans="9:11">
+    <row r="243" spans="9:11" x14ac:dyDescent="0.4">
       <c r="I243">
         <v>2.38</v>
       </c>
@@ -6266,7 +6497,7 @@
         <v>1128.8339999999998</v>
       </c>
     </row>
-    <row r="244" spans="9:11">
+    <row r="244" spans="9:11" x14ac:dyDescent="0.4">
       <c r="I244">
         <v>2.39</v>
       </c>
@@ -6279,7 +6510,7 @@
         <v>1134.4140000000002</v>
       </c>
     </row>
-    <row r="245" spans="9:11">
+    <row r="245" spans="9:11" x14ac:dyDescent="0.4">
       <c r="I245">
         <v>2.4</v>
       </c>
@@ -6292,7 +6523,7 @@
         <v>1139.9940000000001</v>
       </c>
     </row>
-    <row r="246" spans="9:11">
+    <row r="246" spans="9:11" x14ac:dyDescent="0.4">
       <c r="I246">
         <v>2.41</v>
       </c>
@@ -6305,7 +6536,7 @@
         <v>1145.5740000000001</v>
       </c>
     </row>
-    <row r="247" spans="9:11">
+    <row r="247" spans="9:11" x14ac:dyDescent="0.4">
       <c r="I247">
         <v>2.42</v>
       </c>
@@ -6318,7 +6549,7 @@
         <v>1151.1539999999998</v>
       </c>
     </row>
-    <row r="248" spans="9:11">
+    <row r="248" spans="9:11" x14ac:dyDescent="0.4">
       <c r="I248">
         <v>2.4300000000000002</v>
       </c>
@@ -6331,7 +6562,7 @@
         <v>1156.7340000000002</v>
       </c>
     </row>
-    <row r="249" spans="9:11">
+    <row r="249" spans="9:11" x14ac:dyDescent="0.4">
       <c r="I249">
         <v>2.44</v>
       </c>
@@ -6344,7 +6575,7 @@
         <v>1162.3140000000001</v>
       </c>
     </row>
-    <row r="250" spans="9:11">
+    <row r="250" spans="9:11" x14ac:dyDescent="0.4">
       <c r="I250">
         <v>2.4500000000000002</v>
       </c>
@@ -6357,7 +6588,7 @@
         <v>1167.894</v>
       </c>
     </row>
-    <row r="251" spans="9:11">
+    <row r="251" spans="9:11" x14ac:dyDescent="0.4">
       <c r="I251">
         <v>2.46</v>
       </c>
@@ -6370,7 +6601,7 @@
         <v>1173.4739999999999</v>
       </c>
     </row>
-    <row r="252" spans="9:11">
+    <row r="252" spans="9:11" x14ac:dyDescent="0.4">
       <c r="I252">
         <v>2.4700000000000002</v>
       </c>
@@ -6383,7 +6614,7 @@
         <v>1179.0540000000003</v>
       </c>
     </row>
-    <row r="253" spans="9:11">
+    <row r="253" spans="9:11" x14ac:dyDescent="0.4">
       <c r="I253">
         <v>2.48</v>
       </c>
@@ -6396,7 +6627,7 @@
         <v>1184.634</v>
       </c>
     </row>
-    <row r="254" spans="9:11">
+    <row r="254" spans="9:11" x14ac:dyDescent="0.4">
       <c r="I254">
         <v>2.4900000000000002</v>
       </c>
@@ -6409,7 +6640,7 @@
         <v>1190.2139999999999</v>
       </c>
     </row>
-    <row r="255" spans="9:11">
+    <row r="255" spans="9:11" x14ac:dyDescent="0.4">
       <c r="I255">
         <v>2.5</v>
       </c>
@@ -6422,7 +6653,7 @@
         <v>1195.7939999999999</v>
       </c>
     </row>
-    <row r="256" spans="9:11">
+    <row r="256" spans="9:11" x14ac:dyDescent="0.4">
       <c r="I256">
         <v>2.5099999999999998</v>
       </c>
@@ -6435,7 +6666,7 @@
         <v>1201.3739999999998</v>
       </c>
     </row>
-    <row r="257" spans="9:11">
+    <row r="257" spans="9:11" x14ac:dyDescent="0.4">
       <c r="I257">
         <v>2.52</v>
       </c>
@@ -6448,7 +6679,7 @@
         <v>1206.9540000000002</v>
       </c>
     </row>
-    <row r="258" spans="9:11">
+    <row r="258" spans="9:11" x14ac:dyDescent="0.4">
       <c r="I258">
         <v>2.5299999999999998</v>
       </c>
@@ -6461,7 +6692,7 @@
         <v>1212.5340000000001</v>
       </c>
     </row>
-    <row r="259" spans="9:11">
+    <row r="259" spans="9:11" x14ac:dyDescent="0.4">
       <c r="I259">
         <v>2.54</v>
       </c>
@@ -6474,7 +6705,7 @@
         <v>1218.1139999999998</v>
       </c>
     </row>
-    <row r="260" spans="9:11">
+    <row r="260" spans="9:11" x14ac:dyDescent="0.4">
       <c r="I260">
         <v>2.5499999999999998</v>
       </c>
@@ -6487,7 +6718,7 @@
         <v>1223.6939999999997</v>
       </c>
     </row>
-    <row r="261" spans="9:11">
+    <row r="261" spans="9:11" x14ac:dyDescent="0.4">
       <c r="I261">
         <v>2.56</v>
       </c>
@@ -6500,7 +6731,7 @@
         <v>1229.2740000000001</v>
       </c>
     </row>
-    <row r="262" spans="9:11">
+    <row r="262" spans="9:11" x14ac:dyDescent="0.4">
       <c r="I262">
         <v>2.57</v>
       </c>
@@ -6513,7 +6744,7 @@
         <v>1234.854</v>
       </c>
     </row>
-    <row r="263" spans="9:11">
+    <row r="263" spans="9:11" x14ac:dyDescent="0.4">
       <c r="I263">
         <v>2.58</v>
       </c>
@@ -6526,7 +6757,7 @@
         <v>1240.434</v>
       </c>
     </row>
-    <row r="264" spans="9:11">
+    <row r="264" spans="9:11" x14ac:dyDescent="0.4">
       <c r="I264">
         <v>2.59</v>
       </c>
@@ -6539,7 +6770,7 @@
         <v>1246.0139999999999</v>
       </c>
     </row>
-    <row r="265" spans="9:11">
+    <row r="265" spans="9:11" x14ac:dyDescent="0.4">
       <c r="I265">
         <v>2.6</v>
       </c>
@@ -6552,7 +6783,7 @@
         <v>1251.5940000000003</v>
       </c>
     </row>
-    <row r="266" spans="9:11">
+    <row r="266" spans="9:11" x14ac:dyDescent="0.4">
       <c r="I266">
         <v>2.61</v>
       </c>
@@ -6565,7 +6796,7 @@
         <v>1257.174</v>
       </c>
     </row>
-    <row r="267" spans="9:11">
+    <row r="267" spans="9:11" x14ac:dyDescent="0.4">
       <c r="I267">
         <v>2.62</v>
       </c>
@@ -6578,7 +6809,7 @@
         <v>1262.7539999999999</v>
       </c>
     </row>
-    <row r="268" spans="9:11">
+    <row r="268" spans="9:11" x14ac:dyDescent="0.4">
       <c r="I268">
         <v>2.63</v>
       </c>
@@ -6591,7 +6822,7 @@
         <v>1268.3339999999998</v>
       </c>
     </row>
-    <row r="269" spans="9:11">
+    <row r="269" spans="9:11" x14ac:dyDescent="0.4">
       <c r="I269">
         <v>2.64</v>
       </c>
@@ -6604,7 +6835,7 @@
         <v>1273.9140000000002</v>
       </c>
     </row>
-    <row r="270" spans="9:11">
+    <row r="270" spans="9:11" x14ac:dyDescent="0.4">
       <c r="I270">
         <v>2.65</v>
       </c>
@@ -6617,7 +6848,7 @@
         <v>1279.4940000000001</v>
       </c>
     </row>
-    <row r="271" spans="9:11">
+    <row r="271" spans="9:11" x14ac:dyDescent="0.4">
       <c r="I271">
         <v>2.66</v>
       </c>
@@ -6630,7 +6861,7 @@
         <v>1285.0740000000001</v>
       </c>
     </row>
-    <row r="272" spans="9:11">
+    <row r="272" spans="9:11" x14ac:dyDescent="0.4">
       <c r="I272">
         <v>2.67</v>
       </c>
@@ -6643,7 +6874,7 @@
         <v>1290.6539999999998</v>
       </c>
     </row>
-    <row r="273" spans="9:11">
+    <row r="273" spans="9:11" x14ac:dyDescent="0.4">
       <c r="I273">
         <v>2.68</v>
       </c>
@@ -6656,7 +6887,7 @@
         <v>1296.2340000000002</v>
       </c>
     </row>
-    <row r="274" spans="9:11">
+    <row r="274" spans="9:11" x14ac:dyDescent="0.4">
       <c r="I274">
         <v>2.69</v>
       </c>
@@ -6669,7 +6900,7 @@
         <v>1301.8140000000001</v>
       </c>
     </row>
-    <row r="275" spans="9:11">
+    <row r="275" spans="9:11" x14ac:dyDescent="0.4">
       <c r="I275">
         <v>2.7</v>
       </c>
@@ -6682,7 +6913,7 @@
         <v>1307.394</v>
       </c>
     </row>
-    <row r="276" spans="9:11">
+    <row r="276" spans="9:11" x14ac:dyDescent="0.4">
       <c r="I276">
         <v>2.71</v>
       </c>
@@ -6695,7 +6926,7 @@
         <v>1312.9739999999999</v>
       </c>
     </row>
-    <row r="277" spans="9:11">
+    <row r="277" spans="9:11" x14ac:dyDescent="0.4">
       <c r="I277">
         <v>2.72</v>
       </c>
@@ -6708,7 +6939,7 @@
         <v>1318.5540000000003</v>
       </c>
     </row>
-    <row r="278" spans="9:11">
+    <row r="278" spans="9:11" x14ac:dyDescent="0.4">
       <c r="I278">
         <v>2.73</v>
       </c>
@@ -6721,7 +6952,7 @@
         <v>1324.134</v>
       </c>
     </row>
-    <row r="279" spans="9:11">
+    <row r="279" spans="9:11" x14ac:dyDescent="0.4">
       <c r="I279">
         <v>2.74</v>
       </c>
@@ -6734,7 +6965,7 @@
         <v>1329.7139999999999</v>
       </c>
     </row>
-    <row r="280" spans="9:11">
+    <row r="280" spans="9:11" x14ac:dyDescent="0.4">
       <c r="I280">
         <v>2.75</v>
       </c>
@@ -6747,7 +6978,7 @@
         <v>1335.2939999999999</v>
       </c>
     </row>
-    <row r="281" spans="9:11">
+    <row r="281" spans="9:11" x14ac:dyDescent="0.4">
       <c r="I281">
         <v>2.76</v>
       </c>
@@ -6760,7 +6991,7 @@
         <v>1340.8739999999998</v>
       </c>
     </row>
-    <row r="282" spans="9:11">
+    <row r="282" spans="9:11" x14ac:dyDescent="0.4">
       <c r="I282">
         <v>2.77</v>
       </c>
@@ -6773,7 +7004,7 @@
         <v>1346.4540000000002</v>
       </c>
     </row>
-    <row r="283" spans="9:11">
+    <row r="283" spans="9:11" x14ac:dyDescent="0.4">
       <c r="I283">
         <v>2.78</v>
       </c>
@@ -6786,7 +7017,7 @@
         <v>1352.0340000000001</v>
       </c>
     </row>
-    <row r="284" spans="9:11">
+    <row r="284" spans="9:11" x14ac:dyDescent="0.4">
       <c r="I284">
         <v>2.79</v>
       </c>
@@ -6799,7 +7030,7 @@
         <v>1357.6139999999998</v>
       </c>
     </row>
-    <row r="285" spans="9:11">
+    <row r="285" spans="9:11" x14ac:dyDescent="0.4">
       <c r="I285">
         <v>2.8</v>
       </c>
@@ -6812,7 +7043,7 @@
         <v>1363.1939999999997</v>
       </c>
     </row>
-    <row r="286" spans="9:11">
+    <row r="286" spans="9:11" x14ac:dyDescent="0.4">
       <c r="I286">
         <v>2.81</v>
       </c>
@@ -6825,7 +7056,7 @@
         <v>1368.7740000000001</v>
       </c>
     </row>
-    <row r="287" spans="9:11">
+    <row r="287" spans="9:11" x14ac:dyDescent="0.4">
       <c r="I287">
         <v>2.82</v>
       </c>
@@ -6838,7 +7069,7 @@
         <v>1374.354</v>
       </c>
     </row>
-    <row r="288" spans="9:11">
+    <row r="288" spans="9:11" x14ac:dyDescent="0.4">
       <c r="I288">
         <v>2.83</v>
       </c>
@@ -6851,7 +7082,7 @@
         <v>1379.934</v>
       </c>
     </row>
-    <row r="289" spans="9:11">
+    <row r="289" spans="9:11" x14ac:dyDescent="0.4">
       <c r="I289">
         <v>2.84</v>
       </c>
@@ -6864,7 +7095,7 @@
         <v>1385.5139999999999</v>
       </c>
     </row>
-    <row r="290" spans="9:11">
+    <row r="290" spans="9:11" x14ac:dyDescent="0.4">
       <c r="I290">
         <v>2.85</v>
       </c>
@@ -6877,7 +7108,7 @@
         <v>1391.0940000000003</v>
       </c>
     </row>
-    <row r="291" spans="9:11">
+    <row r="291" spans="9:11" x14ac:dyDescent="0.4">
       <c r="I291">
         <v>2.86</v>
       </c>
@@ -6890,7 +7121,7 @@
         <v>1396.674</v>
       </c>
     </row>
-    <row r="292" spans="9:11">
+    <row r="292" spans="9:11" x14ac:dyDescent="0.4">
       <c r="I292">
         <v>2.87</v>
       </c>
@@ -6903,7 +7134,7 @@
         <v>1402.2539999999999</v>
       </c>
     </row>
-    <row r="293" spans="9:11">
+    <row r="293" spans="9:11" x14ac:dyDescent="0.4">
       <c r="I293">
         <v>2.88</v>
       </c>
@@ -6916,7 +7147,7 @@
         <v>1407.8339999999998</v>
       </c>
     </row>
-    <row r="294" spans="9:11">
+    <row r="294" spans="9:11" x14ac:dyDescent="0.4">
       <c r="I294">
         <v>2.89</v>
       </c>
@@ -6929,7 +7160,7 @@
         <v>1413.4140000000002</v>
       </c>
     </row>
-    <row r="295" spans="9:11">
+    <row r="295" spans="9:11" x14ac:dyDescent="0.4">
       <c r="I295">
         <v>2.9</v>
       </c>
@@ -6942,7 +7173,7 @@
         <v>1418.9940000000001</v>
       </c>
     </row>
-    <row r="296" spans="9:11">
+    <row r="296" spans="9:11" x14ac:dyDescent="0.4">
       <c r="I296">
         <v>2.91</v>
       </c>
@@ -6955,7 +7186,7 @@
         <v>1424.5740000000001</v>
       </c>
     </row>
-    <row r="297" spans="9:11">
+    <row r="297" spans="9:11" x14ac:dyDescent="0.4">
       <c r="I297">
         <v>2.92</v>
       </c>
@@ -6968,7 +7199,7 @@
         <v>1430.1539999999998</v>
       </c>
     </row>
-    <row r="298" spans="9:11">
+    <row r="298" spans="9:11" x14ac:dyDescent="0.4">
       <c r="I298">
         <v>2.93</v>
       </c>
@@ -6981,7 +7212,7 @@
         <v>1435.7340000000002</v>
       </c>
     </row>
-    <row r="299" spans="9:11">
+    <row r="299" spans="9:11" x14ac:dyDescent="0.4">
       <c r="I299">
         <v>2.94</v>
       </c>
@@ -6994,7 +7225,7 @@
         <v>1441.3140000000001</v>
       </c>
     </row>
-    <row r="300" spans="9:11">
+    <row r="300" spans="9:11" x14ac:dyDescent="0.4">
       <c r="I300">
         <v>2.95</v>
       </c>
@@ -7007,7 +7238,7 @@
         <v>1446.894</v>
       </c>
     </row>
-    <row r="301" spans="9:11">
+    <row r="301" spans="9:11" x14ac:dyDescent="0.4">
       <c r="I301">
         <v>2.96</v>
       </c>
@@ -7020,7 +7251,7 @@
         <v>1452.4739999999999</v>
       </c>
     </row>
-    <row r="302" spans="9:11">
+    <row r="302" spans="9:11" x14ac:dyDescent="0.4">
       <c r="I302">
         <v>2.97</v>
       </c>
@@ -7033,7 +7264,7 @@
         <v>1458.0540000000003</v>
       </c>
     </row>
-    <row r="303" spans="9:11">
+    <row r="303" spans="9:11" x14ac:dyDescent="0.4">
       <c r="I303">
         <v>2.98</v>
       </c>
@@ -7046,7 +7277,7 @@
         <v>1463.634</v>
       </c>
     </row>
-    <row r="304" spans="9:11">
+    <row r="304" spans="9:11" x14ac:dyDescent="0.4">
       <c r="I304">
         <v>2.99</v>
       </c>
@@ -7059,7 +7290,7 @@
         <v>1469.2139999999999</v>
       </c>
     </row>
-    <row r="305" spans="9:11">
+    <row r="305" spans="9:11" x14ac:dyDescent="0.4">
       <c r="I305">
         <v>3</v>
       </c>
@@ -7086,14 +7317,14 @@
       <selection activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="3" spans="2:9">
+    <row r="3" spans="2:9" x14ac:dyDescent="0.4">
       <c r="F3">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="2:9">
+    <row r="4" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B4">
         <v>3</v>
       </c>
@@ -7117,7 +7348,7 @@
         <v>2.3148148148148149</v>
       </c>
     </row>
-    <row r="5" spans="2:9">
+    <row r="5" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B5">
         <v>5</v>
       </c>
@@ -7141,7 +7372,7 @@
         <v>2.8490028490028494</v>
       </c>
     </row>
-    <row r="6" spans="2:9">
+    <row r="6" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B6">
         <v>10</v>
       </c>
@@ -7159,7 +7390,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="7" spans="2:9">
+    <row r="7" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B7">
         <v>30</v>
       </c>
@@ -7173,7 +7404,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="8" spans="2:9">
+    <row r="8" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B8">
         <v>50</v>
       </c>
@@ -7197,7 +7428,7 @@
         <v>1.7667844522968199</v>
       </c>
     </row>
-    <row r="9" spans="2:9">
+    <row r="9" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B9">
         <v>100</v>
       </c>
@@ -7221,7 +7452,7 @@
         <v>1.9120458891013383</v>
       </c>
     </row>
-    <row r="10" spans="2:9">
+    <row r="10" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B10">
         <v>300</v>
       </c>
@@ -7232,7 +7463,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="11" spans="2:9">
+    <row r="11" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B11">
         <v>3</v>
       </c>
@@ -7246,7 +7477,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="12" spans="2:9">
+    <row r="12" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B12">
         <v>5</v>
       </c>
@@ -7270,7 +7501,7 @@
         <v>1.6891891891891893</v>
       </c>
     </row>
-    <row r="13" spans="2:9">
+    <row r="13" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B13">
         <v>10</v>
       </c>
@@ -7294,7 +7525,7 @@
         <v>2.2271714922048997</v>
       </c>
     </row>
-    <row r="14" spans="2:9">
+    <row r="14" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B14">
         <v>30</v>
       </c>
@@ -7308,7 +7539,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="15" spans="2:9">
+    <row r="15" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B15">
         <v>50</v>
       </c>
@@ -7322,7 +7553,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="16" spans="2:9">
+    <row r="16" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B16">
         <v>100</v>
       </c>
@@ -7346,7 +7577,7 @@
         <v>1.8148820326678765</v>
       </c>
     </row>
-    <row r="17" spans="2:9">
+    <row r="17" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B17">
         <v>300</v>
       </c>
@@ -7367,7 +7598,7 @@
         <v>3.6496350364963499</v>
       </c>
     </row>
-    <row r="18" spans="2:9">
+    <row r="18" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B18">
         <v>3</v>
       </c>
@@ -7388,7 +7619,7 @@
         <v>6.9930069930069934</v>
       </c>
     </row>
-    <row r="19" spans="2:9">
+    <row r="19" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B19">
         <v>5</v>
       </c>
@@ -7399,7 +7630,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="20" spans="2:9">
+    <row r="20" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B20">
         <v>10</v>
       </c>
@@ -7420,7 +7651,7 @@
         <v>1.8315018315018314</v>
       </c>
     </row>
-    <row r="21" spans="2:9">
+    <row r="21" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B21">
         <v>30</v>
       </c>
@@ -7444,7 +7675,7 @@
         <v>2.8328611898017</v>
       </c>
     </row>
-    <row r="22" spans="2:9">
+    <row r="22" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B22">
         <v>50</v>
       </c>
@@ -7468,7 +7699,7 @@
         <v>4.3668122270742353</v>
       </c>
     </row>
-    <row r="23" spans="2:9">
+    <row r="23" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B23">
         <v>100</v>
       </c>
@@ -7479,7 +7710,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="24" spans="2:9">
+    <row r="24" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B24">
         <v>300</v>
       </c>
@@ -7500,7 +7731,7 @@
         <v>1.6583747927031509</v>
       </c>
     </row>
-    <row r="25" spans="2:9">
+    <row r="25" spans="2:9" x14ac:dyDescent="0.4">
       <c r="F25">
         <v>1000</v>
       </c>
@@ -7515,27 +7746,27 @@
         <v>2.2522522522522523</v>
       </c>
     </row>
-    <row r="26" spans="2:9">
+    <row r="26" spans="2:9" x14ac:dyDescent="0.4">
       <c r="F26">
         <v>2000</v>
       </c>
     </row>
-    <row r="27" spans="2:9">
+    <row r="27" spans="2:9" x14ac:dyDescent="0.4">
       <c r="F27" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="28" spans="2:9">
+    <row r="28" spans="2:9" x14ac:dyDescent="0.4">
       <c r="F28">
         <v>500</v>
       </c>
     </row>
-    <row r="29" spans="2:9">
+    <row r="29" spans="2:9" x14ac:dyDescent="0.4">
       <c r="F29">
         <v>1000</v>
       </c>
     </row>
-    <row r="30" spans="2:9">
+    <row r="30" spans="2:9" x14ac:dyDescent="0.4">
       <c r="F30">
         <v>2000</v>
       </c>

--- a/修論/本文0117/figure/j0_analysis.xlsx
+++ b/修論/本文0117/figure/j0_analysis.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\N\Documents\yakisaba\修論\本文0117\figure\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80A5E7FF-B452-411E-B518-CBAB1C5E2970}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99677338-3F41-4B54-BF39-BB7A921D91A6}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5070" yWindow="465" windowWidth="20205" windowHeight="13155" xr2:uid="{CCFCD27E-1F0B-405F-8564-B4DA451E3983}"/>
+    <workbookView xWindow="6105" yWindow="465" windowWidth="20205" windowHeight="13155" xr2:uid="{CCFCD27E-1F0B-405F-8564-B4DA451E3983}"/>
   </bookViews>
   <sheets>
     <sheet name="3QW_broadcontact _J0_annaysis" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="54">
   <si>
     <t xml:space="preserve">  係数値 ±標準偏差</t>
   </si>
@@ -241,6 +241,18 @@
   </si>
   <si>
     <t>cm/kA</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>w50,100　の解析</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>e=100の解析</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>w50,100,300の解析</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -608,7 +620,7 @@
   <dimension ref="F3:W56"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="W15" sqref="W15"/>
+      <selection activeCell="L20" sqref="L20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -963,6 +975,9 @@
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
+      <c r="K13" t="s">
+        <v>53</v>
+      </c>
       <c r="L13">
         <v>500</v>
       </c>
@@ -1096,7 +1111,7 @@
         <v>8</v>
       </c>
       <c r="L18">
-        <v>20</v>
+        <v>15.9</v>
       </c>
       <c r="M18" t="s">
         <v>10</v>
@@ -1105,7 +1120,7 @@
         <v>42</v>
       </c>
       <c r="O18">
-        <v>3.8</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="19" spans="6:16" x14ac:dyDescent="0.4">
@@ -1156,7 +1171,7 @@
       </c>
       <c r="L20">
         <f>M15-L18/L19</f>
-        <v>2.39541538482895E-2</v>
+        <v>5.1083002309390155E-2</v>
       </c>
       <c r="M20" t="s">
         <v>9</v>
@@ -1166,7 +1181,7 @@
       </c>
       <c r="O20">
         <f>SQRT(P21^2+P15^2)</f>
-        <v>2.8225567650262493E-2</v>
+        <v>2.0044692163751772E-2</v>
       </c>
     </row>
     <row r="21" spans="6:16" x14ac:dyDescent="0.4">
@@ -1185,14 +1200,14 @@
       </c>
       <c r="N21">
         <f>L18/L19</f>
-        <v>0.13233584615171051</v>
+        <v>0.10520699769060986</v>
       </c>
       <c r="O21" t="s">
         <v>44</v>
       </c>
       <c r="P21">
         <f>SQRT((O18/L19)^2+(L18/L19/L19*O19)^2)</f>
-        <v>2.7035357759414697E-2</v>
+        <v>1.8330782414822659E-2</v>
       </c>
     </row>
     <row r="22" spans="6:16" x14ac:dyDescent="0.4">
@@ -2808,7 +2823,7 @@
   <dimension ref="B2:N23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I16" sqref="I16:N23"/>
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -2844,6 +2859,9 @@
       <c r="E3">
         <v>500</v>
       </c>
+      <c r="I3" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="4" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B4">
@@ -3135,6 +3153,9 @@
       <c r="E15">
         <v>1000</v>
       </c>
+      <c r="I15" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="16" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B16">
@@ -3253,7 +3274,7 @@
         <v>8</v>
       </c>
       <c r="J20">
-        <v>18</v>
+        <v>23.7</v>
       </c>
       <c r="K20" t="s">
         <v>10</v>
@@ -3262,7 +3283,7 @@
         <v>45</v>
       </c>
       <c r="M20">
-        <v>2.5</v>
+        <v>7.19</v>
       </c>
     </row>
     <row r="21" spans="2:14" x14ac:dyDescent="0.4">
@@ -3313,7 +3334,7 @@
       </c>
       <c r="J22">
         <f>K17-J20/J21</f>
-        <v>0.35694084365549383</v>
+        <v>0.3467317774797336</v>
       </c>
       <c r="K22" t="s">
         <v>9</v>
@@ -3323,7 +3344,7 @@
       </c>
       <c r="M22">
         <f>SQRT(N23^2+M17^2)</f>
-        <v>2.4318204615953323E-2</v>
+        <v>3.0769567544194718E-2</v>
       </c>
     </row>
     <row r="23" spans="2:14" x14ac:dyDescent="0.4">
@@ -3342,14 +3363,14 @@
       </c>
       <c r="L23">
         <f>J20/J21</f>
-        <v>3.2239156344506165E-2</v>
+        <v>4.2448222520266449E-2</v>
       </c>
       <c r="M23" t="s">
         <v>48</v>
       </c>
       <c r="N23">
         <f>SQRT((M20/J21)^2+(M21*J20/J21/J21)^2)</f>
-        <v>1.7486139532308827E-2</v>
+        <v>2.571295951182518E-2</v>
       </c>
     </row>
   </sheetData>
